--- a/assets/images/Math182GradebookSp18.xlsx
+++ b/assets/images/Math182GradebookSp18.xlsx
@@ -9,31 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8805" windowHeight="5730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8805" windowHeight="5730"/>
   </bookViews>
   <sheets>
     <sheet name="GRADE BOOK" sheetId="1" r:id="rId1"/>
     <sheet name="Checklist" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="CORE">'GRADE BOOK'!$BU$18,'GRADE BOOK'!$BZ$18,'GRADE BOOK'!$CB$18,'GRADE BOOK'!$CE$18,'GRADE BOOK'!$CG$18,'GRADE BOOK'!$CJ$18,'GRADE BOOK'!$CL$18,'GRADE BOOK'!$CM$18,'GRADE BOOK'!$CR$18,'GRADE BOOK'!$CT$18</definedName>
-    <definedName name="Getting_Started">'GRADE BOOK'!$DA$18</definedName>
-    <definedName name="GP">'GRADE BOOK'!$J$18:$AJ$94</definedName>
+    <definedName name="CORE">'GRADE BOOK'!$BM$18,'GRADE BOOK'!$BR$18,'GRADE BOOK'!$BT$18,'GRADE BOOK'!$BW$18,'GRADE BOOK'!$BY$18,'GRADE BOOK'!$CB$18,'GRADE BOOK'!$CD$18,'GRADE BOOK'!$CE$18,'GRADE BOOK'!$CJ$18,'GRADE BOOK'!$CL$18</definedName>
+    <definedName name="Getting_Started">'GRADE BOOK'!$CS$18</definedName>
+    <definedName name="GP">'GRADE BOOK'!$J$18:$AF$94</definedName>
     <definedName name="GradeTable">'GRADE BOOK'!$G$4:$S$13</definedName>
-    <definedName name="Journal">'GRADE BOOK'!$BN$18:$BR$18</definedName>
-    <definedName name="Problems">'GRADE BOOK'!$BS$18:$CT$18</definedName>
-    <definedName name="Quizzes">'GRADE BOOK'!$AK$18:$BL$18</definedName>
+    <definedName name="Journal">'GRADE BOOK'!$BF$18:$BJ$18</definedName>
+    <definedName name="Problems">'GRADE BOOK'!$BK$18:$CL$18</definedName>
+    <definedName name="Quizzes">'GRADE BOOK'!$AG$18:$BE$18</definedName>
     <definedName name="Specifications" comment="This contains the minimum requirement for each grade.">'GRADE BOOK'!$A$8:$F$15</definedName>
-    <definedName name="Teaching">'GRADE BOOK'!$CU$18:$CZ$18</definedName>
+    <definedName name="Teaching">'GRADE BOOK'!$CM$18:$CR$18</definedName>
     <definedName name="TotalPoints">'GRADE BOOK'!#REF!</definedName>
-    <definedName name="WeBWorKScore">'GRADE BOOK'!$BM$18</definedName>
+    <definedName name="WeBWorKScore">'GRADE BOOK'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="147">
   <si>
     <t>F</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Serge Ballif</t>
   </si>
   <si>
-    <t>Math 181</t>
-  </si>
-  <si>
     <t>Guided Practice</t>
   </si>
   <si>
@@ -86,163 +83,7 @@
     <t>Daily Quizzes</t>
   </si>
   <si>
-    <t>GP1.1</t>
-  </si>
-  <si>
-    <t>GP1.2</t>
-  </si>
-  <si>
-    <t>GP1.3</t>
-  </si>
-  <si>
-    <t>GP1.4</t>
-  </si>
-  <si>
-    <t>GP1.5</t>
-  </si>
-  <si>
-    <t>GP1.6</t>
-  </si>
-  <si>
-    <t>GP1.7</t>
-  </si>
-  <si>
-    <t>GP1.8</t>
-  </si>
-  <si>
-    <t>GP2.1</t>
-  </si>
-  <si>
-    <t>GP2.2</t>
-  </si>
-  <si>
-    <t>GP2.3</t>
-  </si>
-  <si>
-    <t>GP2.4</t>
-  </si>
-  <si>
-    <t>GP2.5</t>
-  </si>
-  <si>
-    <t>GP2.6</t>
-  </si>
-  <si>
-    <t>GP2.7</t>
-  </si>
-  <si>
-    <t>GP2.8</t>
-  </si>
-  <si>
-    <t>GP3.1</t>
-  </si>
-  <si>
-    <t>GP3.3</t>
-  </si>
-  <si>
-    <t>GP3.5</t>
-  </si>
-  <si>
-    <t>GP3.4</t>
-  </si>
-  <si>
-    <t>GP4.1</t>
-  </si>
-  <si>
-    <t>GP4.2</t>
-  </si>
-  <si>
-    <t>GP4.3</t>
-  </si>
-  <si>
-    <t>GP4.4</t>
-  </si>
-  <si>
-    <t>GP5.1</t>
-  </si>
-  <si>
-    <t>GP5.2</t>
-  </si>
-  <si>
     <t>GP5.3</t>
-  </si>
-  <si>
-    <t>Quiz 1.3</t>
-  </si>
-  <si>
-    <t>Quiz 1.4</t>
-  </si>
-  <si>
-    <t>Quiz 1.5</t>
-  </si>
-  <si>
-    <t>Quiz 1.1</t>
-  </si>
-  <si>
-    <t>Quiz 1.2</t>
-  </si>
-  <si>
-    <t>Quiz 1.6</t>
-  </si>
-  <si>
-    <t>Quiz 1.7</t>
-  </si>
-  <si>
-    <t>Quiz 1.8</t>
-  </si>
-  <si>
-    <t>Quiz 2.1</t>
-  </si>
-  <si>
-    <t>Quiz 2.2</t>
-  </si>
-  <si>
-    <t>Quiz 2.3</t>
-  </si>
-  <si>
-    <t>Quiz 2.4</t>
-  </si>
-  <si>
-    <t>Quiz 2.5</t>
-  </si>
-  <si>
-    <t>Quiz 2.6</t>
-  </si>
-  <si>
-    <t>Quiz 2.7</t>
-  </si>
-  <si>
-    <t>Quiz 2.8</t>
-  </si>
-  <si>
-    <t>Quiz 3.1</t>
-  </si>
-  <si>
-    <t>Quiz 3.3</t>
-  </si>
-  <si>
-    <t>Quiz 3.5</t>
-  </si>
-  <si>
-    <t>Quiz 3.4</t>
-  </si>
-  <si>
-    <t>Quiz 4.1</t>
-  </si>
-  <si>
-    <t>Quiz 4.2</t>
-  </si>
-  <si>
-    <t>Quiz 4.3</t>
-  </si>
-  <si>
-    <t>Quiz 4.4</t>
-  </si>
-  <si>
-    <t>Quiz 5.1</t>
-  </si>
-  <si>
-    <t>Quiz 5.2</t>
   </si>
   <si>
     <t>Quiz 5.3</t>
@@ -406,9 +247,6 @@
     <t>2 WeBWorK journal</t>
   </si>
   <si>
-    <t>Fall 2017</t>
-  </si>
-  <si>
     <t>Miniproject 9</t>
   </si>
   <si>
@@ -553,6 +391,144 @@
   </si>
   <si>
     <t>4 WeBWorK journal</t>
+  </si>
+  <si>
+    <t>Math 182</t>
+  </si>
+  <si>
+    <t>Spring 2018</t>
+  </si>
+  <si>
+    <t>GP5.4</t>
+  </si>
+  <si>
+    <t>GP5.5</t>
+  </si>
+  <si>
+    <t>GP5.6</t>
+  </si>
+  <si>
+    <t>GP6.1</t>
+  </si>
+  <si>
+    <t>GP6.2</t>
+  </si>
+  <si>
+    <t>GP6.3</t>
+  </si>
+  <si>
+    <t>GP6.4</t>
+  </si>
+  <si>
+    <t>GP6.5</t>
+  </si>
+  <si>
+    <t>GPparametric</t>
+  </si>
+  <si>
+    <t>Gppolar</t>
+  </si>
+  <si>
+    <t>GP 7.1</t>
+  </si>
+  <si>
+    <t>GP 7.2</t>
+  </si>
+  <si>
+    <t>GP 7.3</t>
+  </si>
+  <si>
+    <t>GP 7.4</t>
+  </si>
+  <si>
+    <t>GP 7.5</t>
+  </si>
+  <si>
+    <t>GP 7.6</t>
+  </si>
+  <si>
+    <t>GP 8.1</t>
+  </si>
+  <si>
+    <t>GP 8.2</t>
+  </si>
+  <si>
+    <t>GP 8.3</t>
+  </si>
+  <si>
+    <t>GP 8.4</t>
+  </si>
+  <si>
+    <t>GP 8.5</t>
+  </si>
+  <si>
+    <t>GP 8.6</t>
+  </si>
+  <si>
+    <t>Quiz 5.4</t>
+  </si>
+  <si>
+    <t>Quiz 5.5</t>
+  </si>
+  <si>
+    <t>Quiz 5.6</t>
+  </si>
+  <si>
+    <t>Quiz 6.1</t>
+  </si>
+  <si>
+    <t>Quiz 6.2</t>
+  </si>
+  <si>
+    <t>Quiz 6.3</t>
+  </si>
+  <si>
+    <t>Quiz 6.4</t>
+  </si>
+  <si>
+    <t>Quiz 6.5</t>
+  </si>
+  <si>
+    <t>Quiz Parametric</t>
+  </si>
+  <si>
+    <t>Quiz 7.1</t>
+  </si>
+  <si>
+    <t>Quiz 7.2</t>
+  </si>
+  <si>
+    <t>Quiz 7.3</t>
+  </si>
+  <si>
+    <t>Quiz 7.4</t>
+  </si>
+  <si>
+    <t>Quiz 7.5</t>
+  </si>
+  <si>
+    <t>Quiz 7.6</t>
+  </si>
+  <si>
+    <t>Quiz 8.1</t>
+  </si>
+  <si>
+    <t>Quiz 8.2</t>
+  </si>
+  <si>
+    <t>Quiz 8.3</t>
+  </si>
+  <si>
+    <t>Quiz 8.4</t>
+  </si>
+  <si>
+    <t>Quiz 8.5</t>
+  </si>
+  <si>
+    <t>Quiz 8.6</t>
+  </si>
+  <si>
+    <t>Quiz Polar</t>
   </si>
 </sst>
 </file>
@@ -1135,9 +1111,6 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1148,6 +1121,9 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1506,12 +1482,12 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EE60"/>
+  <dimension ref="A1:DW60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <selection pane="topRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1522,27 +1498,27 @@
     <col min="4" max="7" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="36" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="39" max="65" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="69" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="70" max="72" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="74" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="4.5703125" style="1" customWidth="1"/>
-    <col min="77" max="91" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="4.5703125" style="1" customWidth="1"/>
-    <col min="94" max="100" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="101" max="103" width="4.5703125" style="1" customWidth="1"/>
-    <col min="104" max="104" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="106" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="9.140625" style="39"/>
-    <col min="108" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="32" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="57" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="61" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4.5703125" style="1" customWidth="1"/>
+    <col min="69" max="83" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="4.5703125" style="1" customWidth="1"/>
+    <col min="86" max="92" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="95" width="4.5703125" style="1" customWidth="1"/>
+    <col min="96" max="96" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="98" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="9.140625" style="39"/>
+    <col min="100" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:108" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:100" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:100" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1541,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="4" spans="1:108" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:100" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1578,9 +1554,9 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:108" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:100" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -1591,9 +1567,9 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:108" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:100" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -1604,7 +1580,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:108" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:100" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -1615,9 +1591,9 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="10">
         <v>0</v>
@@ -1642,20 +1618,20 @@
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
-      <c r="AK8" s="1"/>
-      <c r="AM8" s="15"/>
-      <c r="BN8" s="1"/>
-      <c r="BR8" s="15"/>
-      <c r="BU8" s="1"/>
-      <c r="BW8" s="15"/>
-      <c r="BX8" s="15"/>
-      <c r="DA8" s="1"/>
-      <c r="DC8" s="41"/>
-      <c r="DD8" s="39"/>
+      <c r="AG8" s="1"/>
+      <c r="AI8" s="15"/>
+      <c r="BF8" s="1"/>
+      <c r="BJ8" s="15"/>
+      <c r="BM8" s="1"/>
+      <c r="BO8" s="15"/>
+      <c r="BP8" s="15"/>
+      <c r="CS8" s="1"/>
+      <c r="CU8" s="41"/>
+      <c r="CV8" s="39"/>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="10">
         <v>0</v>
@@ -1680,20 +1656,20 @@
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
-      <c r="AK9" s="1"/>
-      <c r="AM9" s="15"/>
-      <c r="BN9" s="1"/>
-      <c r="BR9" s="15"/>
-      <c r="BU9" s="1"/>
-      <c r="BW9" s="15"/>
-      <c r="BX9" s="15"/>
-      <c r="DA9" s="1"/>
-      <c r="DC9" s="41"/>
-      <c r="DD9" s="39"/>
+      <c r="AG9" s="1"/>
+      <c r="AI9" s="15"/>
+      <c r="BF9" s="1"/>
+      <c r="BJ9" s="15"/>
+      <c r="BM9" s="1"/>
+      <c r="BO9" s="15"/>
+      <c r="BP9" s="15"/>
+      <c r="CS9" s="1"/>
+      <c r="CU9" s="41"/>
+      <c r="CV9" s="39"/>
     </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="10">
         <v>0</v>
@@ -1718,20 +1694,20 @@
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
-      <c r="AK10" s="1"/>
-      <c r="AM10" s="15"/>
-      <c r="BN10" s="1"/>
-      <c r="BR10" s="15"/>
-      <c r="BU10" s="1"/>
-      <c r="BW10" s="15"/>
-      <c r="BX10" s="15"/>
-      <c r="DA10" s="1"/>
-      <c r="DC10" s="41"/>
-      <c r="DD10" s="39"/>
+      <c r="AG10" s="1"/>
+      <c r="AI10" s="15"/>
+      <c r="BF10" s="1"/>
+      <c r="BJ10" s="15"/>
+      <c r="BM10" s="1"/>
+      <c r="BO10" s="15"/>
+      <c r="BP10" s="15"/>
+      <c r="CS10" s="1"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="39"/>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="10">
         <v>0</v>
@@ -1756,20 +1732,20 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="AK11" s="1"/>
-      <c r="AM11" s="15"/>
-      <c r="BN11" s="1"/>
-      <c r="BR11" s="15"/>
-      <c r="BU11" s="1"/>
-      <c r="BW11" s="15"/>
-      <c r="BX11" s="15"/>
-      <c r="DA11" s="1"/>
-      <c r="DC11" s="41"/>
-      <c r="DD11" s="39"/>
+      <c r="AG11" s="1"/>
+      <c r="AI11" s="15"/>
+      <c r="BF11" s="1"/>
+      <c r="BJ11" s="15"/>
+      <c r="BM11" s="1"/>
+      <c r="BO11" s="15"/>
+      <c r="BP11" s="15"/>
+      <c r="CS11" s="1"/>
+      <c r="CU11" s="41"/>
+      <c r="CV11" s="39"/>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
@@ -1794,20 +1770,20 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="AK12" s="1"/>
-      <c r="AM12" s="15"/>
-      <c r="BN12" s="1"/>
-      <c r="BR12" s="15"/>
-      <c r="BU12" s="1"/>
-      <c r="BW12" s="15"/>
-      <c r="BX12" s="15"/>
-      <c r="DA12" s="1"/>
-      <c r="DC12" s="41"/>
-      <c r="DD12" s="39"/>
+      <c r="AG12" s="1"/>
+      <c r="AI12" s="15"/>
+      <c r="BF12" s="1"/>
+      <c r="BJ12" s="15"/>
+      <c r="BM12" s="1"/>
+      <c r="BO12" s="15"/>
+      <c r="BP12" s="15"/>
+      <c r="CS12" s="1"/>
+      <c r="CU12" s="41"/>
+      <c r="CV12" s="39"/>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="B13" s="10">
         <v>0</v>
@@ -1832,20 +1808,20 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="AK13" s="1"/>
-      <c r="AM13" s="15"/>
-      <c r="BN13" s="1"/>
-      <c r="BR13" s="15"/>
-      <c r="BU13" s="1"/>
-      <c r="BW13" s="15"/>
-      <c r="BX13" s="15"/>
-      <c r="DA13" s="1"/>
-      <c r="DC13" s="41"/>
-      <c r="DD13" s="39"/>
+      <c r="AG13" s="1"/>
+      <c r="AI13" s="15"/>
+      <c r="BF13" s="1"/>
+      <c r="BJ13" s="15"/>
+      <c r="BM13" s="1"/>
+      <c r="BO13" s="15"/>
+      <c r="BP13" s="15"/>
+      <c r="CS13" s="1"/>
+      <c r="CU13" s="41"/>
+      <c r="CV13" s="39"/>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>0</v>
@@ -1862,18 +1838,18 @@
       <c r="F14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AK14" s="1"/>
-      <c r="AM14" s="15"/>
-      <c r="BN14" s="1"/>
-      <c r="BR14" s="15"/>
-      <c r="BU14" s="1"/>
-      <c r="BW14" s="15"/>
-      <c r="BX14" s="15"/>
-      <c r="DA14" s="1"/>
-      <c r="DC14" s="41"/>
-      <c r="DD14" s="39"/>
+      <c r="AG14" s="1"/>
+      <c r="AI14" s="15"/>
+      <c r="BF14" s="1"/>
+      <c r="BJ14" s="15"/>
+      <c r="BM14" s="1"/>
+      <c r="BO14" s="15"/>
+      <c r="BP14" s="15"/>
+      <c r="CS14" s="1"/>
+      <c r="CU14" s="41"/>
+      <c r="CV14" s="39"/>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1892,25 +1868,25 @@
       <c r="F15" s="9">
         <v>4</v>
       </c>
-      <c r="AK15" s="1"/>
-      <c r="AM15" s="15"/>
-      <c r="BN15" s="1"/>
-      <c r="BR15" s="15"/>
-      <c r="BU15" s="1"/>
-      <c r="BW15" s="15"/>
-      <c r="BX15" s="15"/>
-      <c r="DA15" s="1"/>
-      <c r="DC15" s="41"/>
-      <c r="DD15" s="39"/>
+      <c r="AG15" s="1"/>
+      <c r="AI15" s="15"/>
+      <c r="BF15" s="1"/>
+      <c r="BJ15" s="15"/>
+      <c r="BM15" s="1"/>
+      <c r="BO15" s="15"/>
+      <c r="BP15" s="15"/>
+      <c r="CS15" s="1"/>
+      <c r="CU15" s="41"/>
+      <c r="CV15" s="39"/>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:135" ht="84.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:127" ht="84.75" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>6</v>
       </c>
@@ -1918,318 +1894,302 @@
         <v>7</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="D17" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="G17" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="34" t="s">
+      <c r="K17" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q17" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="T17" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="U17" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="V17" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="W17" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="X17" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y17" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z17" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA17" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB17" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC17" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD17" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE17" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF17" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ17" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="18" t="s">
+      <c r="AK17" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL17" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM17" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN17" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO17" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP17" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ17" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR17" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS17" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT17" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU17" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV17" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW17" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX17" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY17" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ17" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA17" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB17" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC17" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD17" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE17" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="BF17" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="BG17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="BI17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="BK17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="BL17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="BM17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO17" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP17" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="BQ17" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="BR17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="BS17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="BU17" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="BV17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="BW17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="BX17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="BY17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="BZ17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="CA17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="CB17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="CC17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="CD17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="CE17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="CF17" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG17" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="CI17" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="CJ17" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="CK17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="CL17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="R17" s="18" t="s">
+      <c r="CM17" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="CN17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="S17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="U17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="W17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="X17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z17" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA17" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE17" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF17" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG17" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK17" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL17" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ17" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR17" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS17" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU17" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW17" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX17" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="AY17" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ17" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA17" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC17" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="BD17" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE17" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF17" s="20" t="s">
+      <c r="CO17" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="BG17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="BH17" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="BI17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ17" s="20" t="s">
+      <c r="CP17" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="BK17" s="20" t="s">
+      <c r="CQ17" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="BL17" s="20" t="s">
+      <c r="CR17" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="BM17" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN17" s="21" t="s">
+      <c r="CS17" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="CT17" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="BO17" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP17" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="BQ17" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR17" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="BS17" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="BT17" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="BV17" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="BW17" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="BX17" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="BY17" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="BZ17" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="CA17" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="CB17" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="CC17" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="CD17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="CE17" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="CF17" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="CG17" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="CH17" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="CI17" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="CJ17" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="CK17" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="CL17" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="CM17" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="CN17" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="CO17" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="CP17" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="CQ17" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="CR17" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="CS17" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="CT17" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="CU17" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="CV17" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="CW17" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="CX17" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="CY17" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="CZ17" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="DA17" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="DB17" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="DC17" s="40"/>
+      <c r="CU17" s="40"/>
+      <c r="CV17" s="13"/>
+      <c r="CW17" s="13"/>
+      <c r="CX17" s="13"/>
+      <c r="CY17" s="13"/>
+      <c r="CZ17" s="13"/>
+      <c r="DA17" s="13"/>
+      <c r="DB17" s="13"/>
+      <c r="DC17" s="13"/>
       <c r="DD17" s="13"/>
       <c r="DE17" s="13"/>
       <c r="DF17" s="13"/>
@@ -2250,314 +2210,288 @@
       <c r="DU17" s="13"/>
       <c r="DV17" s="13"/>
       <c r="DW17" s="13"/>
-      <c r="DX17" s="13"/>
-      <c r="DY17" s="13"/>
-      <c r="DZ17" s="13"/>
-      <c r="EA17" s="13"/>
-      <c r="EB17" s="13"/>
-      <c r="EC17" s="13"/>
-      <c r="ED17" s="13"/>
-      <c r="EE17" s="13"/>
     </row>
-    <row r="18" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="33" t="str">
         <f>IF(COUNTIF(D18:I18,"F")&gt;1,"F",IF(COUNTIF(D18:I18,"F")=1,"D-",IF(COUNTIF(D18:I18,"D")&gt;2,"D",IF(COUNTIF(D18:I18,"D")=2,"D",IF(COUNTIF(D18:I18,"D")=1,"C-",IF(COUNTIF(D18:I18,"C")&gt;2,"C",IF(COUNTIF(D18:I18,"C")=2,"C+",IF(COUNTIF(D18:I18,"C")=1,"B-",IF(COUNTIF(D18:I18,"B")&gt;2,"B",IF(COUNTIF(D18:I18,"B")=2,"B+",IF(COUNTIF(D18:I18,"B")=1,"A-","A")))))))))))</f>
+        <v>B-</v>
+      </c>
+      <c r="D18" s="27" t="str">
+        <f t="shared" ref="D18:D57" si="0">AH18</f>
         <v>B</v>
       </c>
-      <c r="D18" s="27" t="str">
-        <f t="shared" ref="D18:D57" si="0">AL18</f>
+      <c r="E18" s="28" t="str">
+        <f>BG18</f>
+        <v>C</v>
+      </c>
+      <c r="F18" s="28" t="str">
+        <f t="shared" ref="F18:F57" si="1">BI18</f>
         <v>B</v>
       </c>
-      <c r="E18" s="28" t="str">
-        <f>BO18</f>
+      <c r="G18" s="28" t="str">
+        <f t="shared" ref="G18:G57" si="2">BN18</f>
         <v>B</v>
       </c>
-      <c r="F18" s="28" t="str">
-        <f t="shared" ref="F18:F57" si="1">BQ18</f>
+      <c r="H18" s="28" t="str">
+        <f>CG18</f>
         <v>B</v>
       </c>
-      <c r="G18" s="28" t="str">
-        <f t="shared" ref="G18:G57" si="2">BV18</f>
+      <c r="I18" s="28" t="str">
+        <f t="shared" ref="I18:I57" si="3">CT18</f>
         <v>B</v>
       </c>
-      <c r="H18" s="28" t="str">
-        <f>CO18</f>
+      <c r="J18" s="26">
+        <v>1</v>
+      </c>
+      <c r="K18" s="26">
+        <v>1</v>
+      </c>
+      <c r="L18" s="26">
+        <v>1</v>
+      </c>
+      <c r="M18" s="26">
+        <v>1</v>
+      </c>
+      <c r="N18" s="26">
+        <v>1</v>
+      </c>
+      <c r="O18" s="26">
+        <v>1</v>
+      </c>
+      <c r="P18" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>1</v>
+      </c>
+      <c r="R18" s="26">
+        <v>1</v>
+      </c>
+      <c r="S18" s="26">
+        <v>1</v>
+      </c>
+      <c r="T18" s="26">
+        <v>1</v>
+      </c>
+      <c r="U18" s="26">
+        <v>1</v>
+      </c>
+      <c r="V18" s="26">
+        <v>1</v>
+      </c>
+      <c r="W18" s="26">
+        <v>1</v>
+      </c>
+      <c r="X18" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="26">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="29">
+        <f>SUM('GRADE BOOK'!$J18:$AF18)</f>
+        <v>23</v>
+      </c>
+      <c r="AH18" s="29" t="str">
+        <f>HLOOKUP(AG18,A$8:F$15,7,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="I18" s="28" t="str">
-        <f t="shared" ref="I18:I57" si="3">DB18</f>
+      <c r="AI18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AR18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="30"/>
+      <c r="AY18" s="31">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="31">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="31">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="30"/>
+      <c r="BC18" s="30"/>
+      <c r="BD18" s="30"/>
+      <c r="BE18" s="30"/>
+      <c r="BF18" s="29">
+        <f>SUM(AI18:BE18)</f>
+        <v>16</v>
+      </c>
+      <c r="BG18" s="29" t="str">
+        <f>HLOOKUP(BF18,A$9:F$15,6,TRUE)</f>
+        <v>C</v>
+      </c>
+      <c r="BH18" s="29">
+        <v>116</v>
+      </c>
+      <c r="BI18" s="29" t="str">
+        <f>HLOOKUP(BH18,B$10:F$15,5,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="J18" s="26">
-        <v>1</v>
-      </c>
-      <c r="K18" s="26">
-        <v>1</v>
-      </c>
-      <c r="L18" s="26">
-        <v>1</v>
-      </c>
-      <c r="M18" s="26">
-        <v>1</v>
-      </c>
-      <c r="N18" s="26">
-        <v>1</v>
-      </c>
-      <c r="O18" s="26">
-        <v>1</v>
-      </c>
-      <c r="P18" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>1</v>
-      </c>
-      <c r="R18" s="26">
-        <v>1</v>
-      </c>
-      <c r="S18" s="26">
-        <v>1</v>
-      </c>
-      <c r="T18" s="26">
-        <v>1</v>
-      </c>
-      <c r="U18" s="26">
-        <v>1</v>
-      </c>
-      <c r="V18" s="26">
-        <v>1</v>
-      </c>
-      <c r="W18" s="26">
-        <v>1</v>
-      </c>
-      <c r="X18" s="26">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="26">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="26">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="26">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="26">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="26">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="26">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="26">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="29">
-        <f>SUM('GRADE BOOK'!$J18:$AJ18)</f>
-        <v>24</v>
-      </c>
-      <c r="AL18" s="29" t="str">
-        <f>HLOOKUP(AK18,A$8:F$15,7,TRUE)</f>
+      <c r="BJ18" s="30">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="30"/>
+      <c r="BL18" s="30">
+        <v>1</v>
+      </c>
+      <c r="BM18" s="29">
+        <f>SUM(BJ18:BL18)</f>
+        <v>2</v>
+      </c>
+      <c r="BN18" s="29" t="str">
+        <f>HLOOKUP(BM18,A$11:F$15,4,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="AM18" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30">
-        <v>1</v>
-      </c>
-      <c r="AP18" s="30">
-        <v>1</v>
-      </c>
-      <c r="AQ18" s="30"/>
-      <c r="AR18" s="31">
-        <v>1</v>
-      </c>
-      <c r="AS18" s="31">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="31">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="31">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="31">
-        <v>1</v>
-      </c>
-      <c r="AW18" s="31">
-        <v>1</v>
-      </c>
-      <c r="AX18" s="31">
-        <v>1</v>
-      </c>
-      <c r="AY18" s="31">
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="31">
-        <v>1</v>
-      </c>
-      <c r="BA18" s="31">
-        <v>1</v>
-      </c>
-      <c r="BB18" s="30"/>
-      <c r="BC18" s="31">
-        <v>1</v>
-      </c>
-      <c r="BD18" s="31">
-        <v>1</v>
-      </c>
-      <c r="BE18" s="31">
-        <v>1</v>
-      </c>
-      <c r="BF18" s="30"/>
-      <c r="BG18" s="30"/>
-      <c r="BH18" s="30"/>
-      <c r="BI18" s="30"/>
-      <c r="BJ18" s="30">
-        <v>1</v>
-      </c>
-      <c r="BK18" s="30">
-        <v>1</v>
-      </c>
-      <c r="BL18" s="30">
-        <v>1</v>
-      </c>
-      <c r="BM18" s="31">
-        <v>1</v>
-      </c>
-      <c r="BN18" s="29">
-        <f>SUM(AM18:BM18)</f>
-        <v>20</v>
-      </c>
-      <c r="BO18" s="29" t="str">
-        <f>HLOOKUP(BN18,A$9:F$15,6,TRUE)</f>
+      <c r="BO18" s="31">
+        <v>1</v>
+      </c>
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="31">
+        <v>1</v>
+      </c>
+      <c r="BR18" s="31">
+        <v>1</v>
+      </c>
+      <c r="BS18" s="30"/>
+      <c r="BT18" s="30"/>
+      <c r="BU18" s="31">
+        <v>1</v>
+      </c>
+      <c r="BV18" s="30"/>
+      <c r="BW18" s="30">
+        <v>1</v>
+      </c>
+      <c r="BX18" s="30">
+        <v>1</v>
+      </c>
+      <c r="BY18" s="30">
+        <v>1</v>
+      </c>
+      <c r="BZ18" s="31">
+        <v>1</v>
+      </c>
+      <c r="CA18" s="30"/>
+      <c r="CB18" s="31">
+        <v>1</v>
+      </c>
+      <c r="CC18" s="31">
+        <v>1</v>
+      </c>
+      <c r="CD18" s="31">
+        <v>1</v>
+      </c>
+      <c r="CE18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CF18" s="29">
+        <f>SUM(BO18:CE18)</f>
+        <v>12</v>
+      </c>
+      <c r="CG18" s="29" t="str">
+        <f>HLOOKUP(CF18,A$12:F$15,3,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="BP18" s="29">
-        <v>116</v>
-      </c>
-      <c r="BQ18" s="29" t="str">
-        <f>HLOOKUP(BP18,B$10:F$15,5,TRUE)</f>
+      <c r="CH18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CI18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CJ18" s="30"/>
+      <c r="CK18" s="31"/>
+      <c r="CL18" s="30"/>
+      <c r="CM18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CN18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CO18" s="30"/>
+      <c r="CP18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CQ18" s="31">
+        <v>1</v>
+      </c>
+      <c r="CR18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CS18" s="29">
+        <f>SUM(CH18:CR18)</f>
+        <v>7</v>
+      </c>
+      <c r="CT18" s="29" t="str">
+        <f>HLOOKUP(CS18,A$13:F$15,2,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="BR18" s="30">
-        <v>1</v>
-      </c>
-      <c r="BS18" s="30"/>
-      <c r="BT18" s="30">
-        <v>1</v>
-      </c>
-      <c r="BU18" s="29">
-        <f>SUM(BR18:BT18)</f>
-        <v>2</v>
-      </c>
-      <c r="BV18" s="29" t="str">
-        <f>HLOOKUP(BU18,A$11:F$15,4,TRUE)</f>
-        <v>B</v>
-      </c>
-      <c r="BW18" s="31">
-        <v>1</v>
-      </c>
-      <c r="BX18" s="31"/>
-      <c r="BY18" s="31">
-        <v>1</v>
-      </c>
-      <c r="BZ18" s="31">
-        <v>1</v>
-      </c>
-      <c r="CA18" s="30"/>
-      <c r="CB18" s="30"/>
-      <c r="CC18" s="31">
-        <v>1</v>
-      </c>
-      <c r="CD18" s="30"/>
-      <c r="CE18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CF18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CG18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CH18" s="31">
-        <v>1</v>
-      </c>
-      <c r="CI18" s="30"/>
-      <c r="CJ18" s="31">
-        <v>1</v>
-      </c>
-      <c r="CK18" s="31">
-        <v>1</v>
-      </c>
-      <c r="CL18" s="31">
-        <v>1</v>
-      </c>
-      <c r="CM18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CN18" s="29">
-        <f>SUM(BW18:CM18)</f>
-        <v>12</v>
-      </c>
-      <c r="CO18" s="29" t="str">
-        <f>HLOOKUP(CN18,A$12:F$15,3,TRUE)</f>
-        <v>B</v>
-      </c>
-      <c r="CP18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CQ18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CR18" s="30"/>
-      <c r="CS18" s="31"/>
-      <c r="CT18" s="30"/>
-      <c r="CU18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CV18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CW18" s="30"/>
-      <c r="CX18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CY18" s="31">
-        <v>1</v>
-      </c>
-      <c r="CZ18" s="30">
-        <v>1</v>
-      </c>
-      <c r="DA18" s="29">
-        <f>SUM(CP18:CZ18)</f>
-        <v>7</v>
-      </c>
-      <c r="DB18" s="29" t="str">
-        <f>HLOOKUP(DA18,A$13:F$15,2,TRUE)</f>
-        <v>B</v>
-      </c>
     </row>
-    <row r="19" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="33" t="str">
@@ -2566,10 +2500,10 @@
       </c>
       <c r="D19" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="E19" s="28" t="str">
-        <f t="shared" ref="E19:E57" si="5">BO19</f>
+        <f t="shared" ref="E19:E57" si="5">BG19</f>
         <v>C</v>
       </c>
       <c r="F19" s="28" t="str">
@@ -2581,7 +2515,7 @@
         <v>A</v>
       </c>
       <c r="H19" s="28" t="str">
-        <f t="shared" ref="H19:H57" si="6">CO19</f>
+        <f t="shared" ref="H19:H57" si="6">CG19</f>
         <v>C</v>
       </c>
       <c r="I19" s="28" t="str">
@@ -2655,207 +2589,191 @@
         <v>1</v>
       </c>
       <c r="AF19" s="26"/>
-      <c r="AG19" s="26">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="26">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="29">
-        <f>SUM('GRADE BOOK'!$J19:$AJ19)</f>
-        <v>25</v>
-      </c>
-      <c r="AL19" s="29" t="str">
-        <f t="shared" ref="AL19:AL57" si="7">HLOOKUP(AK19,A$8:F$15,7,TRUE)</f>
+      <c r="AG19" s="29">
+        <f>SUM('GRADE BOOK'!$J19:$AF19)</f>
+        <v>22</v>
+      </c>
+      <c r="AH19" s="29" t="str">
+        <f>HLOOKUP(AG19,A$8:F$15,7,TRUE)</f>
+        <v>B</v>
+      </c>
+      <c r="AI19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="30"/>
+      <c r="AO19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AR19" s="30"/>
+      <c r="AS19" s="31">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="31">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="30">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="30">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="30">
+        <v>1</v>
+      </c>
+      <c r="BB19" s="30"/>
+      <c r="BC19" s="30"/>
+      <c r="BD19" s="31">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="31">
+        <v>1</v>
+      </c>
+      <c r="BF19" s="29">
+        <f>SUM(AI19:BE19)</f>
+        <v>18</v>
+      </c>
+      <c r="BG19" s="29" t="str">
+        <f>HLOOKUP(BF19,A$9:F$15,6,TRUE)</f>
+        <v>C</v>
+      </c>
+      <c r="BH19" s="29">
+        <v>140</v>
+      </c>
+      <c r="BI19" s="29" t="str">
+        <f>HLOOKUP(BH19,B$10:F$15,5,TRUE)</f>
         <v>A</v>
       </c>
-      <c r="AM19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AR19" s="30"/>
-      <c r="AS19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AV19" s="30"/>
-      <c r="AW19" s="31">
-        <v>1</v>
-      </c>
-      <c r="AX19" s="31">
-        <v>1</v>
-      </c>
-      <c r="AY19" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ19" s="30">
-        <v>1</v>
-      </c>
-      <c r="BA19" s="30">
-        <v>1</v>
-      </c>
-      <c r="BB19" s="30">
-        <v>1</v>
-      </c>
-      <c r="BC19" s="30">
-        <v>1</v>
-      </c>
-      <c r="BD19" s="30">
-        <v>1</v>
-      </c>
-      <c r="BE19" s="30">
-        <v>1</v>
-      </c>
-      <c r="BF19" s="30"/>
-      <c r="BG19" s="30"/>
-      <c r="BH19" s="31">
-        <v>1</v>
-      </c>
-      <c r="BI19" s="31">
-        <v>1</v>
-      </c>
-      <c r="BJ19" s="31">
-        <v>1</v>
-      </c>
-      <c r="BK19" s="30"/>
-      <c r="BL19" s="30"/>
-      <c r="BM19" s="30"/>
-      <c r="BN19" s="29">
-        <f t="shared" ref="BN19:BN57" si="8">SUM(AM19:BM19)</f>
-        <v>19</v>
-      </c>
-      <c r="BO19" s="29" t="str">
-        <f t="shared" ref="BO19:BO57" si="9">HLOOKUP(BN19,A$9:F$15,6,TRUE)</f>
+      <c r="BJ19" s="30">
+        <v>1</v>
+      </c>
+      <c r="BK19" s="30">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="30">
+        <v>1</v>
+      </c>
+      <c r="BM19" s="29">
+        <f t="shared" ref="BM19:BM57" si="7">SUM(BJ19:BL19)</f>
+        <v>3</v>
+      </c>
+      <c r="BN19" s="29" t="str">
+        <f>HLOOKUP(BM19,A$11:F$15,4,TRUE)</f>
+        <v>A</v>
+      </c>
+      <c r="BO19" s="30"/>
+      <c r="BP19" s="30"/>
+      <c r="BQ19" s="30"/>
+      <c r="BR19" s="30">
+        <v>1</v>
+      </c>
+      <c r="BS19" s="30"/>
+      <c r="BT19" s="30"/>
+      <c r="BU19" s="30">
+        <v>1</v>
+      </c>
+      <c r="BV19" s="30">
+        <v>1</v>
+      </c>
+      <c r="BW19" s="30">
+        <v>1</v>
+      </c>
+      <c r="BX19" s="30">
+        <v>1</v>
+      </c>
+      <c r="BY19" s="31">
+        <v>1</v>
+      </c>
+      <c r="BZ19" s="30">
+        <v>1</v>
+      </c>
+      <c r="CA19" s="31">
+        <v>1</v>
+      </c>
+      <c r="CB19" s="30">
+        <v>1</v>
+      </c>
+      <c r="CC19" s="30"/>
+      <c r="CD19" s="30">
+        <v>1</v>
+      </c>
+      <c r="CE19" s="31">
+        <v>1</v>
+      </c>
+      <c r="CF19" s="29">
+        <f t="shared" ref="CF19:CF57" si="8">SUM(BO19:CE19)</f>
+        <v>11</v>
+      </c>
+      <c r="CG19" s="29" t="str">
+        <f>HLOOKUP(CF19,A$12:F$15,3,TRUE)</f>
         <v>C</v>
       </c>
-      <c r="BP19" s="29">
-        <v>140</v>
-      </c>
-      <c r="BQ19" s="29" t="str">
-        <f t="shared" ref="BQ19:BQ57" si="10">HLOOKUP(BP19,B$10:F$15,5,TRUE)</f>
+      <c r="CH19" s="30">
+        <v>1</v>
+      </c>
+      <c r="CI19" s="30">
+        <v>1</v>
+      </c>
+      <c r="CJ19" s="31">
+        <v>1</v>
+      </c>
+      <c r="CK19" s="31">
+        <v>1</v>
+      </c>
+      <c r="CL19" s="30">
+        <v>1</v>
+      </c>
+      <c r="CM19" s="30">
+        <v>1</v>
+      </c>
+      <c r="CN19" s="30"/>
+      <c r="CO19" s="30"/>
+      <c r="CP19" s="31">
+        <v>1</v>
+      </c>
+      <c r="CQ19" s="31">
+        <v>1</v>
+      </c>
+      <c r="CR19" s="30">
+        <v>1</v>
+      </c>
+      <c r="CS19" s="29">
+        <f t="shared" ref="CS19:CS57" si="9">SUM(CH19:CR19)</f>
+        <v>9</v>
+      </c>
+      <c r="CT19" s="29" t="str">
+        <f>HLOOKUP(CS19,A$13:F$15,2,TRUE)</f>
         <v>A</v>
       </c>
-      <c r="BR19" s="30">
-        <v>1</v>
-      </c>
-      <c r="BS19" s="30">
-        <v>1</v>
-      </c>
-      <c r="BT19" s="30">
-        <v>1</v>
-      </c>
-      <c r="BU19" s="29">
-        <f t="shared" ref="BU19:BU57" si="11">SUM(BR19:BT19)</f>
-        <v>3</v>
-      </c>
-      <c r="BV19" s="29" t="str">
-        <f t="shared" ref="BV19:BV57" si="12">HLOOKUP(BU19,A$11:F$15,4,TRUE)</f>
-        <v>A</v>
-      </c>
-      <c r="BW19" s="30"/>
-      <c r="BX19" s="30"/>
-      <c r="BY19" s="30"/>
-      <c r="BZ19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CA19" s="30"/>
-      <c r="CB19" s="30"/>
-      <c r="CC19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CD19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CE19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CF19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CG19" s="31">
-        <v>1</v>
-      </c>
-      <c r="CH19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CI19" s="31">
-        <v>1</v>
-      </c>
-      <c r="CJ19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CK19" s="30"/>
-      <c r="CL19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CM19" s="31">
-        <v>1</v>
-      </c>
-      <c r="CN19" s="29">
-        <f t="shared" ref="CN19:CN57" si="13">SUM(BW19:CM19)</f>
-        <v>11</v>
-      </c>
-      <c r="CO19" s="29" t="str">
-        <f t="shared" ref="CO19:CO57" si="14">HLOOKUP(CN19,A$12:F$15,3,TRUE)</f>
-        <v>C</v>
-      </c>
-      <c r="CP19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CQ19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CR19" s="31">
-        <v>1</v>
-      </c>
-      <c r="CS19" s="31">
-        <v>1</v>
-      </c>
-      <c r="CT19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CU19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CV19" s="30"/>
-      <c r="CW19" s="30"/>
-      <c r="CX19" s="31">
-        <v>1</v>
-      </c>
-      <c r="CY19" s="31">
-        <v>1</v>
-      </c>
-      <c r="CZ19" s="30">
-        <v>1</v>
-      </c>
-      <c r="DA19" s="29">
-        <f t="shared" ref="DA19:DA57" si="15">SUM(CP19:CZ19)</f>
-        <v>9</v>
-      </c>
-      <c r="DB19" s="29" t="str">
-        <f t="shared" ref="DB19:DB57" si="16">HLOOKUP(DA19,A$13:F$15,2,TRUE)</f>
-        <v>A</v>
-      </c>
     </row>
-    <row r="20" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="33" t="str">
@@ -2886,141 +2804,133 @@
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
       <c r="AF20" s="55"/>
-      <c r="AG20" s="55"/>
-      <c r="AH20" s="55"/>
-      <c r="AI20" s="55"/>
-      <c r="AJ20" s="55"/>
-      <c r="AK20" s="29">
-        <f>SUM('GRADE BOOK'!$J20:$AJ20)</f>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
-      <c r="AM20" s="55"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="55"/>
-      <c r="AP20" s="55"/>
-      <c r="AQ20" s="55"/>
-      <c r="AR20" s="55"/>
-      <c r="AS20" s="55"/>
-      <c r="AT20" s="55"/>
-      <c r="AU20" s="55"/>
-      <c r="AV20" s="55"/>
-      <c r="AW20" s="55"/>
-      <c r="AX20" s="55"/>
-      <c r="AY20" s="55"/>
-      <c r="AZ20" s="55"/>
-      <c r="BA20" s="55"/>
-      <c r="BB20" s="55"/>
+      <c r="AG20" s="29">
+        <f>SUM('GRADE BOOK'!$J20:$AF20)</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="29" t="str">
+        <f>HLOOKUP(AG20,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
       <c r="BC20" s="55"/>
       <c r="BD20" s="55"/>
       <c r="BE20" s="55"/>
-      <c r="BF20" s="55"/>
-      <c r="BG20" s="55"/>
-      <c r="BH20" s="55"/>
-      <c r="BI20" s="55"/>
-      <c r="BJ20" s="55"/>
-      <c r="BK20" s="55"/>
-      <c r="BL20" s="55"/>
-      <c r="BM20" s="55"/>
-      <c r="BN20" s="29">
+      <c r="BF20" s="29">
+        <f>SUM(AI20:BE20)</f>
+        <v>0</v>
+      </c>
+      <c r="BG20" s="29" t="str">
+        <f>HLOOKUP(BF20,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH20" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="29" t="str">
+        <f>HLOOKUP(BH20,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN20" s="29" t="str">
+        <f>HLOOKUP(BM20,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO20"/>
+      <c r="BP20"/>
+      <c r="BQ20"/>
+      <c r="BR20"/>
+      <c r="BS20"/>
+      <c r="BT20"/>
+      <c r="BU20"/>
+      <c r="BV20"/>
+      <c r="BW20"/>
+      <c r="BX20"/>
+      <c r="BY20"/>
+      <c r="BZ20"/>
+      <c r="CA20"/>
+      <c r="CB20"/>
+      <c r="CC20"/>
+      <c r="CD20"/>
+      <c r="CE20" s="55"/>
+      <c r="CF20" s="29">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="BO20" s="29" t="str">
+      <c r="CG20" s="29" t="str">
+        <f>HLOOKUP(CF20,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CH20"/>
+      <c r="CI20"/>
+      <c r="CJ20"/>
+      <c r="CK20"/>
+      <c r="CL20"/>
+      <c r="CM20"/>
+      <c r="CN20"/>
+      <c r="CO20"/>
+      <c r="CP20"/>
+      <c r="CQ20"/>
+      <c r="CR20"/>
+      <c r="CS20" s="29">
         <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP20" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ20" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
-      <c r="BR20" s="31"/>
-      <c r="BS20" s="31"/>
-      <c r="BT20" s="31"/>
-      <c r="BU20" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV20" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
-      <c r="BW20" s="55"/>
-      <c r="BX20" s="55"/>
-      <c r="BY20" s="55"/>
-      <c r="BZ20" s="55"/>
-      <c r="CA20" s="55"/>
-      <c r="CB20" s="55"/>
-      <c r="CC20" s="55"/>
-      <c r="CD20" s="55"/>
-      <c r="CE20" s="55"/>
-      <c r="CF20" s="55"/>
-      <c r="CG20" s="55"/>
-      <c r="CH20" s="55"/>
-      <c r="CI20" s="55"/>
-      <c r="CJ20" s="55"/>
-      <c r="CK20" s="55"/>
-      <c r="CL20" s="55"/>
-      <c r="CM20" s="55"/>
-      <c r="CN20" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO20" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
-      <c r="CP20" s="55"/>
-      <c r="CQ20" s="55"/>
-      <c r="CR20" s="55"/>
-      <c r="CS20" s="55"/>
-      <c r="CT20" s="55"/>
-      <c r="CU20" s="55"/>
-      <c r="CV20" s="55"/>
-      <c r="CW20" s="55"/>
-      <c r="CX20" s="55"/>
-      <c r="CY20" s="55"/>
-      <c r="CZ20" s="55"/>
-      <c r="DA20" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB20" s="29" t="str">
-        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CT20" s="29" t="str">
+        <f>HLOOKUP(CS20,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
-      <c r="DC20" s="42"/>
+      <c r="CU20" s="42"/>
     </row>
-    <row r="21" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="33" t="str">
@@ -3074,18 +2984,18 @@
       <c r="AD21" s="26"/>
       <c r="AE21" s="26"/>
       <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="29">
-        <f>SUM('GRADE BOOK'!$J21:$AJ21)</f>
-        <v>0</v>
-      </c>
-      <c r="AL21" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG21" s="29">
+        <f>SUM('GRADE BOOK'!$J21:$AF21)</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="29" t="str">
+        <f>HLOOKUP(AG21,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
       <c r="AM21" s="30"/>
       <c r="AN21" s="30"/>
       <c r="AO21" s="30"/>
@@ -3105,40 +3015,40 @@
       <c r="BC21" s="30"/>
       <c r="BD21" s="30"/>
       <c r="BE21" s="30"/>
-      <c r="BF21" s="30"/>
-      <c r="BG21" s="30"/>
-      <c r="BH21" s="30"/>
-      <c r="BI21" s="30"/>
+      <c r="BF21" s="29">
+        <f>SUM(AI21:BE21)</f>
+        <v>0</v>
+      </c>
+      <c r="BG21" s="29" t="str">
+        <f>HLOOKUP(BF21,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH21" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="29" t="str">
+        <f>HLOOKUP(BH21,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ21" s="30"/>
       <c r="BK21" s="30"/>
       <c r="BL21" s="30"/>
-      <c r="BM21" s="30"/>
-      <c r="BN21" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO21" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP21" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ21" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM21" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN21" s="29" t="str">
+        <f>HLOOKUP(BM21,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO21" s="30"/>
+      <c r="BP21" s="30"/>
+      <c r="BQ21" s="30"/>
       <c r="BR21" s="30"/>
       <c r="BS21" s="30"/>
       <c r="BT21" s="30"/>
-      <c r="BU21" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV21" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU21" s="30"/>
+      <c r="BV21" s="30"/>
       <c r="BW21" s="30"/>
       <c r="BX21" s="30"/>
       <c r="BY21" s="30"/>
@@ -3148,43 +3058,35 @@
       <c r="CC21" s="30"/>
       <c r="CD21" s="30"/>
       <c r="CE21" s="30"/>
-      <c r="CF21" s="30"/>
-      <c r="CG21" s="30"/>
+      <c r="CF21" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG21" s="29" t="str">
+        <f>HLOOKUP(CF21,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH21" s="30"/>
       <c r="CI21" s="30"/>
       <c r="CJ21" s="30"/>
       <c r="CK21" s="30"/>
       <c r="CL21" s="30"/>
       <c r="CM21" s="30"/>
-      <c r="CN21" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO21" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN21" s="30"/>
+      <c r="CO21" s="30"/>
       <c r="CP21" s="30"/>
       <c r="CQ21" s="30"/>
       <c r="CR21" s="30"/>
-      <c r="CS21" s="30"/>
-      <c r="CT21" s="30"/>
-      <c r="CU21" s="30"/>
-      <c r="CV21" s="30"/>
-      <c r="CW21" s="30"/>
-      <c r="CX21" s="30"/>
-      <c r="CY21" s="30"/>
-      <c r="CZ21" s="30"/>
-      <c r="DA21" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB21" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS21" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT21" s="29" t="str">
+        <f>HLOOKUP(CS21,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="22" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="33" t="str">
@@ -3238,18 +3140,18 @@
       <c r="AD22" s="26"/>
       <c r="AE22" s="26"/>
       <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="29">
-        <f>SUM('GRADE BOOK'!$J22:$AJ22)</f>
-        <v>0</v>
-      </c>
-      <c r="AL22" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG22" s="29">
+        <f>SUM('GRADE BOOK'!$J22:$AF22)</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="29" t="str">
+        <f>HLOOKUP(AG22,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
       <c r="AM22" s="30"/>
       <c r="AN22" s="30"/>
       <c r="AO22" s="30"/>
@@ -3269,40 +3171,40 @@
       <c r="BC22" s="30"/>
       <c r="BD22" s="30"/>
       <c r="BE22" s="30"/>
-      <c r="BF22" s="30"/>
-      <c r="BG22" s="30"/>
-      <c r="BH22" s="30"/>
-      <c r="BI22" s="30"/>
+      <c r="BF22" s="29">
+        <f>SUM(AI22:BE22)</f>
+        <v>0</v>
+      </c>
+      <c r="BG22" s="29" t="str">
+        <f>HLOOKUP(BF22,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH22" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="29" t="str">
+        <f>HLOOKUP(BH22,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ22" s="30"/>
       <c r="BK22" s="30"/>
       <c r="BL22" s="30"/>
-      <c r="BM22" s="30"/>
-      <c r="BN22" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO22" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP22" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ22" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM22" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN22" s="29" t="str">
+        <f>HLOOKUP(BM22,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO22" s="30"/>
+      <c r="BP22" s="30"/>
+      <c r="BQ22" s="30"/>
       <c r="BR22" s="30"/>
       <c r="BS22" s="30"/>
       <c r="BT22" s="30"/>
-      <c r="BU22" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV22" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU22" s="30"/>
+      <c r="BV22" s="30"/>
       <c r="BW22" s="30"/>
       <c r="BX22" s="30"/>
       <c r="BY22" s="30"/>
@@ -3312,43 +3214,35 @@
       <c r="CC22" s="30"/>
       <c r="CD22" s="30"/>
       <c r="CE22" s="30"/>
-      <c r="CF22" s="30"/>
-      <c r="CG22" s="30"/>
+      <c r="CF22" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG22" s="29" t="str">
+        <f>HLOOKUP(CF22,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH22" s="30"/>
       <c r="CI22" s="30"/>
       <c r="CJ22" s="30"/>
       <c r="CK22" s="30"/>
       <c r="CL22" s="30"/>
       <c r="CM22" s="30"/>
-      <c r="CN22" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO22" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN22" s="30"/>
+      <c r="CO22" s="30"/>
       <c r="CP22" s="30"/>
       <c r="CQ22" s="30"/>
       <c r="CR22" s="30"/>
-      <c r="CS22" s="30"/>
-      <c r="CT22" s="30"/>
-      <c r="CU22" s="30"/>
-      <c r="CV22" s="30"/>
-      <c r="CW22" s="30"/>
-      <c r="CX22" s="30"/>
-      <c r="CY22" s="30"/>
-      <c r="CZ22" s="30"/>
-      <c r="DA22" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB22" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS22" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT22" s="29" t="str">
+        <f>HLOOKUP(CS22,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="23" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="33" t="str">
@@ -3402,18 +3296,18 @@
       <c r="AD23" s="26"/>
       <c r="AE23" s="26"/>
       <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="29">
-        <f>SUM('GRADE BOOK'!$J23:$AJ23)</f>
-        <v>0</v>
-      </c>
-      <c r="AL23" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG23" s="29">
+        <f>SUM('GRADE BOOK'!$J23:$AF23)</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="29" t="str">
+        <f>HLOOKUP(AG23,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="30"/>
+      <c r="AL23" s="30"/>
       <c r="AM23" s="30"/>
       <c r="AN23" s="30"/>
       <c r="AO23" s="30"/>
@@ -3433,40 +3327,40 @@
       <c r="BC23" s="30"/>
       <c r="BD23" s="30"/>
       <c r="BE23" s="30"/>
-      <c r="BF23" s="30"/>
-      <c r="BG23" s="30"/>
-      <c r="BH23" s="30"/>
-      <c r="BI23" s="30"/>
+      <c r="BF23" s="29">
+        <f>SUM(AI23:BE23)</f>
+        <v>0</v>
+      </c>
+      <c r="BG23" s="29" t="str">
+        <f>HLOOKUP(BF23,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH23" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="29" t="str">
+        <f>HLOOKUP(BH23,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ23" s="30"/>
       <c r="BK23" s="30"/>
       <c r="BL23" s="30"/>
-      <c r="BM23" s="30"/>
-      <c r="BN23" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO23" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP23" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ23" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM23" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN23" s="29" t="str">
+        <f>HLOOKUP(BM23,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO23" s="30"/>
+      <c r="BP23" s="30"/>
+      <c r="BQ23" s="30"/>
       <c r="BR23" s="30"/>
       <c r="BS23" s="30"/>
       <c r="BT23" s="30"/>
-      <c r="BU23" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV23" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU23" s="30"/>
+      <c r="BV23" s="30"/>
       <c r="BW23" s="30"/>
       <c r="BX23" s="30"/>
       <c r="BY23" s="30"/>
@@ -3476,43 +3370,35 @@
       <c r="CC23" s="30"/>
       <c r="CD23" s="30"/>
       <c r="CE23" s="30"/>
-      <c r="CF23" s="30"/>
-      <c r="CG23" s="30"/>
+      <c r="CF23" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG23" s="29" t="str">
+        <f>HLOOKUP(CF23,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH23" s="30"/>
       <c r="CI23" s="30"/>
       <c r="CJ23" s="30"/>
       <c r="CK23" s="30"/>
       <c r="CL23" s="30"/>
       <c r="CM23" s="30"/>
-      <c r="CN23" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO23" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN23" s="30"/>
+      <c r="CO23" s="30"/>
       <c r="CP23" s="30"/>
       <c r="CQ23" s="30"/>
       <c r="CR23" s="30"/>
-      <c r="CS23" s="30"/>
-      <c r="CT23" s="30"/>
-      <c r="CU23" s="30"/>
-      <c r="CV23" s="30"/>
-      <c r="CW23" s="30"/>
-      <c r="CX23" s="30"/>
-      <c r="CY23" s="30"/>
-      <c r="CZ23" s="30"/>
-      <c r="DA23" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB23" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS23" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT23" s="29" t="str">
+        <f>HLOOKUP(CS23,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="24" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="33" t="str">
@@ -3566,18 +3452,18 @@
       <c r="AD24" s="26"/>
       <c r="AE24" s="26"/>
       <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="29">
-        <f>SUM('GRADE BOOK'!$J24:$AJ24)</f>
-        <v>0</v>
-      </c>
-      <c r="AL24" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG24" s="29">
+        <f>SUM('GRADE BOOK'!$J24:$AF24)</f>
+        <v>0</v>
+      </c>
+      <c r="AH24" s="29" t="str">
+        <f>HLOOKUP(AG24,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="30"/>
+      <c r="AL24" s="30"/>
       <c r="AM24" s="30"/>
       <c r="AN24" s="30"/>
       <c r="AO24" s="30"/>
@@ -3597,40 +3483,40 @@
       <c r="BC24" s="30"/>
       <c r="BD24" s="30"/>
       <c r="BE24" s="30"/>
-      <c r="BF24" s="30"/>
-      <c r="BG24" s="30"/>
-      <c r="BH24" s="30"/>
-      <c r="BI24" s="30"/>
+      <c r="BF24" s="29">
+        <f>SUM(AI24:BE24)</f>
+        <v>0</v>
+      </c>
+      <c r="BG24" s="29" t="str">
+        <f>HLOOKUP(BF24,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH24" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="29" t="str">
+        <f>HLOOKUP(BH24,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ24" s="30"/>
       <c r="BK24" s="30"/>
       <c r="BL24" s="30"/>
-      <c r="BM24" s="30"/>
-      <c r="BN24" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO24" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP24" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ24" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM24" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN24" s="29" t="str">
+        <f>HLOOKUP(BM24,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO24" s="30"/>
+      <c r="BP24" s="30"/>
+      <c r="BQ24" s="30"/>
       <c r="BR24" s="30"/>
       <c r="BS24" s="30"/>
       <c r="BT24" s="30"/>
-      <c r="BU24" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV24" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU24" s="30"/>
+      <c r="BV24" s="30"/>
       <c r="BW24" s="30"/>
       <c r="BX24" s="30"/>
       <c r="BY24" s="30"/>
@@ -3640,43 +3526,35 @@
       <c r="CC24" s="30"/>
       <c r="CD24" s="30"/>
       <c r="CE24" s="30"/>
-      <c r="CF24" s="30"/>
-      <c r="CG24" s="30"/>
+      <c r="CF24" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG24" s="29" t="str">
+        <f>HLOOKUP(CF24,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH24" s="30"/>
       <c r="CI24" s="30"/>
       <c r="CJ24" s="30"/>
       <c r="CK24" s="30"/>
       <c r="CL24" s="30"/>
       <c r="CM24" s="30"/>
-      <c r="CN24" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO24" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN24" s="30"/>
+      <c r="CO24" s="30"/>
       <c r="CP24" s="30"/>
       <c r="CQ24" s="30"/>
       <c r="CR24" s="30"/>
-      <c r="CS24" s="30"/>
-      <c r="CT24" s="30"/>
-      <c r="CU24" s="30"/>
-      <c r="CV24" s="30"/>
-      <c r="CW24" s="30"/>
-      <c r="CX24" s="30"/>
-      <c r="CY24" s="30"/>
-      <c r="CZ24" s="30"/>
-      <c r="DA24" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB24" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS24" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT24" s="29" t="str">
+        <f>HLOOKUP(CS24,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="25" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="33" t="str">
@@ -3730,18 +3608,18 @@
       <c r="AD25" s="26"/>
       <c r="AE25" s="26"/>
       <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="29">
-        <f>SUM('GRADE BOOK'!$J25:$AJ25)</f>
-        <v>0</v>
-      </c>
-      <c r="AL25" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG25" s="29">
+        <f>SUM('GRADE BOOK'!$J25:$AF25)</f>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="29" t="str">
+        <f>HLOOKUP(AG25,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="30"/>
+      <c r="AL25" s="30"/>
       <c r="AM25" s="30"/>
       <c r="AN25" s="30"/>
       <c r="AO25" s="30"/>
@@ -3761,40 +3639,40 @@
       <c r="BC25" s="30"/>
       <c r="BD25" s="30"/>
       <c r="BE25" s="30"/>
-      <c r="BF25" s="30"/>
-      <c r="BG25" s="30"/>
-      <c r="BH25" s="30"/>
-      <c r="BI25" s="30"/>
+      <c r="BF25" s="29">
+        <f>SUM(AI25:BE25)</f>
+        <v>0</v>
+      </c>
+      <c r="BG25" s="29" t="str">
+        <f>HLOOKUP(BF25,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH25" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="29" t="str">
+        <f>HLOOKUP(BH25,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ25" s="30"/>
       <c r="BK25" s="30"/>
       <c r="BL25" s="30"/>
-      <c r="BM25" s="30"/>
-      <c r="BN25" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO25" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP25" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ25" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM25" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN25" s="29" t="str">
+        <f>HLOOKUP(BM25,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO25" s="30"/>
+      <c r="BP25" s="30"/>
+      <c r="BQ25" s="30"/>
       <c r="BR25" s="30"/>
       <c r="BS25" s="30"/>
       <c r="BT25" s="30"/>
-      <c r="BU25" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV25" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU25" s="30"/>
+      <c r="BV25" s="30"/>
       <c r="BW25" s="30"/>
       <c r="BX25" s="30"/>
       <c r="BY25" s="30"/>
@@ -3804,43 +3682,35 @@
       <c r="CC25" s="30"/>
       <c r="CD25" s="30"/>
       <c r="CE25" s="30"/>
-      <c r="CF25" s="30"/>
-      <c r="CG25" s="30"/>
+      <c r="CF25" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG25" s="29" t="str">
+        <f>HLOOKUP(CF25,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH25" s="30"/>
       <c r="CI25" s="30"/>
       <c r="CJ25" s="30"/>
       <c r="CK25" s="30"/>
       <c r="CL25" s="30"/>
       <c r="CM25" s="30"/>
-      <c r="CN25" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO25" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN25" s="30"/>
+      <c r="CO25" s="30"/>
       <c r="CP25" s="30"/>
       <c r="CQ25" s="30"/>
       <c r="CR25" s="30"/>
-      <c r="CS25" s="30"/>
-      <c r="CT25" s="30"/>
-      <c r="CU25" s="30"/>
-      <c r="CV25" s="30"/>
-      <c r="CW25" s="30"/>
-      <c r="CX25" s="30"/>
-      <c r="CY25" s="30"/>
-      <c r="CZ25" s="30"/>
-      <c r="DA25" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB25" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS25" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT25" s="29" t="str">
+        <f>HLOOKUP(CS25,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="26" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="33" t="str">
@@ -3894,18 +3764,18 @@
       <c r="AD26" s="26"/>
       <c r="AE26" s="26"/>
       <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="29">
-        <f>SUM('GRADE BOOK'!$J26:$AJ26)</f>
-        <v>0</v>
-      </c>
-      <c r="AL26" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG26" s="29">
+        <f>SUM('GRADE BOOK'!$J26:$AF26)</f>
+        <v>0</v>
+      </c>
+      <c r="AH26" s="29" t="str">
+        <f>HLOOKUP(AG26,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="30"/>
       <c r="AM26" s="30"/>
       <c r="AN26" s="30"/>
       <c r="AO26" s="30"/>
@@ -3925,40 +3795,40 @@
       <c r="BC26" s="30"/>
       <c r="BD26" s="30"/>
       <c r="BE26" s="30"/>
-      <c r="BF26" s="30"/>
-      <c r="BG26" s="30"/>
-      <c r="BH26" s="30"/>
-      <c r="BI26" s="30"/>
+      <c r="BF26" s="29">
+        <f>SUM(AI26:BE26)</f>
+        <v>0</v>
+      </c>
+      <c r="BG26" s="29" t="str">
+        <f>HLOOKUP(BF26,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH26" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="29" t="str">
+        <f>HLOOKUP(BH26,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ26" s="30"/>
       <c r="BK26" s="30"/>
       <c r="BL26" s="30"/>
-      <c r="BM26" s="30"/>
-      <c r="BN26" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO26" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP26" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ26" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM26" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN26" s="29" t="str">
+        <f>HLOOKUP(BM26,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO26" s="30"/>
+      <c r="BP26" s="30"/>
+      <c r="BQ26" s="30"/>
       <c r="BR26" s="30"/>
       <c r="BS26" s="30"/>
       <c r="BT26" s="30"/>
-      <c r="BU26" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV26" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU26" s="30"/>
+      <c r="BV26" s="30"/>
       <c r="BW26" s="30"/>
       <c r="BX26" s="30"/>
       <c r="BY26" s="30"/>
@@ -3968,43 +3838,35 @@
       <c r="CC26" s="30"/>
       <c r="CD26" s="30"/>
       <c r="CE26" s="30"/>
-      <c r="CF26" s="30"/>
-      <c r="CG26" s="30"/>
+      <c r="CF26" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG26" s="29" t="str">
+        <f>HLOOKUP(CF26,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH26" s="30"/>
       <c r="CI26" s="30"/>
       <c r="CJ26" s="30"/>
       <c r="CK26" s="30"/>
       <c r="CL26" s="30"/>
       <c r="CM26" s="30"/>
-      <c r="CN26" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO26" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN26" s="30"/>
+      <c r="CO26" s="30"/>
       <c r="CP26" s="30"/>
       <c r="CQ26" s="30"/>
       <c r="CR26" s="30"/>
-      <c r="CS26" s="30"/>
-      <c r="CT26" s="30"/>
-      <c r="CU26" s="30"/>
-      <c r="CV26" s="30"/>
-      <c r="CW26" s="30"/>
-      <c r="CX26" s="30"/>
-      <c r="CY26" s="30"/>
-      <c r="CZ26" s="30"/>
-      <c r="DA26" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB26" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS26" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT26" s="29" t="str">
+        <f>HLOOKUP(CS26,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="27" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="33" t="str">
@@ -4058,18 +3920,18 @@
       <c r="AD27" s="26"/>
       <c r="AE27" s="26"/>
       <c r="AF27" s="26"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="29">
-        <f>SUM('GRADE BOOK'!$J27:$AJ27)</f>
-        <v>0</v>
-      </c>
-      <c r="AL27" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG27" s="29">
+        <f>SUM('GRADE BOOK'!$J27:$AF27)</f>
+        <v>0</v>
+      </c>
+      <c r="AH27" s="29" t="str">
+        <f>HLOOKUP(AG27,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30"/>
+      <c r="AL27" s="30"/>
       <c r="AM27" s="30"/>
       <c r="AN27" s="30"/>
       <c r="AO27" s="30"/>
@@ -4089,40 +3951,40 @@
       <c r="BC27" s="30"/>
       <c r="BD27" s="30"/>
       <c r="BE27" s="30"/>
-      <c r="BF27" s="30"/>
-      <c r="BG27" s="30"/>
-      <c r="BH27" s="30"/>
-      <c r="BI27" s="30"/>
+      <c r="BF27" s="29">
+        <f>SUM(AI27:BE27)</f>
+        <v>0</v>
+      </c>
+      <c r="BG27" s="29" t="str">
+        <f>HLOOKUP(BF27,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH27" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="29" t="str">
+        <f>HLOOKUP(BH27,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ27" s="30"/>
       <c r="BK27" s="30"/>
       <c r="BL27" s="30"/>
-      <c r="BM27" s="30"/>
-      <c r="BN27" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO27" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP27" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ27" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM27" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN27" s="29" t="str">
+        <f>HLOOKUP(BM27,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO27" s="30"/>
+      <c r="BP27" s="30"/>
+      <c r="BQ27" s="30"/>
       <c r="BR27" s="30"/>
       <c r="BS27" s="30"/>
       <c r="BT27" s="30"/>
-      <c r="BU27" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV27" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU27" s="30"/>
+      <c r="BV27" s="30"/>
       <c r="BW27" s="30"/>
       <c r="BX27" s="30"/>
       <c r="BY27" s="30"/>
@@ -4132,43 +3994,35 @@
       <c r="CC27" s="30"/>
       <c r="CD27" s="30"/>
       <c r="CE27" s="30"/>
-      <c r="CF27" s="30"/>
-      <c r="CG27" s="30"/>
+      <c r="CF27" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG27" s="29" t="str">
+        <f>HLOOKUP(CF27,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH27" s="30"/>
       <c r="CI27" s="30"/>
       <c r="CJ27" s="30"/>
       <c r="CK27" s="30"/>
       <c r="CL27" s="30"/>
       <c r="CM27" s="30"/>
-      <c r="CN27" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO27" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN27" s="30"/>
+      <c r="CO27" s="30"/>
       <c r="CP27" s="30"/>
       <c r="CQ27" s="30"/>
       <c r="CR27" s="30"/>
-      <c r="CS27" s="30"/>
-      <c r="CT27" s="30"/>
-      <c r="CU27" s="30"/>
-      <c r="CV27" s="30"/>
-      <c r="CW27" s="30"/>
-      <c r="CX27" s="30"/>
-      <c r="CY27" s="30"/>
-      <c r="CZ27" s="30"/>
-      <c r="DA27" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB27" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS27" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT27" s="29" t="str">
+        <f>HLOOKUP(CS27,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="28" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="33" t="str">
@@ -4222,18 +4076,18 @@
       <c r="AD28" s="26"/>
       <c r="AE28" s="26"/>
       <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="26"/>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="29">
-        <f>SUM('GRADE BOOK'!$J28:$AJ28)</f>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG28" s="29">
+        <f>SUM('GRADE BOOK'!$J28:$AF28)</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="29" t="str">
+        <f>HLOOKUP(AG28,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="30"/>
       <c r="AM28" s="30"/>
       <c r="AN28" s="30"/>
       <c r="AO28" s="30"/>
@@ -4253,40 +4107,40 @@
       <c r="BC28" s="30"/>
       <c r="BD28" s="30"/>
       <c r="BE28" s="30"/>
-      <c r="BF28" s="30"/>
-      <c r="BG28" s="30"/>
-      <c r="BH28" s="30"/>
-      <c r="BI28" s="30"/>
+      <c r="BF28" s="29">
+        <f>SUM(AI28:BE28)</f>
+        <v>0</v>
+      </c>
+      <c r="BG28" s="29" t="str">
+        <f>HLOOKUP(BF28,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH28" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="29" t="str">
+        <f>HLOOKUP(BH28,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ28" s="30"/>
       <c r="BK28" s="30"/>
       <c r="BL28" s="30"/>
-      <c r="BM28" s="30"/>
-      <c r="BN28" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO28" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP28" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ28" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM28" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN28" s="29" t="str">
+        <f>HLOOKUP(BM28,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO28" s="30"/>
+      <c r="BP28" s="30"/>
+      <c r="BQ28" s="30"/>
       <c r="BR28" s="30"/>
       <c r="BS28" s="30"/>
       <c r="BT28" s="30"/>
-      <c r="BU28" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV28" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU28" s="30"/>
+      <c r="BV28" s="30"/>
       <c r="BW28" s="30"/>
       <c r="BX28" s="30"/>
       <c r="BY28" s="30"/>
@@ -4296,43 +4150,35 @@
       <c r="CC28" s="30"/>
       <c r="CD28" s="30"/>
       <c r="CE28" s="30"/>
-      <c r="CF28" s="30"/>
-      <c r="CG28" s="30"/>
+      <c r="CF28" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG28" s="29" t="str">
+        <f>HLOOKUP(CF28,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH28" s="30"/>
       <c r="CI28" s="30"/>
       <c r="CJ28" s="30"/>
       <c r="CK28" s="30"/>
       <c r="CL28" s="30"/>
       <c r="CM28" s="30"/>
-      <c r="CN28" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO28" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN28" s="30"/>
+      <c r="CO28" s="30"/>
       <c r="CP28" s="30"/>
       <c r="CQ28" s="30"/>
       <c r="CR28" s="30"/>
-      <c r="CS28" s="30"/>
-      <c r="CT28" s="30"/>
-      <c r="CU28" s="30"/>
-      <c r="CV28" s="30"/>
-      <c r="CW28" s="30"/>
-      <c r="CX28" s="30"/>
-      <c r="CY28" s="30"/>
-      <c r="CZ28" s="30"/>
-      <c r="DA28" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB28" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS28" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT28" s="29" t="str">
+        <f>HLOOKUP(CS28,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="29" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="33" t="str">
@@ -4386,18 +4232,18 @@
       <c r="AD29" s="26"/>
       <c r="AE29" s="26"/>
       <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="26"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="26"/>
-      <c r="AK29" s="29">
-        <f>SUM('GRADE BOOK'!$J29:$AJ29)</f>
-        <v>0</v>
-      </c>
-      <c r="AL29" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG29" s="29">
+        <f>SUM('GRADE BOOK'!$J29:$AF29)</f>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="29" t="str">
+        <f>HLOOKUP(AG29,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI29" s="30"/>
+      <c r="AJ29" s="30"/>
+      <c r="AK29" s="30"/>
+      <c r="AL29" s="30"/>
       <c r="AM29" s="30"/>
       <c r="AN29" s="30"/>
       <c r="AO29" s="30"/>
@@ -4417,40 +4263,40 @@
       <c r="BC29" s="30"/>
       <c r="BD29" s="30"/>
       <c r="BE29" s="30"/>
-      <c r="BF29" s="30"/>
-      <c r="BG29" s="30"/>
-      <c r="BH29" s="30"/>
-      <c r="BI29" s="30"/>
+      <c r="BF29" s="29">
+        <f>SUM(AI29:BE29)</f>
+        <v>0</v>
+      </c>
+      <c r="BG29" s="29" t="str">
+        <f>HLOOKUP(BF29,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH29" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="29" t="str">
+        <f>HLOOKUP(BH29,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ29" s="30"/>
       <c r="BK29" s="30"/>
       <c r="BL29" s="30"/>
-      <c r="BM29" s="30"/>
-      <c r="BN29" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO29" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP29" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ29" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM29" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN29" s="29" t="str">
+        <f>HLOOKUP(BM29,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO29" s="30"/>
+      <c r="BP29" s="30"/>
+      <c r="BQ29" s="30"/>
       <c r="BR29" s="30"/>
       <c r="BS29" s="30"/>
       <c r="BT29" s="30"/>
-      <c r="BU29" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV29" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU29" s="30"/>
+      <c r="BV29" s="30"/>
       <c r="BW29" s="30"/>
       <c r="BX29" s="30"/>
       <c r="BY29" s="30"/>
@@ -4460,43 +4306,35 @@
       <c r="CC29" s="30"/>
       <c r="CD29" s="30"/>
       <c r="CE29" s="30"/>
-      <c r="CF29" s="30"/>
-      <c r="CG29" s="30"/>
+      <c r="CF29" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG29" s="29" t="str">
+        <f>HLOOKUP(CF29,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH29" s="30"/>
       <c r="CI29" s="30"/>
       <c r="CJ29" s="30"/>
       <c r="CK29" s="30"/>
       <c r="CL29" s="30"/>
       <c r="CM29" s="30"/>
-      <c r="CN29" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO29" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN29" s="30"/>
+      <c r="CO29" s="30"/>
       <c r="CP29" s="30"/>
       <c r="CQ29" s="30"/>
       <c r="CR29" s="30"/>
-      <c r="CS29" s="30"/>
-      <c r="CT29" s="30"/>
-      <c r="CU29" s="30"/>
-      <c r="CV29" s="30"/>
-      <c r="CW29" s="30"/>
-      <c r="CX29" s="30"/>
-      <c r="CY29" s="30"/>
-      <c r="CZ29" s="30"/>
-      <c r="DA29" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB29" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS29" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT29" s="29" t="str">
+        <f>HLOOKUP(CS29,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="30" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="33" t="str">
@@ -4550,18 +4388,18 @@
       <c r="AD30" s="26"/>
       <c r="AE30" s="26"/>
       <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="29">
-        <f>SUM('GRADE BOOK'!$J30:$AJ30)</f>
-        <v>0</v>
-      </c>
-      <c r="AL30" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG30" s="29">
+        <f>SUM('GRADE BOOK'!$J30:$AF30)</f>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="29" t="str">
+        <f>HLOOKUP(AG30,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="30"/>
+      <c r="AL30" s="30"/>
       <c r="AM30" s="30"/>
       <c r="AN30" s="30"/>
       <c r="AO30" s="30"/>
@@ -4581,40 +4419,40 @@
       <c r="BC30" s="30"/>
       <c r="BD30" s="30"/>
       <c r="BE30" s="30"/>
-      <c r="BF30" s="30"/>
-      <c r="BG30" s="30"/>
-      <c r="BH30" s="30"/>
-      <c r="BI30" s="30"/>
+      <c r="BF30" s="29">
+        <f>SUM(AI30:BE30)</f>
+        <v>0</v>
+      </c>
+      <c r="BG30" s="29" t="str">
+        <f>HLOOKUP(BF30,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH30" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="29" t="str">
+        <f>HLOOKUP(BH30,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ30" s="30"/>
       <c r="BK30" s="30"/>
       <c r="BL30" s="30"/>
-      <c r="BM30" s="30"/>
-      <c r="BN30" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO30" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP30" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ30" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM30" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN30" s="29" t="str">
+        <f>HLOOKUP(BM30,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO30" s="30"/>
+      <c r="BP30" s="30"/>
+      <c r="BQ30" s="30"/>
       <c r="BR30" s="30"/>
       <c r="BS30" s="30"/>
       <c r="BT30" s="30"/>
-      <c r="BU30" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV30" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU30" s="30"/>
+      <c r="BV30" s="30"/>
       <c r="BW30" s="30"/>
       <c r="BX30" s="30"/>
       <c r="BY30" s="30"/>
@@ -4624,43 +4462,35 @@
       <c r="CC30" s="30"/>
       <c r="CD30" s="30"/>
       <c r="CE30" s="30"/>
-      <c r="CF30" s="30"/>
-      <c r="CG30" s="30"/>
+      <c r="CF30" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG30" s="29" t="str">
+        <f>HLOOKUP(CF30,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH30" s="30"/>
       <c r="CI30" s="30"/>
       <c r="CJ30" s="30"/>
       <c r="CK30" s="30"/>
       <c r="CL30" s="30"/>
       <c r="CM30" s="30"/>
-      <c r="CN30" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO30" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN30" s="30"/>
+      <c r="CO30" s="30"/>
       <c r="CP30" s="30"/>
       <c r="CQ30" s="30"/>
       <c r="CR30" s="30"/>
-      <c r="CS30" s="30"/>
-      <c r="CT30" s="30"/>
-      <c r="CU30" s="30"/>
-      <c r="CV30" s="30"/>
-      <c r="CW30" s="30"/>
-      <c r="CX30" s="30"/>
-      <c r="CY30" s="30"/>
-      <c r="CZ30" s="30"/>
-      <c r="DA30" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB30" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS30" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT30" s="29" t="str">
+        <f>HLOOKUP(CS30,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="31" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="33" t="str">
@@ -4714,18 +4544,18 @@
       <c r="AD31" s="26"/>
       <c r="AE31" s="26"/>
       <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="29">
-        <f>SUM('GRADE BOOK'!$J31:$AJ31)</f>
-        <v>0</v>
-      </c>
-      <c r="AL31" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG31" s="29">
+        <f>SUM('GRADE BOOK'!$J31:$AF31)</f>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="29" t="str">
+        <f>HLOOKUP(AG31,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI31" s="30"/>
+      <c r="AJ31" s="30"/>
+      <c r="AK31" s="30"/>
+      <c r="AL31" s="30"/>
       <c r="AM31" s="30"/>
       <c r="AN31" s="30"/>
       <c r="AO31" s="30"/>
@@ -4745,40 +4575,40 @@
       <c r="BC31" s="30"/>
       <c r="BD31" s="30"/>
       <c r="BE31" s="30"/>
-      <c r="BF31" s="30"/>
-      <c r="BG31" s="30"/>
-      <c r="BH31" s="30"/>
-      <c r="BI31" s="30"/>
+      <c r="BF31" s="29">
+        <f>SUM(AI31:BE31)</f>
+        <v>0</v>
+      </c>
+      <c r="BG31" s="29" t="str">
+        <f>HLOOKUP(BF31,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH31" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="29" t="str">
+        <f>HLOOKUP(BH31,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ31" s="30"/>
       <c r="BK31" s="30"/>
       <c r="BL31" s="30"/>
-      <c r="BM31" s="30"/>
-      <c r="BN31" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO31" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP31" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ31" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM31" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN31" s="29" t="str">
+        <f>HLOOKUP(BM31,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO31" s="30"/>
+      <c r="BP31" s="30"/>
+      <c r="BQ31" s="30"/>
       <c r="BR31" s="30"/>
       <c r="BS31" s="30"/>
       <c r="BT31" s="30"/>
-      <c r="BU31" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV31" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU31" s="30"/>
+      <c r="BV31" s="30"/>
       <c r="BW31" s="30"/>
       <c r="BX31" s="30"/>
       <c r="BY31" s="30"/>
@@ -4788,43 +4618,35 @@
       <c r="CC31" s="30"/>
       <c r="CD31" s="30"/>
       <c r="CE31" s="30"/>
-      <c r="CF31" s="30"/>
-      <c r="CG31" s="30"/>
+      <c r="CF31" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG31" s="29" t="str">
+        <f>HLOOKUP(CF31,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH31" s="30"/>
       <c r="CI31" s="30"/>
       <c r="CJ31" s="30"/>
       <c r="CK31" s="30"/>
       <c r="CL31" s="30"/>
       <c r="CM31" s="30"/>
-      <c r="CN31" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO31" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN31" s="30"/>
+      <c r="CO31" s="30"/>
       <c r="CP31" s="30"/>
       <c r="CQ31" s="30"/>
       <c r="CR31" s="30"/>
-      <c r="CS31" s="30"/>
-      <c r="CT31" s="30"/>
-      <c r="CU31" s="30"/>
-      <c r="CV31" s="30"/>
-      <c r="CW31" s="30"/>
-      <c r="CX31" s="30"/>
-      <c r="CY31" s="30"/>
-      <c r="CZ31" s="30"/>
-      <c r="DA31" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB31" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS31" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT31" s="29" t="str">
+        <f>HLOOKUP(CS31,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="32" spans="1:135" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="33" t="str">
@@ -4878,18 +4700,18 @@
       <c r="AD32" s="26"/>
       <c r="AE32" s="26"/>
       <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="26"/>
-      <c r="AJ32" s="26"/>
-      <c r="AK32" s="29">
-        <f>SUM('GRADE BOOK'!$J32:$AJ32)</f>
-        <v>0</v>
-      </c>
-      <c r="AL32" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG32" s="29">
+        <f>SUM('GRADE BOOK'!$J32:$AF32)</f>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="29" t="str">
+        <f>HLOOKUP(AG32,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI32" s="30"/>
+      <c r="AJ32" s="30"/>
+      <c r="AK32" s="30"/>
+      <c r="AL32" s="30"/>
       <c r="AM32" s="30"/>
       <c r="AN32" s="30"/>
       <c r="AO32" s="30"/>
@@ -4909,40 +4731,40 @@
       <c r="BC32" s="30"/>
       <c r="BD32" s="30"/>
       <c r="BE32" s="30"/>
-      <c r="BF32" s="30"/>
-      <c r="BG32" s="30"/>
-      <c r="BH32" s="30"/>
-      <c r="BI32" s="30"/>
+      <c r="BF32" s="29">
+        <f>SUM(AI32:BE32)</f>
+        <v>0</v>
+      </c>
+      <c r="BG32" s="29" t="str">
+        <f>HLOOKUP(BF32,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH32" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI32" s="29" t="str">
+        <f>HLOOKUP(BH32,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ32" s="30"/>
       <c r="BK32" s="30"/>
       <c r="BL32" s="30"/>
-      <c r="BM32" s="30"/>
-      <c r="BN32" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO32" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP32" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ32" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM32" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN32" s="29" t="str">
+        <f>HLOOKUP(BM32,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO32" s="30"/>
+      <c r="BP32" s="30"/>
+      <c r="BQ32" s="30"/>
       <c r="BR32" s="30"/>
       <c r="BS32" s="30"/>
       <c r="BT32" s="30"/>
-      <c r="BU32" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV32" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU32" s="30"/>
+      <c r="BV32" s="30"/>
       <c r="BW32" s="30"/>
       <c r="BX32" s="30"/>
       <c r="BY32" s="30"/>
@@ -4952,43 +4774,35 @@
       <c r="CC32" s="30"/>
       <c r="CD32" s="30"/>
       <c r="CE32" s="30"/>
-      <c r="CF32" s="30"/>
-      <c r="CG32" s="30"/>
+      <c r="CF32" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG32" s="29" t="str">
+        <f>HLOOKUP(CF32,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH32" s="30"/>
       <c r="CI32" s="30"/>
       <c r="CJ32" s="30"/>
       <c r="CK32" s="30"/>
       <c r="CL32" s="30"/>
       <c r="CM32" s="30"/>
-      <c r="CN32" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO32" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN32" s="30"/>
+      <c r="CO32" s="30"/>
       <c r="CP32" s="30"/>
       <c r="CQ32" s="30"/>
       <c r="CR32" s="30"/>
-      <c r="CS32" s="30"/>
-      <c r="CT32" s="30"/>
-      <c r="CU32" s="30"/>
-      <c r="CV32" s="30"/>
-      <c r="CW32" s="30"/>
-      <c r="CX32" s="30"/>
-      <c r="CY32" s="30"/>
-      <c r="CZ32" s="30"/>
-      <c r="DA32" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB32" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS32" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT32" s="29" t="str">
+        <f>HLOOKUP(CS32,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="33" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="33" t="str">
@@ -5042,18 +4856,18 @@
       <c r="AD33" s="26"/>
       <c r="AE33" s="26"/>
       <c r="AF33" s="26"/>
-      <c r="AG33" s="26"/>
-      <c r="AH33" s="26"/>
-      <c r="AI33" s="26"/>
-      <c r="AJ33" s="26"/>
-      <c r="AK33" s="29">
-        <f>SUM('GRADE BOOK'!$J33:$AJ33)</f>
-        <v>0</v>
-      </c>
-      <c r="AL33" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG33" s="29">
+        <f>SUM('GRADE BOOK'!$J33:$AF33)</f>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="29" t="str">
+        <f>HLOOKUP(AG33,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI33" s="30"/>
+      <c r="AJ33" s="30"/>
+      <c r="AK33" s="30"/>
+      <c r="AL33" s="30"/>
       <c r="AM33" s="30"/>
       <c r="AN33" s="30"/>
       <c r="AO33" s="30"/>
@@ -5073,40 +4887,40 @@
       <c r="BC33" s="30"/>
       <c r="BD33" s="30"/>
       <c r="BE33" s="30"/>
-      <c r="BF33" s="30"/>
-      <c r="BG33" s="30"/>
-      <c r="BH33" s="30"/>
-      <c r="BI33" s="30"/>
+      <c r="BF33" s="29">
+        <f>SUM(AI33:BE33)</f>
+        <v>0</v>
+      </c>
+      <c r="BG33" s="29" t="str">
+        <f>HLOOKUP(BF33,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH33" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="29" t="str">
+        <f>HLOOKUP(BH33,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ33" s="30"/>
       <c r="BK33" s="30"/>
       <c r="BL33" s="30"/>
-      <c r="BM33" s="30"/>
-      <c r="BN33" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO33" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP33" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ33" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM33" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN33" s="29" t="str">
+        <f>HLOOKUP(BM33,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO33" s="30"/>
+      <c r="BP33" s="30"/>
+      <c r="BQ33" s="30"/>
       <c r="BR33" s="30"/>
       <c r="BS33" s="30"/>
       <c r="BT33" s="30"/>
-      <c r="BU33" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV33" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU33" s="30"/>
+      <c r="BV33" s="30"/>
       <c r="BW33" s="30"/>
       <c r="BX33" s="30"/>
       <c r="BY33" s="30"/>
@@ -5116,43 +4930,35 @@
       <c r="CC33" s="30"/>
       <c r="CD33" s="30"/>
       <c r="CE33" s="30"/>
-      <c r="CF33" s="30"/>
-      <c r="CG33" s="30"/>
+      <c r="CF33" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG33" s="29" t="str">
+        <f>HLOOKUP(CF33,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH33" s="30"/>
       <c r="CI33" s="30"/>
       <c r="CJ33" s="30"/>
       <c r="CK33" s="30"/>
       <c r="CL33" s="30"/>
       <c r="CM33" s="30"/>
-      <c r="CN33" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO33" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN33" s="30"/>
+      <c r="CO33" s="30"/>
       <c r="CP33" s="30"/>
       <c r="CQ33" s="30"/>
       <c r="CR33" s="30"/>
-      <c r="CS33" s="30"/>
-      <c r="CT33" s="30"/>
-      <c r="CU33" s="30"/>
-      <c r="CV33" s="30"/>
-      <c r="CW33" s="30"/>
-      <c r="CX33" s="30"/>
-      <c r="CY33" s="30"/>
-      <c r="CZ33" s="30"/>
-      <c r="DA33" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB33" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS33" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT33" s="29" t="str">
+        <f>HLOOKUP(CS33,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="34" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="33" t="str">
@@ -5206,18 +5012,18 @@
       <c r="AD34" s="26"/>
       <c r="AE34" s="26"/>
       <c r="AF34" s="26"/>
-      <c r="AG34" s="26"/>
-      <c r="AH34" s="26"/>
-      <c r="AI34" s="26"/>
-      <c r="AJ34" s="26"/>
-      <c r="AK34" s="29">
-        <f>SUM('GRADE BOOK'!$J34:$AJ34)</f>
-        <v>0</v>
-      </c>
-      <c r="AL34" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG34" s="29">
+        <f>SUM('GRADE BOOK'!$J34:$AF34)</f>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="29" t="str">
+        <f>HLOOKUP(AG34,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI34" s="30"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="30"/>
       <c r="AM34" s="30"/>
       <c r="AN34" s="30"/>
       <c r="AO34" s="30"/>
@@ -5237,40 +5043,40 @@
       <c r="BC34" s="30"/>
       <c r="BD34" s="30"/>
       <c r="BE34" s="30"/>
-      <c r="BF34" s="30"/>
-      <c r="BG34" s="30"/>
-      <c r="BH34" s="30"/>
-      <c r="BI34" s="30"/>
+      <c r="BF34" s="29">
+        <f>SUM(AI34:BE34)</f>
+        <v>0</v>
+      </c>
+      <c r="BG34" s="29" t="str">
+        <f>HLOOKUP(BF34,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH34" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="29" t="str">
+        <f>HLOOKUP(BH34,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ34" s="30"/>
       <c r="BK34" s="30"/>
       <c r="BL34" s="30"/>
-      <c r="BM34" s="30"/>
-      <c r="BN34" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO34" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP34" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ34" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM34" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN34" s="29" t="str">
+        <f>HLOOKUP(BM34,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO34" s="30"/>
+      <c r="BP34" s="30"/>
+      <c r="BQ34" s="30"/>
       <c r="BR34" s="30"/>
       <c r="BS34" s="30"/>
       <c r="BT34" s="30"/>
-      <c r="BU34" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV34" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU34" s="30"/>
+      <c r="BV34" s="30"/>
       <c r="BW34" s="30"/>
       <c r="BX34" s="30"/>
       <c r="BY34" s="30"/>
@@ -5280,43 +5086,35 @@
       <c r="CC34" s="30"/>
       <c r="CD34" s="30"/>
       <c r="CE34" s="30"/>
-      <c r="CF34" s="30"/>
-      <c r="CG34" s="30"/>
+      <c r="CF34" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG34" s="29" t="str">
+        <f>HLOOKUP(CF34,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH34" s="30"/>
       <c r="CI34" s="30"/>
       <c r="CJ34" s="30"/>
       <c r="CK34" s="30"/>
       <c r="CL34" s="30"/>
       <c r="CM34" s="30"/>
-      <c r="CN34" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO34" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN34" s="30"/>
+      <c r="CO34" s="30"/>
       <c r="CP34" s="30"/>
       <c r="CQ34" s="30"/>
       <c r="CR34" s="30"/>
-      <c r="CS34" s="30"/>
-      <c r="CT34" s="30"/>
-      <c r="CU34" s="30"/>
-      <c r="CV34" s="30"/>
-      <c r="CW34" s="30"/>
-      <c r="CX34" s="30"/>
-      <c r="CY34" s="30"/>
-      <c r="CZ34" s="30"/>
-      <c r="DA34" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB34" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS34" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT34" s="29" t="str">
+        <f>HLOOKUP(CS34,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="35" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="33" t="str">
@@ -5370,18 +5168,18 @@
       <c r="AD35" s="26"/>
       <c r="AE35" s="26"/>
       <c r="AF35" s="26"/>
-      <c r="AG35" s="26"/>
-      <c r="AH35" s="26"/>
-      <c r="AI35" s="26"/>
-      <c r="AJ35" s="26"/>
-      <c r="AK35" s="29">
-        <f>SUM('GRADE BOOK'!$J35:$AJ35)</f>
-        <v>0</v>
-      </c>
-      <c r="AL35" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG35" s="29">
+        <f>SUM('GRADE BOOK'!$J35:$AF35)</f>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="29" t="str">
+        <f>HLOOKUP(AG35,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI35" s="30"/>
+      <c r="AJ35" s="30"/>
+      <c r="AK35" s="30"/>
+      <c r="AL35" s="30"/>
       <c r="AM35" s="30"/>
       <c r="AN35" s="30"/>
       <c r="AO35" s="30"/>
@@ -5401,40 +5199,40 @@
       <c r="BC35" s="30"/>
       <c r="BD35" s="30"/>
       <c r="BE35" s="30"/>
-      <c r="BF35" s="30"/>
-      <c r="BG35" s="30"/>
-      <c r="BH35" s="30"/>
-      <c r="BI35" s="30"/>
+      <c r="BF35" s="29">
+        <f>SUM(AI35:BE35)</f>
+        <v>0</v>
+      </c>
+      <c r="BG35" s="29" t="str">
+        <f>HLOOKUP(BF35,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH35" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI35" s="29" t="str">
+        <f>HLOOKUP(BH35,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ35" s="30"/>
       <c r="BK35" s="30"/>
       <c r="BL35" s="30"/>
-      <c r="BM35" s="30"/>
-      <c r="BN35" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO35" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP35" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ35" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM35" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN35" s="29" t="str">
+        <f>HLOOKUP(BM35,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO35" s="30"/>
+      <c r="BP35" s="30"/>
+      <c r="BQ35" s="30"/>
       <c r="BR35" s="30"/>
       <c r="BS35" s="30"/>
       <c r="BT35" s="30"/>
-      <c r="BU35" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV35" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU35" s="30"/>
+      <c r="BV35" s="30"/>
       <c r="BW35" s="30"/>
       <c r="BX35" s="30"/>
       <c r="BY35" s="30"/>
@@ -5444,43 +5242,35 @@
       <c r="CC35" s="30"/>
       <c r="CD35" s="30"/>
       <c r="CE35" s="30"/>
-      <c r="CF35" s="30"/>
-      <c r="CG35" s="30"/>
+      <c r="CF35" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG35" s="29" t="str">
+        <f>HLOOKUP(CF35,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH35" s="30"/>
       <c r="CI35" s="30"/>
       <c r="CJ35" s="30"/>
       <c r="CK35" s="30"/>
       <c r="CL35" s="30"/>
       <c r="CM35" s="30"/>
-      <c r="CN35" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO35" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN35" s="30"/>
+      <c r="CO35" s="30"/>
       <c r="CP35" s="30"/>
       <c r="CQ35" s="30"/>
       <c r="CR35" s="30"/>
-      <c r="CS35" s="30"/>
-      <c r="CT35" s="30"/>
-      <c r="CU35" s="30"/>
-      <c r="CV35" s="30"/>
-      <c r="CW35" s="30"/>
-      <c r="CX35" s="30"/>
-      <c r="CY35" s="30"/>
-      <c r="CZ35" s="30"/>
-      <c r="DA35" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB35" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS35" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT35" s="29" t="str">
+        <f>HLOOKUP(CS35,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="36" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="33" t="str">
@@ -5534,18 +5324,18 @@
       <c r="AD36" s="26"/>
       <c r="AE36" s="26"/>
       <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
-      <c r="AI36" s="26"/>
-      <c r="AJ36" s="26"/>
-      <c r="AK36" s="29">
-        <f>SUM('GRADE BOOK'!$J36:$AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AL36" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG36" s="29">
+        <f>SUM('GRADE BOOK'!$J36:$AF36)</f>
+        <v>0</v>
+      </c>
+      <c r="AH36" s="29" t="str">
+        <f>HLOOKUP(AG36,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI36" s="30"/>
+      <c r="AJ36" s="30"/>
+      <c r="AK36" s="30"/>
+      <c r="AL36" s="30"/>
       <c r="AM36" s="30"/>
       <c r="AN36" s="30"/>
       <c r="AO36" s="30"/>
@@ -5565,40 +5355,40 @@
       <c r="BC36" s="30"/>
       <c r="BD36" s="30"/>
       <c r="BE36" s="30"/>
-      <c r="BF36" s="30"/>
-      <c r="BG36" s="30"/>
-      <c r="BH36" s="30"/>
-      <c r="BI36" s="30"/>
+      <c r="BF36" s="29">
+        <f>SUM(AI36:BE36)</f>
+        <v>0</v>
+      </c>
+      <c r="BG36" s="29" t="str">
+        <f>HLOOKUP(BF36,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH36" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI36" s="29" t="str">
+        <f>HLOOKUP(BH36,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ36" s="30"/>
       <c r="BK36" s="30"/>
       <c r="BL36" s="30"/>
-      <c r="BM36" s="30"/>
-      <c r="BN36" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO36" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP36" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ36" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM36" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN36" s="29" t="str">
+        <f>HLOOKUP(BM36,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO36" s="30"/>
+      <c r="BP36" s="30"/>
+      <c r="BQ36" s="30"/>
       <c r="BR36" s="30"/>
       <c r="BS36" s="30"/>
       <c r="BT36" s="30"/>
-      <c r="BU36" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV36" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU36" s="30"/>
+      <c r="BV36" s="30"/>
       <c r="BW36" s="30"/>
       <c r="BX36" s="30"/>
       <c r="BY36" s="30"/>
@@ -5608,43 +5398,35 @@
       <c r="CC36" s="30"/>
       <c r="CD36" s="30"/>
       <c r="CE36" s="30"/>
-      <c r="CF36" s="30"/>
-      <c r="CG36" s="30"/>
+      <c r="CF36" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG36" s="29" t="str">
+        <f>HLOOKUP(CF36,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH36" s="30"/>
       <c r="CI36" s="30"/>
       <c r="CJ36" s="30"/>
       <c r="CK36" s="30"/>
       <c r="CL36" s="30"/>
       <c r="CM36" s="30"/>
-      <c r="CN36" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO36" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN36" s="30"/>
+      <c r="CO36" s="30"/>
       <c r="CP36" s="30"/>
       <c r="CQ36" s="30"/>
       <c r="CR36" s="30"/>
-      <c r="CS36" s="30"/>
-      <c r="CT36" s="30"/>
-      <c r="CU36" s="30"/>
-      <c r="CV36" s="30"/>
-      <c r="CW36" s="30"/>
-      <c r="CX36" s="30"/>
-      <c r="CY36" s="30"/>
-      <c r="CZ36" s="30"/>
-      <c r="DA36" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB36" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS36" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT36" s="29" t="str">
+        <f>HLOOKUP(CS36,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="37" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="33" t="str">
@@ -5698,18 +5480,18 @@
       <c r="AD37" s="26"/>
       <c r="AE37" s="26"/>
       <c r="AF37" s="26"/>
-      <c r="AG37" s="26"/>
-      <c r="AH37" s="26"/>
-      <c r="AI37" s="26"/>
-      <c r="AJ37" s="26"/>
-      <c r="AK37" s="29">
-        <f>SUM('GRADE BOOK'!$J37:$AJ37)</f>
-        <v>0</v>
-      </c>
-      <c r="AL37" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG37" s="29">
+        <f>SUM('GRADE BOOK'!$J37:$AF37)</f>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="29" t="str">
+        <f>HLOOKUP(AG37,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI37" s="30"/>
+      <c r="AJ37" s="30"/>
+      <c r="AK37" s="30"/>
+      <c r="AL37" s="30"/>
       <c r="AM37" s="30"/>
       <c r="AN37" s="30"/>
       <c r="AO37" s="30"/>
@@ -5729,40 +5511,40 @@
       <c r="BC37" s="30"/>
       <c r="BD37" s="30"/>
       <c r="BE37" s="30"/>
-      <c r="BF37" s="30"/>
-      <c r="BG37" s="30"/>
-      <c r="BH37" s="30"/>
-      <c r="BI37" s="30"/>
+      <c r="BF37" s="29">
+        <f>SUM(AI37:BE37)</f>
+        <v>0</v>
+      </c>
+      <c r="BG37" s="29" t="str">
+        <f>HLOOKUP(BF37,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH37" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI37" s="29" t="str">
+        <f>HLOOKUP(BH37,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ37" s="30"/>
       <c r="BK37" s="30"/>
       <c r="BL37" s="30"/>
-      <c r="BM37" s="30"/>
-      <c r="BN37" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO37" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP37" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ37" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM37" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN37" s="29" t="str">
+        <f>HLOOKUP(BM37,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO37" s="30"/>
+      <c r="BP37" s="30"/>
+      <c r="BQ37" s="30"/>
       <c r="BR37" s="30"/>
       <c r="BS37" s="30"/>
       <c r="BT37" s="30"/>
-      <c r="BU37" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV37" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU37" s="30"/>
+      <c r="BV37" s="30"/>
       <c r="BW37" s="30"/>
       <c r="BX37" s="30"/>
       <c r="BY37" s="30"/>
@@ -5772,43 +5554,35 @@
       <c r="CC37" s="30"/>
       <c r="CD37" s="30"/>
       <c r="CE37" s="30"/>
-      <c r="CF37" s="30"/>
-      <c r="CG37" s="30"/>
+      <c r="CF37" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG37" s="29" t="str">
+        <f>HLOOKUP(CF37,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH37" s="30"/>
       <c r="CI37" s="30"/>
       <c r="CJ37" s="30"/>
       <c r="CK37" s="30"/>
       <c r="CL37" s="30"/>
       <c r="CM37" s="30"/>
-      <c r="CN37" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO37" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN37" s="30"/>
+      <c r="CO37" s="30"/>
       <c r="CP37" s="30"/>
       <c r="CQ37" s="30"/>
       <c r="CR37" s="30"/>
-      <c r="CS37" s="30"/>
-      <c r="CT37" s="30"/>
-      <c r="CU37" s="30"/>
-      <c r="CV37" s="30"/>
-      <c r="CW37" s="30"/>
-      <c r="CX37" s="30"/>
-      <c r="CY37" s="30"/>
-      <c r="CZ37" s="30"/>
-      <c r="DA37" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB37" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS37" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT37" s="29" t="str">
+        <f>HLOOKUP(CS37,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="38" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="33" t="str">
@@ -5862,18 +5636,18 @@
       <c r="AD38" s="26"/>
       <c r="AE38" s="26"/>
       <c r="AF38" s="26"/>
-      <c r="AG38" s="26"/>
-      <c r="AH38" s="26"/>
-      <c r="AI38" s="26"/>
-      <c r="AJ38" s="26"/>
-      <c r="AK38" s="29">
-        <f>SUM('GRADE BOOK'!$J38:$AJ38)</f>
-        <v>0</v>
-      </c>
-      <c r="AL38" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG38" s="29">
+        <f>SUM('GRADE BOOK'!$J38:$AF38)</f>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="29" t="str">
+        <f>HLOOKUP(AG38,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="30"/>
       <c r="AM38" s="30"/>
       <c r="AN38" s="30"/>
       <c r="AO38" s="30"/>
@@ -5893,40 +5667,40 @@
       <c r="BC38" s="30"/>
       <c r="BD38" s="30"/>
       <c r="BE38" s="30"/>
-      <c r="BF38" s="30"/>
-      <c r="BG38" s="30"/>
-      <c r="BH38" s="30"/>
-      <c r="BI38" s="30"/>
+      <c r="BF38" s="29">
+        <f>SUM(AI38:BE38)</f>
+        <v>0</v>
+      </c>
+      <c r="BG38" s="29" t="str">
+        <f>HLOOKUP(BF38,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH38" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI38" s="29" t="str">
+        <f>HLOOKUP(BH38,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ38" s="30"/>
       <c r="BK38" s="30"/>
       <c r="BL38" s="30"/>
-      <c r="BM38" s="30"/>
-      <c r="BN38" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO38" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP38" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ38" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM38" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN38" s="29" t="str">
+        <f>HLOOKUP(BM38,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO38" s="30"/>
+      <c r="BP38" s="30"/>
+      <c r="BQ38" s="30"/>
       <c r="BR38" s="30"/>
       <c r="BS38" s="30"/>
       <c r="BT38" s="30"/>
-      <c r="BU38" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV38" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU38" s="30"/>
+      <c r="BV38" s="30"/>
       <c r="BW38" s="30"/>
       <c r="BX38" s="30"/>
       <c r="BY38" s="30"/>
@@ -5936,43 +5710,35 @@
       <c r="CC38" s="30"/>
       <c r="CD38" s="30"/>
       <c r="CE38" s="30"/>
-      <c r="CF38" s="30"/>
-      <c r="CG38" s="30"/>
+      <c r="CF38" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG38" s="29" t="str">
+        <f>HLOOKUP(CF38,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH38" s="30"/>
       <c r="CI38" s="30"/>
       <c r="CJ38" s="30"/>
       <c r="CK38" s="30"/>
       <c r="CL38" s="30"/>
       <c r="CM38" s="30"/>
-      <c r="CN38" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO38" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN38" s="30"/>
+      <c r="CO38" s="30"/>
       <c r="CP38" s="30"/>
       <c r="CQ38" s="30"/>
       <c r="CR38" s="30"/>
-      <c r="CS38" s="30"/>
-      <c r="CT38" s="30"/>
-      <c r="CU38" s="30"/>
-      <c r="CV38" s="30"/>
-      <c r="CW38" s="30"/>
-      <c r="CX38" s="30"/>
-      <c r="CY38" s="30"/>
-      <c r="CZ38" s="30"/>
-      <c r="DA38" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB38" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS38" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT38" s="29" t="str">
+        <f>HLOOKUP(CS38,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="39" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="26"/>
       <c r="C39" s="33" t="str">
@@ -6026,18 +5792,18 @@
       <c r="AD39" s="26"/>
       <c r="AE39" s="26"/>
       <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="26"/>
-      <c r="AJ39" s="26"/>
-      <c r="AK39" s="29">
-        <f>SUM('GRADE BOOK'!$J39:$AJ39)</f>
-        <v>0</v>
-      </c>
-      <c r="AL39" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG39" s="29">
+        <f>SUM('GRADE BOOK'!$J39:$AF39)</f>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="29" t="str">
+        <f>HLOOKUP(AG39,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI39" s="30"/>
+      <c r="AJ39" s="30"/>
+      <c r="AK39" s="30"/>
+      <c r="AL39" s="30"/>
       <c r="AM39" s="30"/>
       <c r="AN39" s="30"/>
       <c r="AO39" s="30"/>
@@ -6057,40 +5823,40 @@
       <c r="BC39" s="30"/>
       <c r="BD39" s="30"/>
       <c r="BE39" s="30"/>
-      <c r="BF39" s="30"/>
-      <c r="BG39" s="30"/>
-      <c r="BH39" s="30"/>
-      <c r="BI39" s="30"/>
+      <c r="BF39" s="29">
+        <f>SUM(AI39:BE39)</f>
+        <v>0</v>
+      </c>
+      <c r="BG39" s="29" t="str">
+        <f>HLOOKUP(BF39,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH39" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI39" s="29" t="str">
+        <f>HLOOKUP(BH39,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ39" s="30"/>
       <c r="BK39" s="30"/>
       <c r="BL39" s="30"/>
-      <c r="BM39" s="30"/>
-      <c r="BN39" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO39" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP39" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ39" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM39" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN39" s="29" t="str">
+        <f>HLOOKUP(BM39,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO39" s="30"/>
+      <c r="BP39" s="30"/>
+      <c r="BQ39" s="30"/>
       <c r="BR39" s="30"/>
       <c r="BS39" s="30"/>
       <c r="BT39" s="30"/>
-      <c r="BU39" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV39" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU39" s="30"/>
+      <c r="BV39" s="30"/>
       <c r="BW39" s="30"/>
       <c r="BX39" s="30"/>
       <c r="BY39" s="30"/>
@@ -6100,43 +5866,35 @@
       <c r="CC39" s="30"/>
       <c r="CD39" s="30"/>
       <c r="CE39" s="30"/>
-      <c r="CF39" s="30"/>
-      <c r="CG39" s="30"/>
+      <c r="CF39" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG39" s="29" t="str">
+        <f>HLOOKUP(CF39,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH39" s="30"/>
       <c r="CI39" s="30"/>
       <c r="CJ39" s="30"/>
       <c r="CK39" s="30"/>
       <c r="CL39" s="30"/>
       <c r="CM39" s="30"/>
-      <c r="CN39" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO39" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN39" s="30"/>
+      <c r="CO39" s="30"/>
       <c r="CP39" s="30"/>
       <c r="CQ39" s="30"/>
       <c r="CR39" s="30"/>
-      <c r="CS39" s="30"/>
-      <c r="CT39" s="30"/>
-      <c r="CU39" s="30"/>
-      <c r="CV39" s="30"/>
-      <c r="CW39" s="30"/>
-      <c r="CX39" s="30"/>
-      <c r="CY39" s="30"/>
-      <c r="CZ39" s="30"/>
-      <c r="DA39" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB39" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS39" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT39" s="29" t="str">
+        <f>HLOOKUP(CS39,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="40" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="33" t="str">
@@ -6190,18 +5948,18 @@
       <c r="AD40" s="26"/>
       <c r="AE40" s="26"/>
       <c r="AF40" s="26"/>
-      <c r="AG40" s="26"/>
-      <c r="AH40" s="26"/>
-      <c r="AI40" s="26"/>
-      <c r="AJ40" s="26"/>
-      <c r="AK40" s="29">
-        <f>SUM('GRADE BOOK'!$J40:$AJ40)</f>
-        <v>0</v>
-      </c>
-      <c r="AL40" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG40" s="29">
+        <f>SUM('GRADE BOOK'!$J40:$AF40)</f>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="29" t="str">
+        <f>HLOOKUP(AG40,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI40" s="30"/>
+      <c r="AJ40" s="30"/>
+      <c r="AK40" s="30"/>
+      <c r="AL40" s="30"/>
       <c r="AM40" s="30"/>
       <c r="AN40" s="30"/>
       <c r="AO40" s="30"/>
@@ -6221,40 +5979,40 @@
       <c r="BC40" s="30"/>
       <c r="BD40" s="30"/>
       <c r="BE40" s="30"/>
-      <c r="BF40" s="30"/>
-      <c r="BG40" s="30"/>
-      <c r="BH40" s="30"/>
-      <c r="BI40" s="30"/>
+      <c r="BF40" s="29">
+        <f>SUM(AI40:BE40)</f>
+        <v>0</v>
+      </c>
+      <c r="BG40" s="29" t="str">
+        <f>HLOOKUP(BF40,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH40" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="29" t="str">
+        <f>HLOOKUP(BH40,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ40" s="30"/>
       <c r="BK40" s="30"/>
       <c r="BL40" s="30"/>
-      <c r="BM40" s="30"/>
-      <c r="BN40" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO40" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP40" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ40" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM40" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN40" s="29" t="str">
+        <f>HLOOKUP(BM40,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO40" s="30"/>
+      <c r="BP40" s="30"/>
+      <c r="BQ40" s="30"/>
       <c r="BR40" s="30"/>
       <c r="BS40" s="30"/>
       <c r="BT40" s="30"/>
-      <c r="BU40" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV40" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU40" s="30"/>
+      <c r="BV40" s="30"/>
       <c r="BW40" s="30"/>
       <c r="BX40" s="30"/>
       <c r="BY40" s="30"/>
@@ -6264,43 +6022,35 @@
       <c r="CC40" s="30"/>
       <c r="CD40" s="30"/>
       <c r="CE40" s="30"/>
-      <c r="CF40" s="30"/>
-      <c r="CG40" s="30"/>
+      <c r="CF40" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG40" s="29" t="str">
+        <f>HLOOKUP(CF40,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH40" s="30"/>
       <c r="CI40" s="30"/>
       <c r="CJ40" s="30"/>
       <c r="CK40" s="30"/>
       <c r="CL40" s="30"/>
       <c r="CM40" s="30"/>
-      <c r="CN40" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO40" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN40" s="30"/>
+      <c r="CO40" s="30"/>
       <c r="CP40" s="30"/>
       <c r="CQ40" s="30"/>
       <c r="CR40" s="30"/>
-      <c r="CS40" s="30"/>
-      <c r="CT40" s="30"/>
-      <c r="CU40" s="30"/>
-      <c r="CV40" s="30"/>
-      <c r="CW40" s="30"/>
-      <c r="CX40" s="30"/>
-      <c r="CY40" s="30"/>
-      <c r="CZ40" s="30"/>
-      <c r="DA40" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB40" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS40" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT40" s="29" t="str">
+        <f>HLOOKUP(CS40,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="41" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="33" t="str">
@@ -6354,18 +6104,18 @@
       <c r="AD41" s="26"/>
       <c r="AE41" s="26"/>
       <c r="AF41" s="26"/>
-      <c r="AG41" s="26"/>
-      <c r="AH41" s="26"/>
-      <c r="AI41" s="26"/>
-      <c r="AJ41" s="26"/>
-      <c r="AK41" s="29">
-        <f>SUM('GRADE BOOK'!$J41:$AJ41)</f>
-        <v>0</v>
-      </c>
-      <c r="AL41" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG41" s="29">
+        <f>SUM('GRADE BOOK'!$J41:$AF41)</f>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="29" t="str">
+        <f>HLOOKUP(AG41,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="30"/>
+      <c r="AK41" s="30"/>
+      <c r="AL41" s="30"/>
       <c r="AM41" s="30"/>
       <c r="AN41" s="30"/>
       <c r="AO41" s="30"/>
@@ -6385,40 +6135,40 @@
       <c r="BC41" s="30"/>
       <c r="BD41" s="30"/>
       <c r="BE41" s="30"/>
-      <c r="BF41" s="30"/>
-      <c r="BG41" s="30"/>
-      <c r="BH41" s="30"/>
-      <c r="BI41" s="30"/>
+      <c r="BF41" s="29">
+        <f>SUM(AI41:BE41)</f>
+        <v>0</v>
+      </c>
+      <c r="BG41" s="29" t="str">
+        <f>HLOOKUP(BF41,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH41" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI41" s="29" t="str">
+        <f>HLOOKUP(BH41,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ41" s="30"/>
       <c r="BK41" s="30"/>
       <c r="BL41" s="30"/>
-      <c r="BM41" s="30"/>
-      <c r="BN41" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO41" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP41" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ41" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM41" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN41" s="29" t="str">
+        <f>HLOOKUP(BM41,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO41" s="30"/>
+      <c r="BP41" s="30"/>
+      <c r="BQ41" s="30"/>
       <c r="BR41" s="30"/>
       <c r="BS41" s="30"/>
       <c r="BT41" s="30"/>
-      <c r="BU41" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV41" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU41" s="30"/>
+      <c r="BV41" s="30"/>
       <c r="BW41" s="30"/>
       <c r="BX41" s="30"/>
       <c r="BY41" s="30"/>
@@ -6428,43 +6178,35 @@
       <c r="CC41" s="30"/>
       <c r="CD41" s="30"/>
       <c r="CE41" s="30"/>
-      <c r="CF41" s="30"/>
-      <c r="CG41" s="30"/>
+      <c r="CF41" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG41" s="29" t="str">
+        <f>HLOOKUP(CF41,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH41" s="30"/>
       <c r="CI41" s="30"/>
       <c r="CJ41" s="30"/>
       <c r="CK41" s="30"/>
       <c r="CL41" s="30"/>
       <c r="CM41" s="30"/>
-      <c r="CN41" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO41" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN41" s="30"/>
+      <c r="CO41" s="30"/>
       <c r="CP41" s="30"/>
       <c r="CQ41" s="30"/>
       <c r="CR41" s="30"/>
-      <c r="CS41" s="30"/>
-      <c r="CT41" s="30"/>
-      <c r="CU41" s="30"/>
-      <c r="CV41" s="30"/>
-      <c r="CW41" s="30"/>
-      <c r="CX41" s="30"/>
-      <c r="CY41" s="30"/>
-      <c r="CZ41" s="30"/>
-      <c r="DA41" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB41" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS41" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT41" s="29" t="str">
+        <f>HLOOKUP(CS41,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="42" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="33" t="str">
@@ -6518,18 +6260,18 @@
       <c r="AD42" s="26"/>
       <c r="AE42" s="26"/>
       <c r="AF42" s="26"/>
-      <c r="AG42" s="26"/>
-      <c r="AH42" s="26"/>
-      <c r="AI42" s="26"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="29">
-        <f>SUM('GRADE BOOK'!$J42:$AJ42)</f>
-        <v>0</v>
-      </c>
-      <c r="AL42" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG42" s="29">
+        <f>SUM('GRADE BOOK'!$J42:$AF42)</f>
+        <v>0</v>
+      </c>
+      <c r="AH42" s="29" t="str">
+        <f>HLOOKUP(AG42,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI42" s="30"/>
+      <c r="AJ42" s="30"/>
+      <c r="AK42" s="30"/>
+      <c r="AL42" s="30"/>
       <c r="AM42" s="30"/>
       <c r="AN42" s="30"/>
       <c r="AO42" s="30"/>
@@ -6549,40 +6291,40 @@
       <c r="BC42" s="30"/>
       <c r="BD42" s="30"/>
       <c r="BE42" s="30"/>
-      <c r="BF42" s="30"/>
-      <c r="BG42" s="30"/>
-      <c r="BH42" s="30"/>
-      <c r="BI42" s="30"/>
+      <c r="BF42" s="29">
+        <f>SUM(AI42:BE42)</f>
+        <v>0</v>
+      </c>
+      <c r="BG42" s="29" t="str">
+        <f>HLOOKUP(BF42,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH42" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI42" s="29" t="str">
+        <f>HLOOKUP(BH42,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ42" s="30"/>
       <c r="BK42" s="30"/>
       <c r="BL42" s="30"/>
-      <c r="BM42" s="30"/>
-      <c r="BN42" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO42" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP42" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ42" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM42" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN42" s="29" t="str">
+        <f>HLOOKUP(BM42,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO42" s="30"/>
+      <c r="BP42" s="30"/>
+      <c r="BQ42" s="30"/>
       <c r="BR42" s="30"/>
       <c r="BS42" s="30"/>
       <c r="BT42" s="30"/>
-      <c r="BU42" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV42" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU42" s="30"/>
+      <c r="BV42" s="30"/>
       <c r="BW42" s="30"/>
       <c r="BX42" s="30"/>
       <c r="BY42" s="30"/>
@@ -6592,43 +6334,35 @@
       <c r="CC42" s="30"/>
       <c r="CD42" s="30"/>
       <c r="CE42" s="30"/>
-      <c r="CF42" s="30"/>
-      <c r="CG42" s="30"/>
+      <c r="CF42" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG42" s="29" t="str">
+        <f>HLOOKUP(CF42,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH42" s="30"/>
       <c r="CI42" s="30"/>
       <c r="CJ42" s="30"/>
       <c r="CK42" s="30"/>
       <c r="CL42" s="30"/>
       <c r="CM42" s="30"/>
-      <c r="CN42" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO42" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN42" s="30"/>
+      <c r="CO42" s="30"/>
       <c r="CP42" s="30"/>
       <c r="CQ42" s="30"/>
       <c r="CR42" s="30"/>
-      <c r="CS42" s="30"/>
-      <c r="CT42" s="30"/>
-      <c r="CU42" s="30"/>
-      <c r="CV42" s="30"/>
-      <c r="CW42" s="30"/>
-      <c r="CX42" s="30"/>
-      <c r="CY42" s="30"/>
-      <c r="CZ42" s="30"/>
-      <c r="DA42" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB42" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS42" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT42" s="29" t="str">
+        <f>HLOOKUP(CS42,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="43" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="33" t="str">
@@ -6682,18 +6416,18 @@
       <c r="AD43" s="26"/>
       <c r="AE43" s="26"/>
       <c r="AF43" s="26"/>
-      <c r="AG43" s="26"/>
-      <c r="AH43" s="26"/>
-      <c r="AI43" s="26"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="29">
-        <f>SUM('GRADE BOOK'!$J43:$AJ43)</f>
-        <v>0</v>
-      </c>
-      <c r="AL43" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG43" s="29">
+        <f>SUM('GRADE BOOK'!$J43:$AF43)</f>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="29" t="str">
+        <f>HLOOKUP(AG43,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI43" s="30"/>
+      <c r="AJ43" s="30"/>
+      <c r="AK43" s="30"/>
+      <c r="AL43" s="30"/>
       <c r="AM43" s="30"/>
       <c r="AN43" s="30"/>
       <c r="AO43" s="30"/>
@@ -6713,40 +6447,40 @@
       <c r="BC43" s="30"/>
       <c r="BD43" s="30"/>
       <c r="BE43" s="30"/>
-      <c r="BF43" s="30"/>
-      <c r="BG43" s="30"/>
-      <c r="BH43" s="30"/>
-      <c r="BI43" s="30"/>
+      <c r="BF43" s="29">
+        <f>SUM(AI43:BE43)</f>
+        <v>0</v>
+      </c>
+      <c r="BG43" s="29" t="str">
+        <f>HLOOKUP(BF43,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH43" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI43" s="29" t="str">
+        <f>HLOOKUP(BH43,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ43" s="30"/>
       <c r="BK43" s="30"/>
       <c r="BL43" s="30"/>
-      <c r="BM43" s="30"/>
-      <c r="BN43" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO43" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP43" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ43" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM43" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN43" s="29" t="str">
+        <f>HLOOKUP(BM43,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO43" s="30"/>
+      <c r="BP43" s="30"/>
+      <c r="BQ43" s="30"/>
       <c r="BR43" s="30"/>
       <c r="BS43" s="30"/>
       <c r="BT43" s="30"/>
-      <c r="BU43" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV43" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU43" s="30"/>
+      <c r="BV43" s="30"/>
       <c r="BW43" s="30"/>
       <c r="BX43" s="30"/>
       <c r="BY43" s="30"/>
@@ -6756,43 +6490,35 @@
       <c r="CC43" s="30"/>
       <c r="CD43" s="30"/>
       <c r="CE43" s="30"/>
-      <c r="CF43" s="30"/>
-      <c r="CG43" s="30"/>
+      <c r="CF43" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG43" s="29" t="str">
+        <f>HLOOKUP(CF43,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH43" s="30"/>
       <c r="CI43" s="30"/>
       <c r="CJ43" s="30"/>
       <c r="CK43" s="30"/>
       <c r="CL43" s="30"/>
       <c r="CM43" s="30"/>
-      <c r="CN43" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO43" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN43" s="30"/>
+      <c r="CO43" s="30"/>
       <c r="CP43" s="30"/>
       <c r="CQ43" s="30"/>
       <c r="CR43" s="30"/>
-      <c r="CS43" s="30"/>
-      <c r="CT43" s="30"/>
-      <c r="CU43" s="30"/>
-      <c r="CV43" s="30"/>
-      <c r="CW43" s="30"/>
-      <c r="CX43" s="30"/>
-      <c r="CY43" s="30"/>
-      <c r="CZ43" s="30"/>
-      <c r="DA43" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB43" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS43" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT43" s="29" t="str">
+        <f>HLOOKUP(CS43,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="44" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="33" t="str">
@@ -6846,18 +6572,18 @@
       <c r="AD44" s="26"/>
       <c r="AE44" s="26"/>
       <c r="AF44" s="26"/>
-      <c r="AG44" s="26"/>
-      <c r="AH44" s="26"/>
-      <c r="AI44" s="26"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="29">
-        <f>SUM('GRADE BOOK'!$J44:$AJ44)</f>
-        <v>0</v>
-      </c>
-      <c r="AL44" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG44" s="29">
+        <f>SUM('GRADE BOOK'!$J44:$AF44)</f>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="29" t="str">
+        <f>HLOOKUP(AG44,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI44" s="30"/>
+      <c r="AJ44" s="30"/>
+      <c r="AK44" s="30"/>
+      <c r="AL44" s="30"/>
       <c r="AM44" s="30"/>
       <c r="AN44" s="30"/>
       <c r="AO44" s="30"/>
@@ -6877,40 +6603,40 @@
       <c r="BC44" s="30"/>
       <c r="BD44" s="30"/>
       <c r="BE44" s="30"/>
-      <c r="BF44" s="30"/>
-      <c r="BG44" s="30"/>
-      <c r="BH44" s="30"/>
-      <c r="BI44" s="30"/>
+      <c r="BF44" s="29">
+        <f>SUM(AI44:BE44)</f>
+        <v>0</v>
+      </c>
+      <c r="BG44" s="29" t="str">
+        <f>HLOOKUP(BF44,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH44" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI44" s="29" t="str">
+        <f>HLOOKUP(BH44,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ44" s="30"/>
       <c r="BK44" s="30"/>
       <c r="BL44" s="30"/>
-      <c r="BM44" s="30"/>
-      <c r="BN44" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO44" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP44" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ44" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM44" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN44" s="29" t="str">
+        <f>HLOOKUP(BM44,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO44" s="30"/>
+      <c r="BP44" s="30"/>
+      <c r="BQ44" s="30"/>
       <c r="BR44" s="30"/>
       <c r="BS44" s="30"/>
       <c r="BT44" s="30"/>
-      <c r="BU44" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV44" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU44" s="30"/>
+      <c r="BV44" s="30"/>
       <c r="BW44" s="30"/>
       <c r="BX44" s="30"/>
       <c r="BY44" s="30"/>
@@ -6920,43 +6646,35 @@
       <c r="CC44" s="30"/>
       <c r="CD44" s="30"/>
       <c r="CE44" s="30"/>
-      <c r="CF44" s="30"/>
-      <c r="CG44" s="30"/>
+      <c r="CF44" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG44" s="29" t="str">
+        <f>HLOOKUP(CF44,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH44" s="30"/>
       <c r="CI44" s="30"/>
       <c r="CJ44" s="30"/>
       <c r="CK44" s="30"/>
       <c r="CL44" s="30"/>
       <c r="CM44" s="30"/>
-      <c r="CN44" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO44" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN44" s="30"/>
+      <c r="CO44" s="30"/>
       <c r="CP44" s="30"/>
       <c r="CQ44" s="30"/>
       <c r="CR44" s="30"/>
-      <c r="CS44" s="30"/>
-      <c r="CT44" s="30"/>
-      <c r="CU44" s="30"/>
-      <c r="CV44" s="30"/>
-      <c r="CW44" s="30"/>
-      <c r="CX44" s="30"/>
-      <c r="CY44" s="30"/>
-      <c r="CZ44" s="30"/>
-      <c r="DA44" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB44" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS44" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT44" s="29" t="str">
+        <f>HLOOKUP(CS44,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="45" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="33" t="str">
@@ -7010,18 +6728,18 @@
       <c r="AD45" s="26"/>
       <c r="AE45" s="26"/>
       <c r="AF45" s="26"/>
-      <c r="AG45" s="26"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="26"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="29">
-        <f>SUM('GRADE BOOK'!$J45:$AJ45)</f>
-        <v>0</v>
-      </c>
-      <c r="AL45" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG45" s="29">
+        <f>SUM('GRADE BOOK'!$J45:$AF45)</f>
+        <v>0</v>
+      </c>
+      <c r="AH45" s="29" t="str">
+        <f>HLOOKUP(AG45,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="30"/>
+      <c r="AK45" s="30"/>
+      <c r="AL45" s="30"/>
       <c r="AM45" s="30"/>
       <c r="AN45" s="30"/>
       <c r="AO45" s="30"/>
@@ -7041,40 +6759,40 @@
       <c r="BC45" s="30"/>
       <c r="BD45" s="30"/>
       <c r="BE45" s="30"/>
-      <c r="BF45" s="30"/>
-      <c r="BG45" s="30"/>
-      <c r="BH45" s="30"/>
-      <c r="BI45" s="30"/>
+      <c r="BF45" s="29">
+        <f>SUM(AI45:BE45)</f>
+        <v>0</v>
+      </c>
+      <c r="BG45" s="29" t="str">
+        <f>HLOOKUP(BF45,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH45" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI45" s="29" t="str">
+        <f>HLOOKUP(BH45,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ45" s="30"/>
       <c r="BK45" s="30"/>
       <c r="BL45" s="30"/>
-      <c r="BM45" s="30"/>
-      <c r="BN45" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO45" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP45" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ45" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM45" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN45" s="29" t="str">
+        <f>HLOOKUP(BM45,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO45" s="30"/>
+      <c r="BP45" s="30"/>
+      <c r="BQ45" s="30"/>
       <c r="BR45" s="30"/>
       <c r="BS45" s="30"/>
       <c r="BT45" s="30"/>
-      <c r="BU45" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV45" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU45" s="30"/>
+      <c r="BV45" s="30"/>
       <c r="BW45" s="30"/>
       <c r="BX45" s="30"/>
       <c r="BY45" s="30"/>
@@ -7084,43 +6802,35 @@
       <c r="CC45" s="30"/>
       <c r="CD45" s="30"/>
       <c r="CE45" s="30"/>
-      <c r="CF45" s="30"/>
-      <c r="CG45" s="30"/>
+      <c r="CF45" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG45" s="29" t="str">
+        <f>HLOOKUP(CF45,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH45" s="30"/>
       <c r="CI45" s="30"/>
       <c r="CJ45" s="30"/>
       <c r="CK45" s="30"/>
       <c r="CL45" s="30"/>
       <c r="CM45" s="30"/>
-      <c r="CN45" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO45" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN45" s="30"/>
+      <c r="CO45" s="30"/>
       <c r="CP45" s="30"/>
       <c r="CQ45" s="30"/>
       <c r="CR45" s="30"/>
-      <c r="CS45" s="30"/>
-      <c r="CT45" s="30"/>
-      <c r="CU45" s="30"/>
-      <c r="CV45" s="30"/>
-      <c r="CW45" s="30"/>
-      <c r="CX45" s="30"/>
-      <c r="CY45" s="30"/>
-      <c r="CZ45" s="30"/>
-      <c r="DA45" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB45" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS45" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT45" s="29" t="str">
+        <f>HLOOKUP(CS45,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="46" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="33" t="str">
@@ -7174,18 +6884,18 @@
       <c r="AD46" s="26"/>
       <c r="AE46" s="26"/>
       <c r="AF46" s="26"/>
-      <c r="AG46" s="26"/>
-      <c r="AH46" s="26"/>
-      <c r="AI46" s="26"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="29">
-        <f>SUM('GRADE BOOK'!$J46:$AJ46)</f>
-        <v>0</v>
-      </c>
-      <c r="AL46" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG46" s="29">
+        <f>SUM('GRADE BOOK'!$J46:$AF46)</f>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="29" t="str">
+        <f>HLOOKUP(AG46,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="30"/>
       <c r="AM46" s="30"/>
       <c r="AN46" s="30"/>
       <c r="AO46" s="30"/>
@@ -7205,40 +6915,40 @@
       <c r="BC46" s="30"/>
       <c r="BD46" s="30"/>
       <c r="BE46" s="30"/>
-      <c r="BF46" s="30"/>
-      <c r="BG46" s="30"/>
-      <c r="BH46" s="30"/>
-      <c r="BI46" s="30"/>
+      <c r="BF46" s="29">
+        <f>SUM(AI46:BE46)</f>
+        <v>0</v>
+      </c>
+      <c r="BG46" s="29" t="str">
+        <f>HLOOKUP(BF46,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH46" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI46" s="29" t="str">
+        <f>HLOOKUP(BH46,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ46" s="30"/>
       <c r="BK46" s="30"/>
       <c r="BL46" s="30"/>
-      <c r="BM46" s="30"/>
-      <c r="BN46" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO46" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP46" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ46" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM46" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN46" s="29" t="str">
+        <f>HLOOKUP(BM46,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO46" s="30"/>
+      <c r="BP46" s="30"/>
+      <c r="BQ46" s="30"/>
       <c r="BR46" s="30"/>
       <c r="BS46" s="30"/>
       <c r="BT46" s="30"/>
-      <c r="BU46" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV46" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU46" s="30"/>
+      <c r="BV46" s="30"/>
       <c r="BW46" s="30"/>
       <c r="BX46" s="30"/>
       <c r="BY46" s="30"/>
@@ -7248,43 +6958,35 @@
       <c r="CC46" s="30"/>
       <c r="CD46" s="30"/>
       <c r="CE46" s="30"/>
-      <c r="CF46" s="30"/>
-      <c r="CG46" s="30"/>
+      <c r="CF46" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG46" s="29" t="str">
+        <f>HLOOKUP(CF46,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH46" s="30"/>
       <c r="CI46" s="30"/>
       <c r="CJ46" s="30"/>
       <c r="CK46" s="30"/>
       <c r="CL46" s="30"/>
       <c r="CM46" s="30"/>
-      <c r="CN46" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO46" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN46" s="30"/>
+      <c r="CO46" s="30"/>
       <c r="CP46" s="30"/>
       <c r="CQ46" s="30"/>
       <c r="CR46" s="30"/>
-      <c r="CS46" s="30"/>
-      <c r="CT46" s="30"/>
-      <c r="CU46" s="30"/>
-      <c r="CV46" s="30"/>
-      <c r="CW46" s="30"/>
-      <c r="CX46" s="30"/>
-      <c r="CY46" s="30"/>
-      <c r="CZ46" s="30"/>
-      <c r="DA46" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB46" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS46" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT46" s="29" t="str">
+        <f>HLOOKUP(CS46,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="47" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="33" t="str">
@@ -7338,18 +7040,18 @@
       <c r="AD47" s="26"/>
       <c r="AE47" s="26"/>
       <c r="AF47" s="26"/>
-      <c r="AG47" s="26"/>
-      <c r="AH47" s="26"/>
-      <c r="AI47" s="26"/>
-      <c r="AJ47" s="26"/>
-      <c r="AK47" s="29">
-        <f>SUM('GRADE BOOK'!$J47:$AJ47)</f>
-        <v>0</v>
-      </c>
-      <c r="AL47" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG47" s="29">
+        <f>SUM('GRADE BOOK'!$J47:$AF47)</f>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="29" t="str">
+        <f>HLOOKUP(AG47,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI47" s="30"/>
+      <c r="AJ47" s="30"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="30"/>
       <c r="AM47" s="30"/>
       <c r="AN47" s="30"/>
       <c r="AO47" s="30"/>
@@ -7369,40 +7071,40 @@
       <c r="BC47" s="30"/>
       <c r="BD47" s="30"/>
       <c r="BE47" s="30"/>
-      <c r="BF47" s="30"/>
-      <c r="BG47" s="30"/>
-      <c r="BH47" s="30"/>
-      <c r="BI47" s="30"/>
+      <c r="BF47" s="29">
+        <f>SUM(AI47:BE47)</f>
+        <v>0</v>
+      </c>
+      <c r="BG47" s="29" t="str">
+        <f>HLOOKUP(BF47,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH47" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI47" s="29" t="str">
+        <f>HLOOKUP(BH47,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ47" s="30"/>
       <c r="BK47" s="30"/>
       <c r="BL47" s="30"/>
-      <c r="BM47" s="30"/>
-      <c r="BN47" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO47" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP47" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ47" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM47" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN47" s="29" t="str">
+        <f>HLOOKUP(BM47,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO47" s="30"/>
+      <c r="BP47" s="30"/>
+      <c r="BQ47" s="30"/>
       <c r="BR47" s="30"/>
       <c r="BS47" s="30"/>
       <c r="BT47" s="30"/>
-      <c r="BU47" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV47" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU47" s="30"/>
+      <c r="BV47" s="30"/>
       <c r="BW47" s="30"/>
       <c r="BX47" s="30"/>
       <c r="BY47" s="30"/>
@@ -7412,43 +7114,35 @@
       <c r="CC47" s="30"/>
       <c r="CD47" s="30"/>
       <c r="CE47" s="30"/>
-      <c r="CF47" s="30"/>
-      <c r="CG47" s="30"/>
+      <c r="CF47" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG47" s="29" t="str">
+        <f>HLOOKUP(CF47,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH47" s="30"/>
       <c r="CI47" s="30"/>
       <c r="CJ47" s="30"/>
       <c r="CK47" s="30"/>
       <c r="CL47" s="30"/>
       <c r="CM47" s="30"/>
-      <c r="CN47" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO47" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN47" s="30"/>
+      <c r="CO47" s="30"/>
       <c r="CP47" s="30"/>
       <c r="CQ47" s="30"/>
       <c r="CR47" s="30"/>
-      <c r="CS47" s="30"/>
-      <c r="CT47" s="30"/>
-      <c r="CU47" s="30"/>
-      <c r="CV47" s="30"/>
-      <c r="CW47" s="30"/>
-      <c r="CX47" s="30"/>
-      <c r="CY47" s="30"/>
-      <c r="CZ47" s="30"/>
-      <c r="DA47" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB47" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS47" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT47" s="29" t="str">
+        <f>HLOOKUP(CS47,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="48" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="33" t="str">
@@ -7502,18 +7196,18 @@
       <c r="AD48" s="26"/>
       <c r="AE48" s="26"/>
       <c r="AF48" s="26"/>
-      <c r="AG48" s="26"/>
-      <c r="AH48" s="26"/>
-      <c r="AI48" s="26"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="29">
-        <f>SUM('GRADE BOOK'!$J48:$AJ48)</f>
-        <v>0</v>
-      </c>
-      <c r="AL48" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG48" s="29">
+        <f>SUM('GRADE BOOK'!$J48:$AF48)</f>
+        <v>0</v>
+      </c>
+      <c r="AH48" s="29" t="str">
+        <f>HLOOKUP(AG48,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="30"/>
+      <c r="AK48" s="30"/>
+      <c r="AL48" s="30"/>
       <c r="AM48" s="30"/>
       <c r="AN48" s="30"/>
       <c r="AO48" s="30"/>
@@ -7533,40 +7227,40 @@
       <c r="BC48" s="30"/>
       <c r="BD48" s="30"/>
       <c r="BE48" s="30"/>
-      <c r="BF48" s="30"/>
-      <c r="BG48" s="30"/>
-      <c r="BH48" s="30"/>
-      <c r="BI48" s="30"/>
+      <c r="BF48" s="29">
+        <f>SUM(AI48:BE48)</f>
+        <v>0</v>
+      </c>
+      <c r="BG48" s="29" t="str">
+        <f>HLOOKUP(BF48,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH48" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI48" s="29" t="str">
+        <f>HLOOKUP(BH48,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ48" s="30"/>
       <c r="BK48" s="30"/>
       <c r="BL48" s="30"/>
-      <c r="BM48" s="30"/>
-      <c r="BN48" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO48" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP48" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ48" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM48" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN48" s="29" t="str">
+        <f>HLOOKUP(BM48,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO48" s="30"/>
+      <c r="BP48" s="30"/>
+      <c r="BQ48" s="30"/>
       <c r="BR48" s="30"/>
       <c r="BS48" s="30"/>
       <c r="BT48" s="30"/>
-      <c r="BU48" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV48" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU48" s="30"/>
+      <c r="BV48" s="30"/>
       <c r="BW48" s="30"/>
       <c r="BX48" s="30"/>
       <c r="BY48" s="30"/>
@@ -7576,43 +7270,35 @@
       <c r="CC48" s="30"/>
       <c r="CD48" s="30"/>
       <c r="CE48" s="30"/>
-      <c r="CF48" s="30"/>
-      <c r="CG48" s="30"/>
+      <c r="CF48" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG48" s="29" t="str">
+        <f>HLOOKUP(CF48,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH48" s="30"/>
       <c r="CI48" s="30"/>
       <c r="CJ48" s="30"/>
       <c r="CK48" s="30"/>
       <c r="CL48" s="30"/>
       <c r="CM48" s="30"/>
-      <c r="CN48" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO48" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN48" s="30"/>
+      <c r="CO48" s="30"/>
       <c r="CP48" s="30"/>
       <c r="CQ48" s="30"/>
       <c r="CR48" s="30"/>
-      <c r="CS48" s="30"/>
-      <c r="CT48" s="30"/>
-      <c r="CU48" s="30"/>
-      <c r="CV48" s="30"/>
-      <c r="CW48" s="30"/>
-      <c r="CX48" s="30"/>
-      <c r="CY48" s="30"/>
-      <c r="CZ48" s="30"/>
-      <c r="DA48" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB48" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS48" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT48" s="29" t="str">
+        <f>HLOOKUP(CS48,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="49" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="33" t="str">
@@ -7666,18 +7352,18 @@
       <c r="AD49" s="26"/>
       <c r="AE49" s="26"/>
       <c r="AF49" s="26"/>
-      <c r="AG49" s="26"/>
-      <c r="AH49" s="26"/>
-      <c r="AI49" s="26"/>
-      <c r="AJ49" s="26"/>
-      <c r="AK49" s="29">
-        <f>SUM('GRADE BOOK'!$J49:$AJ49)</f>
-        <v>0</v>
-      </c>
-      <c r="AL49" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG49" s="29">
+        <f>SUM('GRADE BOOK'!$J49:$AF49)</f>
+        <v>0</v>
+      </c>
+      <c r="AH49" s="29" t="str">
+        <f>HLOOKUP(AG49,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI49" s="30"/>
+      <c r="AJ49" s="30"/>
+      <c r="AK49" s="30"/>
+      <c r="AL49" s="30"/>
       <c r="AM49" s="30"/>
       <c r="AN49" s="30"/>
       <c r="AO49" s="30"/>
@@ -7697,40 +7383,40 @@
       <c r="BC49" s="30"/>
       <c r="BD49" s="30"/>
       <c r="BE49" s="30"/>
-      <c r="BF49" s="30"/>
-      <c r="BG49" s="30"/>
-      <c r="BH49" s="30"/>
-      <c r="BI49" s="30"/>
+      <c r="BF49" s="29">
+        <f>SUM(AI49:BE49)</f>
+        <v>0</v>
+      </c>
+      <c r="BG49" s="29" t="str">
+        <f>HLOOKUP(BF49,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH49" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI49" s="29" t="str">
+        <f>HLOOKUP(BH49,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ49" s="30"/>
       <c r="BK49" s="30"/>
       <c r="BL49" s="30"/>
-      <c r="BM49" s="30"/>
-      <c r="BN49" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO49" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP49" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ49" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM49" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN49" s="29" t="str">
+        <f>HLOOKUP(BM49,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO49" s="30"/>
+      <c r="BP49" s="30"/>
+      <c r="BQ49" s="30"/>
       <c r="BR49" s="30"/>
       <c r="BS49" s="30"/>
       <c r="BT49" s="30"/>
-      <c r="BU49" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV49" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU49" s="30"/>
+      <c r="BV49" s="30"/>
       <c r="BW49" s="30"/>
       <c r="BX49" s="30"/>
       <c r="BY49" s="30"/>
@@ -7740,43 +7426,35 @@
       <c r="CC49" s="30"/>
       <c r="CD49" s="30"/>
       <c r="CE49" s="30"/>
-      <c r="CF49" s="30"/>
-      <c r="CG49" s="30"/>
+      <c r="CF49" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG49" s="29" t="str">
+        <f>HLOOKUP(CF49,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH49" s="30"/>
       <c r="CI49" s="30"/>
       <c r="CJ49" s="30"/>
       <c r="CK49" s="30"/>
       <c r="CL49" s="30"/>
       <c r="CM49" s="30"/>
-      <c r="CN49" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO49" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN49" s="30"/>
+      <c r="CO49" s="30"/>
       <c r="CP49" s="30"/>
       <c r="CQ49" s="30"/>
       <c r="CR49" s="30"/>
-      <c r="CS49" s="30"/>
-      <c r="CT49" s="30"/>
-      <c r="CU49" s="30"/>
-      <c r="CV49" s="30"/>
-      <c r="CW49" s="30"/>
-      <c r="CX49" s="30"/>
-      <c r="CY49" s="30"/>
-      <c r="CZ49" s="30"/>
-      <c r="DA49" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB49" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS49" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT49" s="29" t="str">
+        <f>HLOOKUP(CS49,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="50" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="C50" s="33" t="str">
@@ -7830,18 +7508,18 @@
       <c r="AD50" s="26"/>
       <c r="AE50" s="26"/>
       <c r="AF50" s="26"/>
-      <c r="AG50" s="26"/>
-      <c r="AH50" s="26"/>
-      <c r="AI50" s="26"/>
-      <c r="AJ50" s="26"/>
-      <c r="AK50" s="29">
-        <f>SUM('GRADE BOOK'!$J50:$AJ50)</f>
-        <v>0</v>
-      </c>
-      <c r="AL50" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG50" s="29">
+        <f>SUM('GRADE BOOK'!$J50:$AF50)</f>
+        <v>0</v>
+      </c>
+      <c r="AH50" s="29" t="str">
+        <f>HLOOKUP(AG50,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI50" s="30"/>
+      <c r="AJ50" s="30"/>
+      <c r="AK50" s="30"/>
+      <c r="AL50" s="30"/>
       <c r="AM50" s="30"/>
       <c r="AN50" s="30"/>
       <c r="AO50" s="30"/>
@@ -7861,40 +7539,40 @@
       <c r="BC50" s="30"/>
       <c r="BD50" s="30"/>
       <c r="BE50" s="30"/>
-      <c r="BF50" s="30"/>
-      <c r="BG50" s="30"/>
-      <c r="BH50" s="30"/>
-      <c r="BI50" s="30"/>
+      <c r="BF50" s="29">
+        <f>SUM(AI50:BE50)</f>
+        <v>0</v>
+      </c>
+      <c r="BG50" s="29" t="str">
+        <f>HLOOKUP(BF50,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH50" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI50" s="29" t="str">
+        <f>HLOOKUP(BH50,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ50" s="30"/>
       <c r="BK50" s="30"/>
       <c r="BL50" s="30"/>
-      <c r="BM50" s="30"/>
-      <c r="BN50" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO50" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP50" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ50" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM50" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN50" s="29" t="str">
+        <f>HLOOKUP(BM50,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO50" s="30"/>
+      <c r="BP50" s="30"/>
+      <c r="BQ50" s="30"/>
       <c r="BR50" s="30"/>
       <c r="BS50" s="30"/>
       <c r="BT50" s="30"/>
-      <c r="BU50" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV50" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU50" s="30"/>
+      <c r="BV50" s="30"/>
       <c r="BW50" s="30"/>
       <c r="BX50" s="30"/>
       <c r="BY50" s="30"/>
@@ -7904,43 +7582,35 @@
       <c r="CC50" s="30"/>
       <c r="CD50" s="30"/>
       <c r="CE50" s="30"/>
-      <c r="CF50" s="30"/>
-      <c r="CG50" s="30"/>
+      <c r="CF50" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG50" s="29" t="str">
+        <f>HLOOKUP(CF50,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH50" s="30"/>
       <c r="CI50" s="30"/>
       <c r="CJ50" s="30"/>
       <c r="CK50" s="30"/>
       <c r="CL50" s="30"/>
       <c r="CM50" s="30"/>
-      <c r="CN50" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO50" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN50" s="30"/>
+      <c r="CO50" s="30"/>
       <c r="CP50" s="30"/>
       <c r="CQ50" s="30"/>
       <c r="CR50" s="30"/>
-      <c r="CS50" s="30"/>
-      <c r="CT50" s="30"/>
-      <c r="CU50" s="30"/>
-      <c r="CV50" s="30"/>
-      <c r="CW50" s="30"/>
-      <c r="CX50" s="30"/>
-      <c r="CY50" s="30"/>
-      <c r="CZ50" s="30"/>
-      <c r="DA50" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB50" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS50" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT50" s="29" t="str">
+        <f>HLOOKUP(CS50,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="51" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="33" t="str">
@@ -7994,18 +7664,18 @@
       <c r="AD51" s="26"/>
       <c r="AE51" s="26"/>
       <c r="AF51" s="26"/>
-      <c r="AG51" s="26"/>
-      <c r="AH51" s="26"/>
-      <c r="AI51" s="26"/>
-      <c r="AJ51" s="26"/>
-      <c r="AK51" s="29">
-        <f>SUM('GRADE BOOK'!$J51:$AJ51)</f>
-        <v>0</v>
-      </c>
-      <c r="AL51" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG51" s="29">
+        <f>SUM('GRADE BOOK'!$J51:$AF51)</f>
+        <v>0</v>
+      </c>
+      <c r="AH51" s="29" t="str">
+        <f>HLOOKUP(AG51,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI51" s="30"/>
+      <c r="AJ51" s="30"/>
+      <c r="AK51" s="30"/>
+      <c r="AL51" s="30"/>
       <c r="AM51" s="30"/>
       <c r="AN51" s="30"/>
       <c r="AO51" s="30"/>
@@ -8025,40 +7695,40 @@
       <c r="BC51" s="30"/>
       <c r="BD51" s="30"/>
       <c r="BE51" s="30"/>
-      <c r="BF51" s="30"/>
-      <c r="BG51" s="30"/>
-      <c r="BH51" s="30"/>
-      <c r="BI51" s="30"/>
+      <c r="BF51" s="29">
+        <f>SUM(AI51:BE51)</f>
+        <v>0</v>
+      </c>
+      <c r="BG51" s="29" t="str">
+        <f>HLOOKUP(BF51,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH51" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI51" s="29" t="str">
+        <f>HLOOKUP(BH51,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ51" s="30"/>
       <c r="BK51" s="30"/>
       <c r="BL51" s="30"/>
-      <c r="BM51" s="30"/>
-      <c r="BN51" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO51" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP51" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ51" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM51" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN51" s="29" t="str">
+        <f>HLOOKUP(BM51,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO51" s="30"/>
+      <c r="BP51" s="30"/>
+      <c r="BQ51" s="30"/>
       <c r="BR51" s="30"/>
       <c r="BS51" s="30"/>
       <c r="BT51" s="30"/>
-      <c r="BU51" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV51" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU51" s="30"/>
+      <c r="BV51" s="30"/>
       <c r="BW51" s="30"/>
       <c r="BX51" s="30"/>
       <c r="BY51" s="30"/>
@@ -8068,43 +7738,35 @@
       <c r="CC51" s="30"/>
       <c r="CD51" s="30"/>
       <c r="CE51" s="30"/>
-      <c r="CF51" s="30"/>
-      <c r="CG51" s="30"/>
+      <c r="CF51" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG51" s="29" t="str">
+        <f>HLOOKUP(CF51,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH51" s="30"/>
       <c r="CI51" s="30"/>
       <c r="CJ51" s="30"/>
       <c r="CK51" s="30"/>
       <c r="CL51" s="30"/>
       <c r="CM51" s="30"/>
-      <c r="CN51" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO51" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN51" s="30"/>
+      <c r="CO51" s="30"/>
       <c r="CP51" s="30"/>
       <c r="CQ51" s="30"/>
       <c r="CR51" s="30"/>
-      <c r="CS51" s="30"/>
-      <c r="CT51" s="30"/>
-      <c r="CU51" s="30"/>
-      <c r="CV51" s="30"/>
-      <c r="CW51" s="30"/>
-      <c r="CX51" s="30"/>
-      <c r="CY51" s="30"/>
-      <c r="CZ51" s="30"/>
-      <c r="DA51" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB51" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS51" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT51" s="29" t="str">
+        <f>HLOOKUP(CS51,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="52" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="33" t="str">
@@ -8158,18 +7820,18 @@
       <c r="AD52" s="26"/>
       <c r="AE52" s="26"/>
       <c r="AF52" s="26"/>
-      <c r="AG52" s="26"/>
-      <c r="AH52" s="26"/>
-      <c r="AI52" s="26"/>
-      <c r="AJ52" s="26"/>
-      <c r="AK52" s="29">
-        <f>SUM('GRADE BOOK'!$J52:$AJ52)</f>
-        <v>0</v>
-      </c>
-      <c r="AL52" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG52" s="29">
+        <f>SUM('GRADE BOOK'!$J52:$AF52)</f>
+        <v>0</v>
+      </c>
+      <c r="AH52" s="29" t="str">
+        <f>HLOOKUP(AG52,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI52" s="30"/>
+      <c r="AJ52" s="30"/>
+      <c r="AK52" s="30"/>
+      <c r="AL52" s="30"/>
       <c r="AM52" s="30"/>
       <c r="AN52" s="30"/>
       <c r="AO52" s="30"/>
@@ -8189,40 +7851,40 @@
       <c r="BC52" s="30"/>
       <c r="BD52" s="30"/>
       <c r="BE52" s="30"/>
-      <c r="BF52" s="30"/>
-      <c r="BG52" s="30"/>
-      <c r="BH52" s="30"/>
-      <c r="BI52" s="30"/>
+      <c r="BF52" s="29">
+        <f>SUM(AI52:BE52)</f>
+        <v>0</v>
+      </c>
+      <c r="BG52" s="29" t="str">
+        <f>HLOOKUP(BF52,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH52" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI52" s="29" t="str">
+        <f>HLOOKUP(BH52,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ52" s="30"/>
       <c r="BK52" s="30"/>
       <c r="BL52" s="30"/>
-      <c r="BM52" s="30"/>
-      <c r="BN52" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO52" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP52" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ52" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM52" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN52" s="29" t="str">
+        <f>HLOOKUP(BM52,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO52" s="30"/>
+      <c r="BP52" s="30"/>
+      <c r="BQ52" s="30"/>
       <c r="BR52" s="30"/>
       <c r="BS52" s="30"/>
       <c r="BT52" s="30"/>
-      <c r="BU52" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV52" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU52" s="30"/>
+      <c r="BV52" s="30"/>
       <c r="BW52" s="30"/>
       <c r="BX52" s="30"/>
       <c r="BY52" s="30"/>
@@ -8232,43 +7894,35 @@
       <c r="CC52" s="30"/>
       <c r="CD52" s="30"/>
       <c r="CE52" s="30"/>
-      <c r="CF52" s="30"/>
-      <c r="CG52" s="30"/>
+      <c r="CF52" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG52" s="29" t="str">
+        <f>HLOOKUP(CF52,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH52" s="30"/>
       <c r="CI52" s="30"/>
       <c r="CJ52" s="30"/>
       <c r="CK52" s="30"/>
       <c r="CL52" s="30"/>
       <c r="CM52" s="30"/>
-      <c r="CN52" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO52" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN52" s="30"/>
+      <c r="CO52" s="30"/>
       <c r="CP52" s="30"/>
       <c r="CQ52" s="30"/>
       <c r="CR52" s="30"/>
-      <c r="CS52" s="30"/>
-      <c r="CT52" s="30"/>
-      <c r="CU52" s="30"/>
-      <c r="CV52" s="30"/>
-      <c r="CW52" s="30"/>
-      <c r="CX52" s="30"/>
-      <c r="CY52" s="30"/>
-      <c r="CZ52" s="30"/>
-      <c r="DA52" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB52" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS52" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT52" s="29" t="str">
+        <f>HLOOKUP(CS52,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="53" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="33" t="str">
@@ -8322,18 +7976,18 @@
       <c r="AD53" s="26"/>
       <c r="AE53" s="26"/>
       <c r="AF53" s="26"/>
-      <c r="AG53" s="26"/>
-      <c r="AH53" s="26"/>
-      <c r="AI53" s="26"/>
-      <c r="AJ53" s="26"/>
-      <c r="AK53" s="29">
-        <f>SUM('GRADE BOOK'!$J53:$AJ53)</f>
-        <v>0</v>
-      </c>
-      <c r="AL53" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG53" s="29">
+        <f>SUM('GRADE BOOK'!$J53:$AF53)</f>
+        <v>0</v>
+      </c>
+      <c r="AH53" s="29" t="str">
+        <f>HLOOKUP(AG53,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI53" s="30"/>
+      <c r="AJ53" s="30"/>
+      <c r="AK53" s="30"/>
+      <c r="AL53" s="30"/>
       <c r="AM53" s="30"/>
       <c r="AN53" s="30"/>
       <c r="AO53" s="30"/>
@@ -8353,40 +8007,40 @@
       <c r="BC53" s="30"/>
       <c r="BD53" s="30"/>
       <c r="BE53" s="30"/>
-      <c r="BF53" s="30"/>
-      <c r="BG53" s="30"/>
-      <c r="BH53" s="30"/>
-      <c r="BI53" s="30"/>
+      <c r="BF53" s="29">
+        <f>SUM(AI53:BE53)</f>
+        <v>0</v>
+      </c>
+      <c r="BG53" s="29" t="str">
+        <f>HLOOKUP(BF53,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH53" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI53" s="29" t="str">
+        <f>HLOOKUP(BH53,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ53" s="30"/>
       <c r="BK53" s="30"/>
       <c r="BL53" s="30"/>
-      <c r="BM53" s="30"/>
-      <c r="BN53" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO53" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP53" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ53" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM53" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN53" s="29" t="str">
+        <f>HLOOKUP(BM53,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO53" s="30"/>
+      <c r="BP53" s="30"/>
+      <c r="BQ53" s="30"/>
       <c r="BR53" s="30"/>
       <c r="BS53" s="30"/>
       <c r="BT53" s="30"/>
-      <c r="BU53" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV53" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU53" s="30"/>
+      <c r="BV53" s="30"/>
       <c r="BW53" s="30"/>
       <c r="BX53" s="30"/>
       <c r="BY53" s="30"/>
@@ -8396,43 +8050,35 @@
       <c r="CC53" s="30"/>
       <c r="CD53" s="30"/>
       <c r="CE53" s="30"/>
-      <c r="CF53" s="30"/>
-      <c r="CG53" s="30"/>
+      <c r="CF53" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG53" s="29" t="str">
+        <f>HLOOKUP(CF53,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH53" s="30"/>
       <c r="CI53" s="30"/>
       <c r="CJ53" s="30"/>
       <c r="CK53" s="30"/>
       <c r="CL53" s="30"/>
       <c r="CM53" s="30"/>
-      <c r="CN53" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO53" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN53" s="30"/>
+      <c r="CO53" s="30"/>
       <c r="CP53" s="30"/>
       <c r="CQ53" s="30"/>
       <c r="CR53" s="30"/>
-      <c r="CS53" s="30"/>
-      <c r="CT53" s="30"/>
-      <c r="CU53" s="30"/>
-      <c r="CV53" s="30"/>
-      <c r="CW53" s="30"/>
-      <c r="CX53" s="30"/>
-      <c r="CY53" s="30"/>
-      <c r="CZ53" s="30"/>
-      <c r="DA53" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB53" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS53" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT53" s="29" t="str">
+        <f>HLOOKUP(CS53,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="54" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="33" t="str">
@@ -8486,18 +8132,18 @@
       <c r="AD54" s="26"/>
       <c r="AE54" s="26"/>
       <c r="AF54" s="26"/>
-      <c r="AG54" s="26"/>
-      <c r="AH54" s="26"/>
-      <c r="AI54" s="26"/>
-      <c r="AJ54" s="26"/>
-      <c r="AK54" s="29">
-        <f>SUM('GRADE BOOK'!$J54:$AJ54)</f>
-        <v>0</v>
-      </c>
-      <c r="AL54" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG54" s="29">
+        <f>SUM('GRADE BOOK'!$J54:$AF54)</f>
+        <v>0</v>
+      </c>
+      <c r="AH54" s="29" t="str">
+        <f>HLOOKUP(AG54,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI54" s="30"/>
+      <c r="AJ54" s="30"/>
+      <c r="AK54" s="30"/>
+      <c r="AL54" s="30"/>
       <c r="AM54" s="30"/>
       <c r="AN54" s="30"/>
       <c r="AO54" s="30"/>
@@ -8517,40 +8163,40 @@
       <c r="BC54" s="30"/>
       <c r="BD54" s="30"/>
       <c r="BE54" s="30"/>
-      <c r="BF54" s="30"/>
-      <c r="BG54" s="30"/>
-      <c r="BH54" s="30"/>
-      <c r="BI54" s="30"/>
+      <c r="BF54" s="29">
+        <f>SUM(AI54:BE54)</f>
+        <v>0</v>
+      </c>
+      <c r="BG54" s="29" t="str">
+        <f>HLOOKUP(BF54,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH54" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI54" s="29" t="str">
+        <f>HLOOKUP(BH54,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ54" s="30"/>
       <c r="BK54" s="30"/>
       <c r="BL54" s="30"/>
-      <c r="BM54" s="30"/>
-      <c r="BN54" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO54" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP54" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ54" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM54" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN54" s="29" t="str">
+        <f>HLOOKUP(BM54,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO54" s="30"/>
+      <c r="BP54" s="30"/>
+      <c r="BQ54" s="30"/>
       <c r="BR54" s="30"/>
       <c r="BS54" s="30"/>
       <c r="BT54" s="30"/>
-      <c r="BU54" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV54" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU54" s="30"/>
+      <c r="BV54" s="30"/>
       <c r="BW54" s="30"/>
       <c r="BX54" s="30"/>
       <c r="BY54" s="30"/>
@@ -8560,43 +8206,35 @@
       <c r="CC54" s="30"/>
       <c r="CD54" s="30"/>
       <c r="CE54" s="30"/>
-      <c r="CF54" s="30"/>
-      <c r="CG54" s="30"/>
+      <c r="CF54" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG54" s="29" t="str">
+        <f>HLOOKUP(CF54,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH54" s="30"/>
       <c r="CI54" s="30"/>
       <c r="CJ54" s="30"/>
       <c r="CK54" s="30"/>
       <c r="CL54" s="30"/>
       <c r="CM54" s="30"/>
-      <c r="CN54" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO54" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN54" s="30"/>
+      <c r="CO54" s="30"/>
       <c r="CP54" s="30"/>
       <c r="CQ54" s="30"/>
       <c r="CR54" s="30"/>
-      <c r="CS54" s="30"/>
-      <c r="CT54" s="30"/>
-      <c r="CU54" s="30"/>
-      <c r="CV54" s="30"/>
-      <c r="CW54" s="30"/>
-      <c r="CX54" s="30"/>
-      <c r="CY54" s="30"/>
-      <c r="CZ54" s="30"/>
-      <c r="DA54" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB54" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS54" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT54" s="29" t="str">
+        <f>HLOOKUP(CS54,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="55" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
       <c r="C55" s="33" t="str">
@@ -8650,18 +8288,18 @@
       <c r="AD55" s="26"/>
       <c r="AE55" s="26"/>
       <c r="AF55" s="26"/>
-      <c r="AG55" s="26"/>
-      <c r="AH55" s="26"/>
-      <c r="AI55" s="26"/>
-      <c r="AJ55" s="26"/>
-      <c r="AK55" s="29">
-        <f>SUM('GRADE BOOK'!$J55:$AJ55)</f>
-        <v>0</v>
-      </c>
-      <c r="AL55" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG55" s="29">
+        <f>SUM('GRADE BOOK'!$J55:$AF55)</f>
+        <v>0</v>
+      </c>
+      <c r="AH55" s="29" t="str">
+        <f>HLOOKUP(AG55,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI55" s="30"/>
+      <c r="AJ55" s="30"/>
+      <c r="AK55" s="30"/>
+      <c r="AL55" s="30"/>
       <c r="AM55" s="30"/>
       <c r="AN55" s="30"/>
       <c r="AO55" s="30"/>
@@ -8681,40 +8319,40 @@
       <c r="BC55" s="30"/>
       <c r="BD55" s="30"/>
       <c r="BE55" s="30"/>
-      <c r="BF55" s="30"/>
-      <c r="BG55" s="30"/>
-      <c r="BH55" s="30"/>
-      <c r="BI55" s="30"/>
+      <c r="BF55" s="29">
+        <f>SUM(AI55:BE55)</f>
+        <v>0</v>
+      </c>
+      <c r="BG55" s="29" t="str">
+        <f>HLOOKUP(BF55,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH55" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI55" s="29" t="str">
+        <f>HLOOKUP(BH55,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ55" s="30"/>
       <c r="BK55" s="30"/>
       <c r="BL55" s="30"/>
-      <c r="BM55" s="30"/>
-      <c r="BN55" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO55" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP55" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ55" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM55" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN55" s="29" t="str">
+        <f>HLOOKUP(BM55,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO55" s="30"/>
+      <c r="BP55" s="30"/>
+      <c r="BQ55" s="30"/>
       <c r="BR55" s="30"/>
       <c r="BS55" s="30"/>
       <c r="BT55" s="30"/>
-      <c r="BU55" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV55" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU55" s="30"/>
+      <c r="BV55" s="30"/>
       <c r="BW55" s="30"/>
       <c r="BX55" s="30"/>
       <c r="BY55" s="30"/>
@@ -8724,43 +8362,35 @@
       <c r="CC55" s="30"/>
       <c r="CD55" s="30"/>
       <c r="CE55" s="30"/>
-      <c r="CF55" s="30"/>
-      <c r="CG55" s="30"/>
+      <c r="CF55" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG55" s="29" t="str">
+        <f>HLOOKUP(CF55,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH55" s="30"/>
       <c r="CI55" s="30"/>
       <c r="CJ55" s="30"/>
       <c r="CK55" s="30"/>
       <c r="CL55" s="30"/>
       <c r="CM55" s="30"/>
-      <c r="CN55" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO55" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN55" s="30"/>
+      <c r="CO55" s="30"/>
       <c r="CP55" s="30"/>
       <c r="CQ55" s="30"/>
       <c r="CR55" s="30"/>
-      <c r="CS55" s="30"/>
-      <c r="CT55" s="30"/>
-      <c r="CU55" s="30"/>
-      <c r="CV55" s="30"/>
-      <c r="CW55" s="30"/>
-      <c r="CX55" s="30"/>
-      <c r="CY55" s="30"/>
-      <c r="CZ55" s="30"/>
-      <c r="DA55" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB55" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS55" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT55" s="29" t="str">
+        <f>HLOOKUP(CS55,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="56" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
       <c r="C56" s="33" t="str">
@@ -8814,18 +8444,18 @@
       <c r="AD56" s="26"/>
       <c r="AE56" s="26"/>
       <c r="AF56" s="26"/>
-      <c r="AG56" s="26"/>
-      <c r="AH56" s="26"/>
-      <c r="AI56" s="26"/>
-      <c r="AJ56" s="26"/>
-      <c r="AK56" s="29">
-        <f>SUM('GRADE BOOK'!$J56:$AJ56)</f>
-        <v>0</v>
-      </c>
-      <c r="AL56" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG56" s="29">
+        <f>SUM('GRADE BOOK'!$J56:$AF56)</f>
+        <v>0</v>
+      </c>
+      <c r="AH56" s="29" t="str">
+        <f>HLOOKUP(AG56,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI56" s="30"/>
+      <c r="AJ56" s="30"/>
+      <c r="AK56" s="30"/>
+      <c r="AL56" s="30"/>
       <c r="AM56" s="30"/>
       <c r="AN56" s="30"/>
       <c r="AO56" s="30"/>
@@ -8845,40 +8475,40 @@
       <c r="BC56" s="30"/>
       <c r="BD56" s="30"/>
       <c r="BE56" s="30"/>
-      <c r="BF56" s="30"/>
-      <c r="BG56" s="30"/>
-      <c r="BH56" s="30"/>
-      <c r="BI56" s="30"/>
+      <c r="BF56" s="29">
+        <f>SUM(AI56:BE56)</f>
+        <v>0</v>
+      </c>
+      <c r="BG56" s="29" t="str">
+        <f>HLOOKUP(BF56,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH56" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI56" s="29" t="str">
+        <f>HLOOKUP(BH56,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ56" s="30"/>
       <c r="BK56" s="30"/>
       <c r="BL56" s="30"/>
-      <c r="BM56" s="30"/>
-      <c r="BN56" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO56" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP56" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ56" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM56" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN56" s="29" t="str">
+        <f>HLOOKUP(BM56,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO56" s="30"/>
+      <c r="BP56" s="30"/>
+      <c r="BQ56" s="30"/>
       <c r="BR56" s="30"/>
       <c r="BS56" s="30"/>
       <c r="BT56" s="30"/>
-      <c r="BU56" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV56" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU56" s="30"/>
+      <c r="BV56" s="30"/>
       <c r="BW56" s="30"/>
       <c r="BX56" s="30"/>
       <c r="BY56" s="30"/>
@@ -8888,43 +8518,35 @@
       <c r="CC56" s="30"/>
       <c r="CD56" s="30"/>
       <c r="CE56" s="30"/>
-      <c r="CF56" s="30"/>
-      <c r="CG56" s="30"/>
+      <c r="CF56" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG56" s="29" t="str">
+        <f>HLOOKUP(CF56,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH56" s="30"/>
       <c r="CI56" s="30"/>
       <c r="CJ56" s="30"/>
       <c r="CK56" s="30"/>
       <c r="CL56" s="30"/>
       <c r="CM56" s="30"/>
-      <c r="CN56" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO56" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN56" s="30"/>
+      <c r="CO56" s="30"/>
       <c r="CP56" s="30"/>
       <c r="CQ56" s="30"/>
       <c r="CR56" s="30"/>
-      <c r="CS56" s="30"/>
-      <c r="CT56" s="30"/>
-      <c r="CU56" s="30"/>
-      <c r="CV56" s="30"/>
-      <c r="CW56" s="30"/>
-      <c r="CX56" s="30"/>
-      <c r="CY56" s="30"/>
-      <c r="CZ56" s="30"/>
-      <c r="DA56" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB56" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS56" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT56" s="29" t="str">
+        <f>HLOOKUP(CS56,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="57" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="26"/>
       <c r="C57" s="33" t="str">
@@ -8978,18 +8600,18 @@
       <c r="AD57" s="26"/>
       <c r="AE57" s="26"/>
       <c r="AF57" s="26"/>
-      <c r="AG57" s="26"/>
-      <c r="AH57" s="26"/>
-      <c r="AI57" s="26"/>
-      <c r="AJ57" s="26"/>
-      <c r="AK57" s="29">
-        <f>SUM('GRADE BOOK'!$J57:$AJ57)</f>
-        <v>0</v>
-      </c>
-      <c r="AL57" s="29" t="str">
-        <f t="shared" si="7"/>
-        <v>F</v>
-      </c>
+      <c r="AG57" s="29">
+        <f>SUM('GRADE BOOK'!$J57:$AF57)</f>
+        <v>0</v>
+      </c>
+      <c r="AH57" s="29" t="str">
+        <f>HLOOKUP(AG57,A$8:F$15,7,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="AI57" s="30"/>
+      <c r="AJ57" s="30"/>
+      <c r="AK57" s="30"/>
+      <c r="AL57" s="30"/>
       <c r="AM57" s="30"/>
       <c r="AN57" s="30"/>
       <c r="AO57" s="30"/>
@@ -9009,40 +8631,40 @@
       <c r="BC57" s="30"/>
       <c r="BD57" s="30"/>
       <c r="BE57" s="30"/>
-      <c r="BF57" s="30"/>
-      <c r="BG57" s="30"/>
-      <c r="BH57" s="30"/>
-      <c r="BI57" s="30"/>
+      <c r="BF57" s="29">
+        <f>SUM(AI57:BE57)</f>
+        <v>0</v>
+      </c>
+      <c r="BG57" s="29" t="str">
+        <f>HLOOKUP(BF57,A$9:F$15,6,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="BH57" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI57" s="29" t="str">
+        <f>HLOOKUP(BH57,B$10:F$15,5,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="BJ57" s="30"/>
       <c r="BK57" s="30"/>
       <c r="BL57" s="30"/>
-      <c r="BM57" s="30"/>
-      <c r="BN57" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="BO57" s="29" t="str">
-        <f t="shared" si="9"/>
-        <v>F</v>
-      </c>
-      <c r="BP57" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ57" s="29" t="str">
-        <f t="shared" si="10"/>
-        <v>F</v>
-      </c>
+      <c r="BM57" s="29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BN57" s="29" t="str">
+        <f>HLOOKUP(BM57,A$11:F$15,4,TRUE)</f>
+        <v>D</v>
+      </c>
+      <c r="BO57" s="30"/>
+      <c r="BP57" s="30"/>
+      <c r="BQ57" s="30"/>
       <c r="BR57" s="30"/>
       <c r="BS57" s="30"/>
       <c r="BT57" s="30"/>
-      <c r="BU57" s="29">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="BV57" s="29" t="str">
-        <f t="shared" si="12"/>
-        <v>D</v>
-      </c>
+      <c r="BU57" s="30"/>
+      <c r="BV57" s="30"/>
       <c r="BW57" s="30"/>
       <c r="BX57" s="30"/>
       <c r="BY57" s="30"/>
@@ -9052,48 +8674,40 @@
       <c r="CC57" s="30"/>
       <c r="CD57" s="30"/>
       <c r="CE57" s="30"/>
-      <c r="CF57" s="30"/>
-      <c r="CG57" s="30"/>
+      <c r="CF57" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="CG57" s="29" t="str">
+        <f>HLOOKUP(CF57,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
       <c r="CH57" s="30"/>
       <c r="CI57" s="30"/>
       <c r="CJ57" s="30"/>
       <c r="CK57" s="30"/>
       <c r="CL57" s="30"/>
       <c r="CM57" s="30"/>
-      <c r="CN57" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="CO57" s="29" t="str">
-        <f t="shared" si="14"/>
-        <v>F</v>
-      </c>
+      <c r="CN57" s="30"/>
+      <c r="CO57" s="30"/>
       <c r="CP57" s="30"/>
       <c r="CQ57" s="30"/>
       <c r="CR57" s="30"/>
-      <c r="CS57" s="30"/>
-      <c r="CT57" s="30"/>
-      <c r="CU57" s="30"/>
-      <c r="CV57" s="30"/>
-      <c r="CW57" s="30"/>
-      <c r="CX57" s="30"/>
-      <c r="CY57" s="30"/>
-      <c r="CZ57" s="30"/>
-      <c r="DA57" s="29">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="DB57" s="29" t="str">
-        <f t="shared" si="16"/>
+      <c r="CS57" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CT57" s="29" t="str">
+        <f>HLOOKUP(CS57,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="58" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A58" s="69"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
+    <row r="58" spans="1:98" x14ac:dyDescent="0.25">
+      <c r="A58" s="79"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -9112,10 +8726,10 @@
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
     </row>
-    <row r="59" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
     </row>
   </sheetData>
@@ -9123,7 +8737,7 @@
     <mergeCell ref="A58:E58"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="A18:DB57">
+  <conditionalFormatting sqref="A18:CT57">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -9146,7 +8760,7 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -9174,31 +8788,31 @@
       <c r="E1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="79" t="s">
-        <v>153</v>
+      <c r="F1" s="78" t="s">
+        <v>99</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>93</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>40</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -9206,32 +8820,32 @@
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
-      <c r="B3" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="63"/>
       <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>92</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="F4" s="66" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -9239,32 +8853,32 @@
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
-      <c r="B5" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="67"/>
       <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>139</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>85</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>152</v>
+        <v>84</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>98</v>
       </c>
       <c r="G6">
         <v>220</v>
@@ -9272,19 +8886,19 @@
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="74" t="s">
-        <v>94</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>41</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7">
@@ -9293,18 +8907,18 @@
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="77" t="s">
-        <v>91</v>
+        <v>71</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="76" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -9312,22 +8926,22 @@
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>127</v>
+        <v>42</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="71" t="s">
+        <v>73</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -9335,11 +8949,11 @@
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
-      <c r="B10" s="76" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="78"/>
+      <c r="B10" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="75"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="68"/>
       <c r="F10" s="55"/>
     </row>
@@ -9360,82 +8974,82 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="47" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="47" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="47" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="47" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="50"/>
     </row>
     <row r="20" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="51" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/assets/images/Math182GradebookSp18.xlsx
+++ b/assets/images/Math182GradebookSp18.xlsx
@@ -16,15 +16,15 @@
     <sheet name="Checklist" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="CORE">'GRADE BOOK'!$BM$18,'GRADE BOOK'!$BR$18,'GRADE BOOK'!$BT$18,'GRADE BOOK'!$BW$18,'GRADE BOOK'!$BY$18,'GRADE BOOK'!$CB$18,'GRADE BOOK'!$CD$18,'GRADE BOOK'!$CE$18,'GRADE BOOK'!$CJ$18,'GRADE BOOK'!$CL$18</definedName>
-    <definedName name="Getting_Started">'GRADE BOOK'!$CS$18</definedName>
+    <definedName name="CORE">'GRADE BOOK'!$BM$18,'GRADE BOOK'!$BQ$18,'GRADE BOOK'!$BS$18,'GRADE BOOK'!$BV$18,'GRADE BOOK'!$BX$18,'GRADE BOOK'!$CA$18,'GRADE BOOK'!$CC$18,'GRADE BOOK'!$CD$18,'GRADE BOOK'!$CI$18,'GRADE BOOK'!$CK$18</definedName>
+    <definedName name="Getting_Started">'GRADE BOOK'!$CR$18</definedName>
     <definedName name="GP">'GRADE BOOK'!$J$18:$AF$94</definedName>
     <definedName name="GradeTable">'GRADE BOOK'!$G$4:$S$13</definedName>
     <definedName name="Journal">'GRADE BOOK'!$BF$18:$BJ$18</definedName>
-    <definedName name="Problems">'GRADE BOOK'!$BK$18:$CL$18</definedName>
+    <definedName name="Problems">'GRADE BOOK'!$BK$18:$CK$18</definedName>
     <definedName name="Quizzes">'GRADE BOOK'!$AG$18:$BE$18</definedName>
     <definedName name="Specifications" comment="This contains the minimum requirement for each grade.">'GRADE BOOK'!$A$8:$F$15</definedName>
-    <definedName name="Teaching">'GRADE BOOK'!$CM$18:$CR$18</definedName>
+    <definedName name="Teaching">'GRADE BOOK'!$CL$18:$CQ$18</definedName>
     <definedName name="TotalPoints">'GRADE BOOK'!#REF!</definedName>
     <definedName name="WeBWorKScore">'GRADE BOOK'!#REF!</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
   <si>
     <t>F</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>Miniproject 11</t>
-  </si>
-  <si>
-    <t>Objective 0</t>
   </si>
   <si>
     <t>Miniprojects</t>
@@ -1482,12 +1479,12 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DW60"/>
+  <dimension ref="A1:DV60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="F12" sqref="F12"/>
+      <selection pane="topRight" activeCell="CG20" sqref="CG20:CQ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1505,20 +1502,19 @@
     <col min="58" max="61" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="62" max="64" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="66" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="4.5703125" style="1" customWidth="1"/>
-    <col min="69" max="83" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="4.5703125" style="1" customWidth="1"/>
-    <col min="86" max="92" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="95" width="4.5703125" style="1" customWidth="1"/>
-    <col min="96" max="96" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="98" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="9.140625" style="39"/>
-    <col min="100" max="16384" width="9.140625" style="1"/>
+    <col min="67" max="67" width="4.5703125" style="1" customWidth="1"/>
+    <col min="68" max="82" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="84" width="4.5703125" style="1" customWidth="1"/>
+    <col min="85" max="91" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="94" width="4.5703125" style="1" customWidth="1"/>
+    <col min="95" max="95" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="4.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.140625" style="39"/>
+    <col min="99" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:100" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:99" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:99" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1537,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="4" spans="1:100" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:99" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1554,9 +1550,9 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:100" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:99" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
@@ -1567,9 +1563,9 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:100" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:99" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -1580,7 +1576,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:100" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:99" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -1591,7 +1587,7 @@
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1599,16 +1595,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="10">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="10">
+        <v>15</v>
+      </c>
+      <c r="E8" s="10">
         <v>19</v>
       </c>
-      <c r="E8" s="10">
-        <v>22</v>
-      </c>
       <c r="F8" s="10">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -1624,12 +1620,11 @@
       <c r="BJ8" s="15"/>
       <c r="BM8" s="1"/>
       <c r="BO8" s="15"/>
-      <c r="BP8" s="15"/>
-      <c r="CS8" s="1"/>
-      <c r="CU8" s="41"/>
-      <c r="CV8" s="39"/>
+      <c r="CR8" s="1"/>
+      <c r="CT8" s="41"/>
+      <c r="CU8" s="39"/>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1640,13 +1635,13 @@
         <v>10</v>
       </c>
       <c r="D9" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="10">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10">
         <v>20</v>
-      </c>
-      <c r="F9" s="10">
-        <v>24</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -1662,12 +1657,11 @@
       <c r="BJ9" s="15"/>
       <c r="BM9" s="1"/>
       <c r="BO9" s="15"/>
-      <c r="BP9" s="15"/>
-      <c r="CS9" s="1"/>
-      <c r="CU9" s="41"/>
-      <c r="CV9" s="39"/>
+      <c r="CR9" s="1"/>
+      <c r="CT9" s="41"/>
+      <c r="CU9" s="39"/>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1675,16 +1669,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D10" s="10">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E10" s="10">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F10" s="10">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -1700,12 +1694,11 @@
       <c r="BJ10" s="15"/>
       <c r="BM10" s="1"/>
       <c r="BO10" s="15"/>
-      <c r="BP10" s="15"/>
-      <c r="CS10" s="1"/>
-      <c r="CU10" s="41"/>
-      <c r="CV10" s="39"/>
+      <c r="CR10" s="1"/>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="39"/>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1738,14 +1731,13 @@
       <c r="BJ11" s="15"/>
       <c r="BM11" s="1"/>
       <c r="BO11" s="15"/>
-      <c r="BP11" s="15"/>
-      <c r="CS11" s="1"/>
-      <c r="CU11" s="41"/>
-      <c r="CV11" s="39"/>
+      <c r="CR11" s="1"/>
+      <c r="CT11" s="41"/>
+      <c r="CU11" s="39"/>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
@@ -1776,14 +1768,13 @@
       <c r="BJ12" s="15"/>
       <c r="BM12" s="1"/>
       <c r="BO12" s="15"/>
-      <c r="BP12" s="15"/>
-      <c r="CS12" s="1"/>
-      <c r="CU12" s="41"/>
-      <c r="CV12" s="39"/>
+      <c r="CR12" s="1"/>
+      <c r="CT12" s="41"/>
+      <c r="CU12" s="39"/>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="10">
         <v>0</v>
@@ -1814,12 +1805,11 @@
       <c r="BJ13" s="15"/>
       <c r="BM13" s="1"/>
       <c r="BO13" s="15"/>
-      <c r="BP13" s="15"/>
-      <c r="CS13" s="1"/>
-      <c r="CU13" s="41"/>
-      <c r="CV13" s="39"/>
+      <c r="CR13" s="1"/>
+      <c r="CT13" s="41"/>
+      <c r="CU13" s="39"/>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1844,12 +1834,11 @@
       <c r="BJ14" s="15"/>
       <c r="BM14" s="1"/>
       <c r="BO14" s="15"/>
-      <c r="BP14" s="15"/>
-      <c r="CS14" s="1"/>
-      <c r="CU14" s="41"/>
-      <c r="CV14" s="39"/>
+      <c r="CR14" s="1"/>
+      <c r="CT14" s="41"/>
+      <c r="CU14" s="39"/>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1874,19 +1863,18 @@
       <c r="BJ15" s="15"/>
       <c r="BM15" s="1"/>
       <c r="BO15" s="15"/>
-      <c r="BP15" s="15"/>
-      <c r="CS15" s="1"/>
-      <c r="CU15" s="41"/>
-      <c r="CV15" s="39"/>
+      <c r="CR15" s="1"/>
+      <c r="CT15" s="41"/>
+      <c r="CU15" s="39"/>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:127" ht="84.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:126" ht="84.75" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>6</v>
       </c>
@@ -1912,76 +1900,76 @@
         <v>42</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="18" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="M17" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="N17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="O17" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="P17" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="Q17" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="R17" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="R17" s="18" t="s">
+      <c r="S17" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="T17" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="T17" s="18" t="s">
+      <c r="U17" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="U17" s="18" t="s">
+      <c r="V17" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="V17" s="18" t="s">
+      <c r="W17" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="W17" s="18" t="s">
+      <c r="X17" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="X17" s="18" t="s">
+      <c r="Y17" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="Y17" s="18" t="s">
+      <c r="Z17" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="Z17" s="18" t="s">
+      <c r="AA17" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="AA17" s="18" t="s">
+      <c r="AB17" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="AB17" s="18" t="s">
+      <c r="AC17" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="AC17" s="18" t="s">
+      <c r="AD17" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="AD17" s="18" t="s">
+      <c r="AE17" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="AE17" s="18" t="s">
+      <c r="AF17" s="18" t="s">
         <v>123</v>
-      </c>
-      <c r="AF17" s="18" t="s">
-        <v>124</v>
       </c>
       <c r="AG17" s="19" t="s">
         <v>26</v>
@@ -1993,70 +1981,70 @@
         <v>17</v>
       </c>
       <c r="AJ17" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK17" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="AK17" s="20" t="s">
+      <c r="AL17" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="AL17" s="20" t="s">
+      <c r="AM17" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="AM17" s="20" t="s">
+      <c r="AN17" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="AN17" s="20" t="s">
+      <c r="AO17" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="AO17" s="20" t="s">
+      <c r="AP17" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="AP17" s="20" t="s">
+      <c r="AQ17" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AQ17" s="20" t="s">
+      <c r="AR17" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AR17" s="20" t="s">
+      <c r="AS17" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT17" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="AS17" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT17" s="20" t="s">
+      <c r="AU17" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="AU17" s="20" t="s">
+      <c r="AV17" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="AV17" s="20" t="s">
+      <c r="AW17" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="AW17" s="20" t="s">
+      <c r="AX17" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AX17" s="20" t="s">
+      <c r="AY17" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AY17" s="20" t="s">
+      <c r="AZ17" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AZ17" s="20" t="s">
+      <c r="BA17" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="BA17" s="20" t="s">
+      <c r="BB17" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="BB17" s="20" t="s">
+      <c r="BC17" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="BC17" s="20" t="s">
+      <c r="BD17" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="BD17" s="20" t="s">
+      <c r="BE17" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="BE17" s="20" t="s">
-        <v>145</v>
       </c>
       <c r="BF17" s="21" t="s">
         <v>27</v>
@@ -2086,102 +2074,100 @@
         <v>33</v>
       </c>
       <c r="BO17" s="18" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="BP17" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="BQ17" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BR17" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BS17" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BT17" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BU17" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BV17" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BW17" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BX17" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BY17" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BZ17" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CA17" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CB17" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CC17" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CD17" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="CE17" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="CF17" s="56" t="s">
+      <c r="CE17" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF17" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="CG17" s="57" t="s">
-        <v>83</v>
+      <c r="CG17" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="CH17" s="23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CI17" s="23" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="CJ17" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CK17" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CL17" s="23" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="CM17" s="23" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="CN17" s="23" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="CO17" s="23" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="CP17" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CQ17" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="CR17" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="CS17" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="CT17" s="25" t="s">
+      <c r="CR17" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="CU17" s="40"/>
+      <c r="CS17" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="CT17" s="40"/>
+      <c r="CU17" s="13"/>
       <c r="CV17" s="13"/>
       <c r="CW17" s="13"/>
       <c r="CX17" s="13"/>
@@ -2209,20 +2195,19 @@
       <c r="DT17" s="13"/>
       <c r="DU17" s="13"/>
       <c r="DV17" s="13"/>
-      <c r="DW17" s="13"/>
     </row>
-    <row r="18" spans="1:127" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="33" t="str">
         <f>IF(COUNTIF(D18:I18,"F")&gt;1,"F",IF(COUNTIF(D18:I18,"F")=1,"D-",IF(COUNTIF(D18:I18,"D")&gt;2,"D",IF(COUNTIF(D18:I18,"D")=2,"D",IF(COUNTIF(D18:I18,"D")=1,"C-",IF(COUNTIF(D18:I18,"C")&gt;2,"C",IF(COUNTIF(D18:I18,"C")=2,"C+",IF(COUNTIF(D18:I18,"C")=1,"B-",IF(COUNTIF(D18:I18,"B")&gt;2,"B",IF(COUNTIF(D18:I18,"B")=2,"B+",IF(COUNTIF(D18:I18,"B")=1,"A-","A")))))))))))</f>
-        <v>B-</v>
+        <v>C+</v>
       </c>
       <c r="D18" s="27" t="str">
         <f t="shared" ref="D18:D57" si="0">AH18</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="E18" s="28" t="str">
         <f>BG18</f>
@@ -2230,18 +2215,18 @@
       </c>
       <c r="F18" s="28" t="str">
         <f t="shared" ref="F18:F57" si="1">BI18</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="G18" s="28" t="str">
         <f t="shared" ref="G18:G57" si="2">BN18</f>
         <v>B</v>
       </c>
       <c r="H18" s="28" t="str">
-        <f>CG18</f>
-        <v>B</v>
+        <f>CF18</f>
+        <v>C</v>
       </c>
       <c r="I18" s="28" t="str">
-        <f t="shared" ref="I18:I57" si="3">CT18</f>
+        <f t="shared" ref="I18:I57" si="3">CS18</f>
         <v>B</v>
       </c>
       <c r="J18" s="26">
@@ -2318,8 +2303,8 @@
         <v>23</v>
       </c>
       <c r="AH18" s="29" t="str">
-        <f>HLOOKUP(AG18,A$8:F$15,7,TRUE)</f>
-        <v>B</v>
+        <f t="shared" ref="AH18:AH57" si="4">HLOOKUP(AG18,A$8:F$15,7,TRUE)</f>
+        <v>A</v>
       </c>
       <c r="AI18" s="30">
         <v>1</v>
@@ -2377,19 +2362,19 @@
       <c r="BD18" s="30"/>
       <c r="BE18" s="30"/>
       <c r="BF18" s="29">
-        <f>SUM(AI18:BE18)</f>
+        <f t="shared" ref="BF18:BF57" si="5">SUM(AI18:BE18)</f>
         <v>16</v>
       </c>
       <c r="BG18" s="29" t="str">
-        <f>HLOOKUP(BF18,A$9:F$15,6,TRUE)</f>
+        <f t="shared" ref="BG18:BG57" si="6">HLOOKUP(BF18,A$9:F$15,6,TRUE)</f>
         <v>C</v>
       </c>
       <c r="BH18" s="29">
         <v>116</v>
       </c>
       <c r="BI18" s="29" t="str">
-        <f>HLOOKUP(BH18,B$10:F$15,5,TRUE)</f>
-        <v>B</v>
+        <f t="shared" ref="BI18:BI57" si="7">HLOOKUP(BH18,B$10:F$15,5,TRUE)</f>
+        <v>A</v>
       </c>
       <c r="BJ18" s="30">
         <v>1</v>
@@ -2403,108 +2388,105 @@
         <v>2</v>
       </c>
       <c r="BN18" s="29" t="str">
-        <f>HLOOKUP(BM18,A$11:F$15,4,TRUE)</f>
+        <f t="shared" ref="BN18:BN57" si="8">HLOOKUP(BM18,A$11:F$15,4,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="BO18" s="31">
-        <v>1</v>
-      </c>
-      <c r="BP18" s="31"/>
+      <c r="BO18" s="31"/>
+      <c r="BP18" s="31">
+        <v>1</v>
+      </c>
       <c r="BQ18" s="31">
         <v>1</v>
       </c>
-      <c r="BR18" s="31">
-        <v>1</v>
-      </c>
+      <c r="BR18" s="30"/>
       <c r="BS18" s="30"/>
-      <c r="BT18" s="30"/>
-      <c r="BU18" s="31">
-        <v>1</v>
-      </c>
-      <c r="BV18" s="30"/>
+      <c r="BT18" s="31">
+        <v>1</v>
+      </c>
+      <c r="BU18" s="30"/>
+      <c r="BV18" s="30">
+        <v>1</v>
+      </c>
       <c r="BW18" s="30">
         <v>1</v>
       </c>
       <c r="BX18" s="30">
         <v>1</v>
       </c>
-      <c r="BY18" s="30">
-        <v>1</v>
-      </c>
-      <c r="BZ18" s="31">
-        <v>1</v>
-      </c>
-      <c r="CA18" s="30"/>
+      <c r="BY18" s="31">
+        <v>1</v>
+      </c>
+      <c r="BZ18" s="30"/>
+      <c r="CA18" s="31">
+        <v>1</v>
+      </c>
       <c r="CB18" s="31">
         <v>1</v>
       </c>
       <c r="CC18" s="31">
         <v>1</v>
       </c>
-      <c r="CD18" s="31">
-        <v>1</v>
-      </c>
-      <c r="CE18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CF18" s="29">
-        <f>SUM(BO18:CE18)</f>
-        <v>12</v>
-      </c>
-      <c r="CG18" s="29" t="str">
-        <f>HLOOKUP(CF18,A$12:F$15,3,TRUE)</f>
+      <c r="CD18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CE18" s="29">
+        <f>SUM(BO18:CD18)</f>
+        <v>11</v>
+      </c>
+      <c r="CF18" s="29" t="str">
+        <f>HLOOKUP(CE18,A$12:F$15,3,TRUE)</f>
+        <v>C</v>
+      </c>
+      <c r="CG18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CH18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CI18" s="30"/>
+      <c r="CJ18" s="31"/>
+      <c r="CK18" s="30"/>
+      <c r="CL18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CM18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CN18" s="30"/>
+      <c r="CO18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CP18" s="31">
+        <v>1</v>
+      </c>
+      <c r="CQ18" s="30">
+        <v>1</v>
+      </c>
+      <c r="CR18" s="29">
+        <f>SUM(CG18:CQ18)</f>
+        <v>7</v>
+      </c>
+      <c r="CS18" s="29" t="str">
+        <f>HLOOKUP(CR18,A$13:F$15,2,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="CH18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CI18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CJ18" s="30"/>
-      <c r="CK18" s="31"/>
-      <c r="CL18" s="30"/>
-      <c r="CM18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CN18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CO18" s="30"/>
-      <c r="CP18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CQ18" s="31">
-        <v>1</v>
-      </c>
-      <c r="CR18" s="30">
-        <v>1</v>
-      </c>
-      <c r="CS18" s="29">
-        <f>SUM(CH18:CR18)</f>
-        <v>7</v>
-      </c>
-      <c r="CT18" s="29" t="str">
-        <f>HLOOKUP(CS18,A$13:F$15,2,TRUE)</f>
-        <v>B</v>
-      </c>
     </row>
-    <row r="19" spans="1:127" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="33" t="str">
-        <f t="shared" ref="C19:C57" si="4">IF(COUNTIF(D19:I19,"F")&gt;1,"F",IF(COUNTIF(D19:I19,"F")=1,"D-",IF(COUNTIF(D19:I19,"D")&gt;2,"D",IF(COUNTIF(D19:I19,"D")=2,"D+",IF(COUNTIF(D19:I19,"D")=1,"C-",IF(COUNTIF(D19:I19,"C")&gt;2,"C",IF(COUNTIF(D19:I19,"C")=2,"C+",IF(COUNTIF(D19:I19,"C")=1,"B-",IF(COUNTIF(D19:I19,"B")&gt;2,"B",IF(COUNTIF(D19:I19,"B")=2,"B+",IF(COUNTIF(D19:I19,"B")=1,"A-","A")))))))))))</f>
-        <v>C+</v>
+        <f t="shared" ref="C19:C57" si="9">IF(COUNTIF(D19:I19,"F")&gt;1,"F",IF(COUNTIF(D19:I19,"F")=1,"D-",IF(COUNTIF(D19:I19,"D")&gt;2,"D",IF(COUNTIF(D19:I19,"D")=2,"D+",IF(COUNTIF(D19:I19,"D")=1,"C-",IF(COUNTIF(D19:I19,"C")&gt;2,"C",IF(COUNTIF(D19:I19,"C")=2,"C+",IF(COUNTIF(D19:I19,"C")=1,"B-",IF(COUNTIF(D19:I19,"B")&gt;2,"B",IF(COUNTIF(D19:I19,"B")=2,"B+",IF(COUNTIF(D19:I19,"B")=1,"A-","A")))))))))))</f>
+        <v>B-</v>
       </c>
       <c r="D19" s="27" t="str">
         <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="E19" s="28" t="str">
+        <f t="shared" ref="E19:E57" si="10">BG19</f>
         <v>B</v>
-      </c>
-      <c r="E19" s="28" t="str">
-        <f t="shared" ref="E19:E57" si="5">BG19</f>
-        <v>C</v>
       </c>
       <c r="F19" s="28" t="str">
         <f t="shared" si="1"/>
@@ -2515,7 +2497,7 @@
         <v>A</v>
       </c>
       <c r="H19" s="28" t="str">
-        <f t="shared" ref="H19:H57" si="6">CG19</f>
+        <f t="shared" ref="H19:H57" si="11">CF19</f>
         <v>C</v>
       </c>
       <c r="I19" s="28" t="str">
@@ -2594,8 +2576,8 @@
         <v>22</v>
       </c>
       <c r="AH19" s="29" t="str">
-        <f>HLOOKUP(AG19,A$8:F$15,7,TRUE)</f>
-        <v>B</v>
+        <f t="shared" si="4"/>
+        <v>A</v>
       </c>
       <c r="AI19" s="30">
         <v>1</v>
@@ -2657,18 +2639,18 @@
         <v>1</v>
       </c>
       <c r="BF19" s="29">
-        <f>SUM(AI19:BE19)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="BG19" s="29" t="str">
-        <f>HLOOKUP(BF19,A$9:F$15,6,TRUE)</f>
-        <v>C</v>
+        <f t="shared" si="6"/>
+        <v>B</v>
       </c>
       <c r="BH19" s="29">
         <v>140</v>
       </c>
       <c r="BI19" s="29" t="str">
-        <f>HLOOKUP(BH19,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
       <c r="BJ19" s="30">
@@ -2681,21 +2663,23 @@
         <v>1</v>
       </c>
       <c r="BM19" s="29">
-        <f t="shared" ref="BM19:BM57" si="7">SUM(BJ19:BL19)</f>
+        <f t="shared" ref="BM19:BM57" si="12">SUM(BJ19:BL19)</f>
         <v>3</v>
       </c>
       <c r="BN19" s="29" t="str">
-        <f>HLOOKUP(BM19,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>A</v>
       </c>
       <c r="BO19" s="30"/>
       <c r="BP19" s="30"/>
-      <c r="BQ19" s="30"/>
-      <c r="BR19" s="30">
-        <v>1</v>
-      </c>
+      <c r="BQ19" s="30">
+        <v>1</v>
+      </c>
+      <c r="BR19" s="30"/>
       <c r="BS19" s="30"/>
-      <c r="BT19" s="30"/>
+      <c r="BT19" s="30">
+        <v>1</v>
+      </c>
       <c r="BU19" s="30">
         <v>1</v>
       </c>
@@ -2705,79 +2689,76 @@
       <c r="BW19" s="30">
         <v>1</v>
       </c>
-      <c r="BX19" s="30">
-        <v>1</v>
-      </c>
-      <c r="BY19" s="31">
-        <v>1</v>
-      </c>
-      <c r="BZ19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CA19" s="31">
-        <v>1</v>
-      </c>
-      <c r="CB19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CC19" s="30"/>
-      <c r="CD19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CE19" s="31">
-        <v>1</v>
-      </c>
-      <c r="CF19" s="29">
-        <f t="shared" ref="CF19:CF57" si="8">SUM(BO19:CE19)</f>
+      <c r="BX19" s="31">
+        <v>1</v>
+      </c>
+      <c r="BY19" s="30">
+        <v>1</v>
+      </c>
+      <c r="BZ19" s="31">
+        <v>1</v>
+      </c>
+      <c r="CA19" s="30">
+        <v>1</v>
+      </c>
+      <c r="CB19" s="30"/>
+      <c r="CC19" s="30">
+        <v>1</v>
+      </c>
+      <c r="CD19" s="31">
+        <v>1</v>
+      </c>
+      <c r="CE19" s="29">
+        <f>SUM(BO19:CD19)</f>
         <v>11</v>
       </c>
-      <c r="CG19" s="29" t="str">
-        <f>HLOOKUP(CF19,A$12:F$15,3,TRUE)</f>
+      <c r="CF19" s="29" t="str">
+        <f>HLOOKUP(CE19,A$12:F$15,3,TRUE)</f>
         <v>C</v>
       </c>
+      <c r="CG19" s="30">
+        <v>1</v>
+      </c>
       <c r="CH19" s="30">
         <v>1</v>
       </c>
-      <c r="CI19" s="30">
+      <c r="CI19" s="31">
         <v>1</v>
       </c>
       <c r="CJ19" s="31">
         <v>1</v>
       </c>
-      <c r="CK19" s="31">
+      <c r="CK19" s="30">
         <v>1</v>
       </c>
       <c r="CL19" s="30">
         <v>1</v>
       </c>
-      <c r="CM19" s="30">
-        <v>1</v>
-      </c>
+      <c r="CM19" s="30"/>
       <c r="CN19" s="30"/>
-      <c r="CO19" s="30"/>
+      <c r="CO19" s="31">
+        <v>1</v>
+      </c>
       <c r="CP19" s="31">
         <v>1</v>
       </c>
-      <c r="CQ19" s="31">
-        <v>1</v>
-      </c>
-      <c r="CR19" s="30">
-        <v>1</v>
-      </c>
-      <c r="CS19" s="29">
-        <f t="shared" ref="CS19:CS57" si="9">SUM(CH19:CR19)</f>
+      <c r="CQ19" s="30">
+        <v>1</v>
+      </c>
+      <c r="CR19" s="29">
+        <f t="shared" ref="CR19:CR57" si="13">SUM(CG19:CQ19)</f>
         <v>9</v>
       </c>
-      <c r="CT19" s="29" t="str">
-        <f>HLOOKUP(CS19,A$13:F$15,2,TRUE)</f>
+      <c r="CS19" s="29" t="str">
+        <f>HLOOKUP(CR19,A$13:F$15,2,TRUE)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="20" spans="1:127" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+    <row r="20" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="A20"/>
       <c r="B20" s="26"/>
       <c r="C20" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D20" s="27" t="str">
@@ -2785,7 +2766,7 @@
         <v>F</v>
       </c>
       <c r="E20" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F20" s="28" t="str">
@@ -2797,7 +2778,7 @@
         <v>D</v>
       </c>
       <c r="H20" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I20" s="28" t="str">
@@ -2826,13 +2807,13 @@
       <c r="AC20"/>
       <c r="AD20"/>
       <c r="AE20"/>
-      <c r="AF20" s="55"/>
+      <c r="AF20"/>
       <c r="AG20" s="29">
         <f>SUM('GRADE BOOK'!$J20:$AF20)</f>
         <v>0</v>
       </c>
       <c r="AH20" s="29" t="str">
-        <f>HLOOKUP(AG20,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI20"/>
@@ -2855,33 +2836,31 @@
       <c r="AZ20"/>
       <c r="BA20"/>
       <c r="BB20"/>
-      <c r="BC20" s="55"/>
-      <c r="BD20" s="55"/>
-      <c r="BE20" s="55"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
       <c r="BF20" s="29">
-        <f>SUM(AI20:BE20)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG20" s="29" t="str">
-        <f>HLOOKUP(BF20,A$9:F$15,6,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="BH20" s="29">
-        <v>0</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="BH20"/>
       <c r="BI20" s="29" t="str">
-        <f>HLOOKUP(BH20,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ20"/>
       <c r="BK20"/>
       <c r="BL20"/>
       <c r="BM20" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN20" s="29" t="str">
-        <f>HLOOKUP(BM20,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO20"/>
@@ -2900,15 +2879,15 @@
       <c r="CB20"/>
       <c r="CC20"/>
       <c r="CD20"/>
-      <c r="CE20" s="55"/>
-      <c r="CF20" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG20" s="29" t="str">
-        <f>HLOOKUP(CF20,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE20" s="29">
+        <f>SUM(BO20:CD20)</f>
+        <v>0</v>
+      </c>
+      <c r="CF20" s="29" t="str">
+        <f>HLOOKUP(CE20,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG20"/>
       <c r="CH20"/>
       <c r="CI20"/>
       <c r="CJ20"/>
@@ -2919,22 +2898,21 @@
       <c r="CO20"/>
       <c r="CP20"/>
       <c r="CQ20"/>
-      <c r="CR20"/>
-      <c r="CS20" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT20" s="29" t="str">
-        <f>HLOOKUP(CS20,A$13:F$15,2,TRUE)</f>
+      <c r="CR20" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS20" s="29" t="str">
+        <f>HLOOKUP(CR20,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
-      <c r="CU20" s="42"/>
+      <c r="CT20" s="42"/>
     </row>
-    <row r="21" spans="1:127" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+    <row r="21" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="A21"/>
       <c r="B21" s="26"/>
       <c r="C21" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D21" s="27" t="str">
@@ -2942,7 +2920,7 @@
         <v>F</v>
       </c>
       <c r="E21" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F21" s="28" t="str">
@@ -2954,143 +2932,140 @@
         <v>D</v>
       </c>
       <c r="H21" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I21" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
       <c r="AG21" s="29">
         <f>SUM('GRADE BOOK'!$J21:$AF21)</f>
         <v>0</v>
       </c>
       <c r="AH21" s="29" t="str">
-        <f>HLOOKUP(AG21,A$8:F$15,7,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="30"/>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="30"/>
-      <c r="AT21" s="30"/>
-      <c r="AU21" s="30"/>
-      <c r="AV21" s="30"/>
-      <c r="AW21" s="30"/>
-      <c r="AX21" s="30"/>
-      <c r="AY21" s="30"/>
-      <c r="AZ21" s="30"/>
-      <c r="BA21" s="30"/>
-      <c r="BB21" s="30"/>
-      <c r="BC21" s="30"/>
-      <c r="BD21" s="30"/>
-      <c r="BE21" s="30"/>
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
       <c r="BF21" s="29">
-        <f>SUM(AI21:BE21)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG21" s="29" t="str">
-        <f>HLOOKUP(BF21,A$9:F$15,6,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="BH21" s="29">
-        <v>0</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="BH21"/>
       <c r="BI21" s="29" t="str">
-        <f>HLOOKUP(BH21,B$10:F$15,5,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="BJ21" s="30"/>
-      <c r="BK21" s="30"/>
-      <c r="BL21" s="30"/>
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="BJ21"/>
+      <c r="BK21"/>
+      <c r="BL21"/>
       <c r="BM21" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN21" s="29" t="str">
-        <f>HLOOKUP(BM21,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="BO21" s="30"/>
-      <c r="BP21" s="30"/>
-      <c r="BQ21" s="30"/>
-      <c r="BR21" s="30"/>
-      <c r="BS21" s="30"/>
-      <c r="BT21" s="30"/>
-      <c r="BU21" s="30"/>
-      <c r="BV21" s="30"/>
-      <c r="BW21" s="30"/>
-      <c r="BX21" s="30"/>
-      <c r="BY21" s="30"/>
-      <c r="BZ21" s="30"/>
-      <c r="CA21" s="30"/>
-      <c r="CB21" s="30"/>
-      <c r="CC21" s="30"/>
-      <c r="CD21" s="30"/>
-      <c r="CE21" s="30"/>
-      <c r="CF21" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG21" s="29" t="str">
-        <f>HLOOKUP(CF21,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="CH21" s="30"/>
-      <c r="CI21" s="30"/>
-      <c r="CJ21" s="30"/>
-      <c r="CK21" s="30"/>
-      <c r="CL21" s="30"/>
-      <c r="CM21" s="30"/>
-      <c r="CN21" s="30"/>
-      <c r="CO21" s="30"/>
-      <c r="CP21" s="30"/>
-      <c r="CQ21" s="30"/>
-      <c r="CR21" s="30"/>
-      <c r="CS21" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT21" s="29" t="str">
-        <f>HLOOKUP(CS21,A$13:F$15,2,TRUE)</f>
+      <c r="BO21"/>
+      <c r="BP21"/>
+      <c r="BQ21"/>
+      <c r="BR21"/>
+      <c r="BS21"/>
+      <c r="BT21"/>
+      <c r="BU21"/>
+      <c r="BV21"/>
+      <c r="BW21"/>
+      <c r="BX21"/>
+      <c r="BY21"/>
+      <c r="BZ21"/>
+      <c r="CA21"/>
+      <c r="CB21"/>
+      <c r="CC21"/>
+      <c r="CD21"/>
+      <c r="CE21" s="29">
+        <f>SUM(BO21:CD21)</f>
+        <v>0</v>
+      </c>
+      <c r="CF21" s="29" t="str">
+        <f>HLOOKUP(CE21,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG21"/>
+      <c r="CH21"/>
+      <c r="CI21"/>
+      <c r="CJ21"/>
+      <c r="CK21"/>
+      <c r="CL21"/>
+      <c r="CM21"/>
+      <c r="CN21"/>
+      <c r="CO21"/>
+      <c r="CP21"/>
+      <c r="CQ21"/>
+      <c r="CR21" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS21" s="29" t="str">
+        <f>HLOOKUP(CR21,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="22" spans="1:127" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+    <row r="22" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="A22"/>
       <c r="B22" s="26"/>
       <c r="C22" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D22" s="27" t="str">
@@ -3098,7 +3073,7 @@
         <v>F</v>
       </c>
       <c r="E22" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F22" s="28" t="str">
@@ -3110,143 +3085,140 @@
         <v>D</v>
       </c>
       <c r="H22" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I22" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
       <c r="AG22" s="29">
         <f>SUM('GRADE BOOK'!$J22:$AF22)</f>
         <v>0</v>
       </c>
       <c r="AH22" s="29" t="str">
-        <f>HLOOKUP(AG22,A$8:F$15,7,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="30"/>
-      <c r="AU22" s="30"/>
-      <c r="AV22" s="30"/>
-      <c r="AW22" s="30"/>
-      <c r="AX22" s="30"/>
-      <c r="AY22" s="30"/>
-      <c r="AZ22" s="30"/>
-      <c r="BA22" s="30"/>
-      <c r="BB22" s="30"/>
-      <c r="BC22" s="30"/>
-      <c r="BD22" s="30"/>
-      <c r="BE22" s="30"/>
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22"/>
       <c r="BF22" s="29">
-        <f>SUM(AI22:BE22)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG22" s="29" t="str">
-        <f>HLOOKUP(BF22,A$9:F$15,6,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="BH22" s="29">
-        <v>0</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="BH22"/>
       <c r="BI22" s="29" t="str">
-        <f>HLOOKUP(BH22,B$10:F$15,5,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="BJ22" s="30"/>
-      <c r="BK22" s="30"/>
-      <c r="BL22" s="30"/>
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="BJ22"/>
+      <c r="BK22"/>
+      <c r="BL22"/>
       <c r="BM22" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN22" s="29" t="str">
-        <f>HLOOKUP(BM22,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="BO22" s="30"/>
-      <c r="BP22" s="30"/>
-      <c r="BQ22" s="30"/>
-      <c r="BR22" s="30"/>
-      <c r="BS22" s="30"/>
-      <c r="BT22" s="30"/>
-      <c r="BU22" s="30"/>
-      <c r="BV22" s="30"/>
-      <c r="BW22" s="30"/>
-      <c r="BX22" s="30"/>
-      <c r="BY22" s="30"/>
-      <c r="BZ22" s="30"/>
-      <c r="CA22" s="30"/>
-      <c r="CB22" s="30"/>
-      <c r="CC22" s="30"/>
-      <c r="CD22" s="30"/>
-      <c r="CE22" s="30"/>
-      <c r="CF22" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG22" s="29" t="str">
-        <f>HLOOKUP(CF22,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="CH22" s="30"/>
-      <c r="CI22" s="30"/>
-      <c r="CJ22" s="30"/>
-      <c r="CK22" s="30"/>
-      <c r="CL22" s="30"/>
-      <c r="CM22" s="30"/>
-      <c r="CN22" s="30"/>
-      <c r="CO22" s="30"/>
-      <c r="CP22" s="30"/>
-      <c r="CQ22" s="30"/>
-      <c r="CR22" s="30"/>
-      <c r="CS22" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT22" s="29" t="str">
-        <f>HLOOKUP(CS22,A$13:F$15,2,TRUE)</f>
+      <c r="BO22"/>
+      <c r="BP22"/>
+      <c r="BQ22"/>
+      <c r="BR22"/>
+      <c r="BS22"/>
+      <c r="BT22"/>
+      <c r="BU22"/>
+      <c r="BV22"/>
+      <c r="BW22"/>
+      <c r="BX22"/>
+      <c r="BY22"/>
+      <c r="BZ22"/>
+      <c r="CA22"/>
+      <c r="CB22"/>
+      <c r="CC22"/>
+      <c r="CD22"/>
+      <c r="CE22" s="29">
+        <f>SUM(BO22:CD22)</f>
+        <v>0</v>
+      </c>
+      <c r="CF22" s="29" t="str">
+        <f>HLOOKUP(CE22,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG22"/>
+      <c r="CH22"/>
+      <c r="CI22"/>
+      <c r="CJ22"/>
+      <c r="CK22"/>
+      <c r="CL22"/>
+      <c r="CM22"/>
+      <c r="CN22"/>
+      <c r="CO22"/>
+      <c r="CP22"/>
+      <c r="CQ22"/>
+      <c r="CR22" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS22" s="29" t="str">
+        <f>HLOOKUP(CR22,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="23" spans="1:127" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+    <row r="23" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="A23"/>
       <c r="B23" s="26"/>
       <c r="C23" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D23" s="27" t="str">
@@ -3254,7 +3226,7 @@
         <v>F</v>
       </c>
       <c r="E23" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F23" s="28" t="str">
@@ -3266,143 +3238,140 @@
         <v>D</v>
       </c>
       <c r="H23" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I23" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
       <c r="AG23" s="29">
         <f>SUM('GRADE BOOK'!$J23:$AF23)</f>
         <v>0</v>
       </c>
       <c r="AH23" s="29" t="str">
-        <f>HLOOKUP(AG23,A$8:F$15,7,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="30"/>
-      <c r="AQ23" s="30"/>
-      <c r="AR23" s="30"/>
-      <c r="AS23" s="30"/>
-      <c r="AT23" s="30"/>
-      <c r="AU23" s="30"/>
-      <c r="AV23" s="30"/>
-      <c r="AW23" s="30"/>
-      <c r="AX23" s="30"/>
-      <c r="AY23" s="30"/>
-      <c r="AZ23" s="30"/>
-      <c r="BA23" s="30"/>
-      <c r="BB23" s="30"/>
-      <c r="BC23" s="30"/>
-      <c r="BD23" s="30"/>
-      <c r="BE23" s="30"/>
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+      <c r="AO23"/>
+      <c r="AP23"/>
+      <c r="AQ23"/>
+      <c r="AR23"/>
+      <c r="AS23"/>
+      <c r="AT23"/>
+      <c r="AU23"/>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23"/>
+      <c r="AY23"/>
+      <c r="AZ23"/>
+      <c r="BA23"/>
+      <c r="BB23"/>
+      <c r="BC23"/>
+      <c r="BD23"/>
+      <c r="BE23"/>
       <c r="BF23" s="29">
-        <f>SUM(AI23:BE23)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG23" s="29" t="str">
-        <f>HLOOKUP(BF23,A$9:F$15,6,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="BH23" s="29">
-        <v>0</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="BH23"/>
       <c r="BI23" s="29" t="str">
-        <f>HLOOKUP(BH23,B$10:F$15,5,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="BJ23" s="30"/>
-      <c r="BK23" s="30"/>
-      <c r="BL23" s="30"/>
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="BJ23"/>
+      <c r="BK23"/>
+      <c r="BL23"/>
       <c r="BM23" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN23" s="29" t="str">
-        <f>HLOOKUP(BM23,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="BO23" s="30"/>
-      <c r="BP23" s="30"/>
-      <c r="BQ23" s="30"/>
-      <c r="BR23" s="30"/>
-      <c r="BS23" s="30"/>
-      <c r="BT23" s="30"/>
-      <c r="BU23" s="30"/>
-      <c r="BV23" s="30"/>
-      <c r="BW23" s="30"/>
-      <c r="BX23" s="30"/>
-      <c r="BY23" s="30"/>
-      <c r="BZ23" s="30"/>
-      <c r="CA23" s="30"/>
-      <c r="CB23" s="30"/>
-      <c r="CC23" s="30"/>
-      <c r="CD23" s="30"/>
-      <c r="CE23" s="30"/>
-      <c r="CF23" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG23" s="29" t="str">
-        <f>HLOOKUP(CF23,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="CH23" s="30"/>
-      <c r="CI23" s="30"/>
-      <c r="CJ23" s="30"/>
-      <c r="CK23" s="30"/>
-      <c r="CL23" s="30"/>
-      <c r="CM23" s="30"/>
-      <c r="CN23" s="30"/>
-      <c r="CO23" s="30"/>
-      <c r="CP23" s="30"/>
-      <c r="CQ23" s="30"/>
-      <c r="CR23" s="30"/>
-      <c r="CS23" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT23" s="29" t="str">
-        <f>HLOOKUP(CS23,A$13:F$15,2,TRUE)</f>
+      <c r="BO23"/>
+      <c r="BP23"/>
+      <c r="BQ23"/>
+      <c r="BR23"/>
+      <c r="BS23"/>
+      <c r="BT23"/>
+      <c r="BU23"/>
+      <c r="BV23"/>
+      <c r="BW23"/>
+      <c r="BX23"/>
+      <c r="BY23"/>
+      <c r="BZ23"/>
+      <c r="CA23"/>
+      <c r="CB23"/>
+      <c r="CC23"/>
+      <c r="CD23"/>
+      <c r="CE23" s="29">
+        <f>SUM(BO23:CD23)</f>
+        <v>0</v>
+      </c>
+      <c r="CF23" s="29" t="str">
+        <f>HLOOKUP(CE23,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG23"/>
+      <c r="CH23"/>
+      <c r="CI23"/>
+      <c r="CJ23"/>
+      <c r="CK23"/>
+      <c r="CL23"/>
+      <c r="CM23"/>
+      <c r="CN23"/>
+      <c r="CO23"/>
+      <c r="CP23"/>
+      <c r="CQ23"/>
+      <c r="CR23" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS23" s="29" t="str">
+        <f>HLOOKUP(CR23,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="24" spans="1:127" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+    <row r="24" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="A24"/>
       <c r="B24" s="26"/>
       <c r="C24" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D24" s="27" t="str">
@@ -3410,7 +3379,7 @@
         <v>F</v>
       </c>
       <c r="E24" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F24" s="28" t="str">
@@ -3422,143 +3391,140 @@
         <v>D</v>
       </c>
       <c r="H24" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I24" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
       <c r="AG24" s="29">
         <f>SUM('GRADE BOOK'!$J24:$AF24)</f>
         <v>0</v>
       </c>
       <c r="AH24" s="29" t="str">
-        <f>HLOOKUP(AG24,A$8:F$15,7,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
-      <c r="AU24" s="30"/>
-      <c r="AV24" s="30"/>
-      <c r="AW24" s="30"/>
-      <c r="AX24" s="30"/>
-      <c r="AY24" s="30"/>
-      <c r="AZ24" s="30"/>
-      <c r="BA24" s="30"/>
-      <c r="BB24" s="30"/>
-      <c r="BC24" s="30"/>
-      <c r="BD24" s="30"/>
-      <c r="BE24" s="30"/>
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+      <c r="AO24"/>
+      <c r="AP24"/>
+      <c r="AQ24"/>
+      <c r="AR24"/>
+      <c r="AS24"/>
+      <c r="AT24"/>
+      <c r="AU24"/>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24"/>
+      <c r="AY24"/>
+      <c r="AZ24"/>
+      <c r="BA24"/>
+      <c r="BB24"/>
+      <c r="BC24"/>
+      <c r="BD24"/>
+      <c r="BE24"/>
       <c r="BF24" s="29">
-        <f>SUM(AI24:BE24)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG24" s="29" t="str">
-        <f>HLOOKUP(BF24,A$9:F$15,6,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="BH24" s="29">
-        <v>0</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="BH24"/>
       <c r="BI24" s="29" t="str">
-        <f>HLOOKUP(BH24,B$10:F$15,5,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="BJ24" s="30"/>
-      <c r="BK24" s="30"/>
-      <c r="BL24" s="30"/>
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="BJ24"/>
+      <c r="BK24"/>
+      <c r="BL24"/>
       <c r="BM24" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN24" s="29" t="str">
-        <f>HLOOKUP(BM24,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="BO24" s="30"/>
-      <c r="BP24" s="30"/>
-      <c r="BQ24" s="30"/>
-      <c r="BR24" s="30"/>
-      <c r="BS24" s="30"/>
-      <c r="BT24" s="30"/>
-      <c r="BU24" s="30"/>
-      <c r="BV24" s="30"/>
-      <c r="BW24" s="30"/>
-      <c r="BX24" s="30"/>
-      <c r="BY24" s="30"/>
-      <c r="BZ24" s="30"/>
-      <c r="CA24" s="30"/>
-      <c r="CB24" s="30"/>
-      <c r="CC24" s="30"/>
-      <c r="CD24" s="30"/>
-      <c r="CE24" s="30"/>
-      <c r="CF24" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG24" s="29" t="str">
-        <f>HLOOKUP(CF24,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="CH24" s="30"/>
-      <c r="CI24" s="30"/>
-      <c r="CJ24" s="30"/>
-      <c r="CK24" s="30"/>
-      <c r="CL24" s="30"/>
-      <c r="CM24" s="30"/>
-      <c r="CN24" s="30"/>
-      <c r="CO24" s="30"/>
-      <c r="CP24" s="30"/>
-      <c r="CQ24" s="30"/>
-      <c r="CR24" s="30"/>
-      <c r="CS24" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT24" s="29" t="str">
-        <f>HLOOKUP(CS24,A$13:F$15,2,TRUE)</f>
+      <c r="BO24"/>
+      <c r="BP24"/>
+      <c r="BQ24"/>
+      <c r="BR24"/>
+      <c r="BS24"/>
+      <c r="BT24"/>
+      <c r="BU24"/>
+      <c r="BV24"/>
+      <c r="BW24"/>
+      <c r="BX24"/>
+      <c r="BY24"/>
+      <c r="BZ24"/>
+      <c r="CA24"/>
+      <c r="CB24"/>
+      <c r="CC24"/>
+      <c r="CD24"/>
+      <c r="CE24" s="29">
+        <f>SUM(BO24:CD24)</f>
+        <v>0</v>
+      </c>
+      <c r="CF24" s="29" t="str">
+        <f>HLOOKUP(CE24,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG24"/>
+      <c r="CH24"/>
+      <c r="CI24"/>
+      <c r="CJ24"/>
+      <c r="CK24"/>
+      <c r="CL24"/>
+      <c r="CM24"/>
+      <c r="CN24"/>
+      <c r="CO24"/>
+      <c r="CP24"/>
+      <c r="CQ24"/>
+      <c r="CR24" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS24" s="29" t="str">
+        <f>HLOOKUP(CR24,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="25" spans="1:127" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+    <row r="25" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="A25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D25" s="27" t="str">
@@ -3566,7 +3532,7 @@
         <v>F</v>
       </c>
       <c r="E25" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F25" s="28" t="str">
@@ -3578,143 +3544,140 @@
         <v>D</v>
       </c>
       <c r="H25" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I25" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
       <c r="AG25" s="29">
         <f>SUM('GRADE BOOK'!$J25:$AF25)</f>
         <v>0</v>
       </c>
       <c r="AH25" s="29" t="str">
-        <f>HLOOKUP(AG25,A$8:F$15,7,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="30"/>
-      <c r="AL25" s="30"/>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="30"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="30"/>
-      <c r="AQ25" s="30"/>
-      <c r="AR25" s="30"/>
-      <c r="AS25" s="30"/>
-      <c r="AT25" s="30"/>
-      <c r="AU25" s="30"/>
-      <c r="AV25" s="30"/>
-      <c r="AW25" s="30"/>
-      <c r="AX25" s="30"/>
-      <c r="AY25" s="30"/>
-      <c r="AZ25" s="30"/>
-      <c r="BA25" s="30"/>
-      <c r="BB25" s="30"/>
-      <c r="BC25" s="30"/>
-      <c r="BD25" s="30"/>
-      <c r="BE25" s="30"/>
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+      <c r="AO25"/>
+      <c r="AP25"/>
+      <c r="AQ25"/>
+      <c r="AR25"/>
+      <c r="AS25"/>
+      <c r="AT25"/>
+      <c r="AU25"/>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25"/>
+      <c r="AY25"/>
+      <c r="AZ25"/>
+      <c r="BA25"/>
+      <c r="BB25"/>
+      <c r="BC25"/>
+      <c r="BD25"/>
+      <c r="BE25"/>
       <c r="BF25" s="29">
-        <f>SUM(AI25:BE25)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG25" s="29" t="str">
-        <f>HLOOKUP(BF25,A$9:F$15,6,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="BH25" s="29">
-        <v>0</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="BH25"/>
       <c r="BI25" s="29" t="str">
-        <f>HLOOKUP(BH25,B$10:F$15,5,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="BJ25" s="30"/>
-      <c r="BK25" s="30"/>
-      <c r="BL25" s="30"/>
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="BJ25"/>
+      <c r="BK25"/>
+      <c r="BL25"/>
       <c r="BM25" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN25" s="29" t="str">
-        <f>HLOOKUP(BM25,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="BO25" s="30"/>
-      <c r="BP25" s="30"/>
-      <c r="BQ25" s="30"/>
-      <c r="BR25" s="30"/>
-      <c r="BS25" s="30"/>
-      <c r="BT25" s="30"/>
-      <c r="BU25" s="30"/>
-      <c r="BV25" s="30"/>
-      <c r="BW25" s="30"/>
-      <c r="BX25" s="30"/>
-      <c r="BY25" s="30"/>
-      <c r="BZ25" s="30"/>
-      <c r="CA25" s="30"/>
-      <c r="CB25" s="30"/>
-      <c r="CC25" s="30"/>
-      <c r="CD25" s="30"/>
-      <c r="CE25" s="30"/>
-      <c r="CF25" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG25" s="29" t="str">
-        <f>HLOOKUP(CF25,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="CH25" s="30"/>
-      <c r="CI25" s="30"/>
-      <c r="CJ25" s="30"/>
-      <c r="CK25" s="30"/>
-      <c r="CL25" s="30"/>
-      <c r="CM25" s="30"/>
-      <c r="CN25" s="30"/>
-      <c r="CO25" s="30"/>
-      <c r="CP25" s="30"/>
-      <c r="CQ25" s="30"/>
-      <c r="CR25" s="30"/>
-      <c r="CS25" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT25" s="29" t="str">
-        <f>HLOOKUP(CS25,A$13:F$15,2,TRUE)</f>
+      <c r="BO25"/>
+      <c r="BP25"/>
+      <c r="BQ25"/>
+      <c r="BR25"/>
+      <c r="BS25"/>
+      <c r="BT25"/>
+      <c r="BU25"/>
+      <c r="BV25"/>
+      <c r="BW25"/>
+      <c r="BX25"/>
+      <c r="BY25"/>
+      <c r="BZ25"/>
+      <c r="CA25"/>
+      <c r="CB25"/>
+      <c r="CC25"/>
+      <c r="CD25"/>
+      <c r="CE25" s="29">
+        <f>SUM(BO25:CD25)</f>
+        <v>0</v>
+      </c>
+      <c r="CF25" s="29" t="str">
+        <f>HLOOKUP(CE25,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG25"/>
+      <c r="CH25"/>
+      <c r="CI25"/>
+      <c r="CJ25"/>
+      <c r="CK25"/>
+      <c r="CL25"/>
+      <c r="CM25"/>
+      <c r="CN25"/>
+      <c r="CO25"/>
+      <c r="CP25"/>
+      <c r="CQ25"/>
+      <c r="CR25" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS25" s="29" t="str">
+        <f>HLOOKUP(CR25,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="26" spans="1:127" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+    <row r="26" spans="1:126" x14ac:dyDescent="0.25">
+      <c r="A26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D26" s="27" t="str">
@@ -3722,7 +3685,7 @@
         <v>F</v>
       </c>
       <c r="E26" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F26" s="28" t="str">
@@ -3734,143 +3697,140 @@
         <v>D</v>
       </c>
       <c r="H26" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I26" s="28" t="str">
         <f t="shared" si="3"/>
         <v>C</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
       <c r="AG26" s="29">
         <f>SUM('GRADE BOOK'!$J26:$AF26)</f>
         <v>0</v>
       </c>
       <c r="AH26" s="29" t="str">
-        <f>HLOOKUP(AG26,A$8:F$15,7,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="30"/>
-      <c r="AO26" s="30"/>
-      <c r="AP26" s="30"/>
-      <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
-      <c r="AS26" s="30"/>
-      <c r="AT26" s="30"/>
-      <c r="AU26" s="30"/>
-      <c r="AV26" s="30"/>
-      <c r="AW26" s="30"/>
-      <c r="AX26" s="30"/>
-      <c r="AY26" s="30"/>
-      <c r="AZ26" s="30"/>
-      <c r="BA26" s="30"/>
-      <c r="BB26" s="30"/>
-      <c r="BC26" s="30"/>
-      <c r="BD26" s="30"/>
-      <c r="BE26" s="30"/>
+        <f t="shared" si="4"/>
+        <v>F</v>
+      </c>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26"/>
+      <c r="AY26"/>
+      <c r="AZ26"/>
+      <c r="BA26"/>
+      <c r="BB26"/>
+      <c r="BC26"/>
+      <c r="BD26"/>
+      <c r="BE26"/>
       <c r="BF26" s="29">
-        <f>SUM(AI26:BE26)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG26" s="29" t="str">
-        <f>HLOOKUP(BF26,A$9:F$15,6,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="BH26" s="29">
-        <v>0</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="BH26"/>
       <c r="BI26" s="29" t="str">
-        <f>HLOOKUP(BH26,B$10:F$15,5,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="BJ26" s="30"/>
-      <c r="BK26" s="30"/>
-      <c r="BL26" s="30"/>
+        <f t="shared" si="7"/>
+        <v>F</v>
+      </c>
+      <c r="BJ26"/>
+      <c r="BK26"/>
+      <c r="BL26"/>
       <c r="BM26" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN26" s="29" t="str">
-        <f>HLOOKUP(BM26,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
-      <c r="BO26" s="30"/>
-      <c r="BP26" s="30"/>
-      <c r="BQ26" s="30"/>
-      <c r="BR26" s="30"/>
-      <c r="BS26" s="30"/>
-      <c r="BT26" s="30"/>
-      <c r="BU26" s="30"/>
-      <c r="BV26" s="30"/>
-      <c r="BW26" s="30"/>
-      <c r="BX26" s="30"/>
-      <c r="BY26" s="30"/>
-      <c r="BZ26" s="30"/>
-      <c r="CA26" s="30"/>
-      <c r="CB26" s="30"/>
-      <c r="CC26" s="30"/>
-      <c r="CD26" s="30"/>
-      <c r="CE26" s="30"/>
-      <c r="CF26" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG26" s="29" t="str">
-        <f>HLOOKUP(CF26,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
-      <c r="CH26" s="30"/>
-      <c r="CI26" s="30"/>
-      <c r="CJ26" s="30"/>
-      <c r="CK26" s="30"/>
-      <c r="CL26" s="30"/>
-      <c r="CM26" s="30"/>
-      <c r="CN26" s="30"/>
-      <c r="CO26" s="30"/>
-      <c r="CP26" s="30"/>
-      <c r="CQ26" s="30"/>
-      <c r="CR26" s="30"/>
-      <c r="CS26" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT26" s="29" t="str">
-        <f>HLOOKUP(CS26,A$13:F$15,2,TRUE)</f>
+      <c r="BO26"/>
+      <c r="BP26"/>
+      <c r="BQ26"/>
+      <c r="BR26"/>
+      <c r="BS26"/>
+      <c r="BT26"/>
+      <c r="BU26"/>
+      <c r="BV26"/>
+      <c r="BW26"/>
+      <c r="BX26"/>
+      <c r="BY26"/>
+      <c r="BZ26"/>
+      <c r="CA26"/>
+      <c r="CB26"/>
+      <c r="CC26"/>
+      <c r="CD26"/>
+      <c r="CE26" s="29">
+        <f>SUM(BO26:CD26)</f>
+        <v>0</v>
+      </c>
+      <c r="CF26" s="29" t="str">
+        <f>HLOOKUP(CE26,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG26"/>
+      <c r="CH26"/>
+      <c r="CI26"/>
+      <c r="CJ26"/>
+      <c r="CK26"/>
+      <c r="CL26"/>
+      <c r="CM26"/>
+      <c r="CN26"/>
+      <c r="CO26"/>
+      <c r="CP26"/>
+      <c r="CQ26"/>
+      <c r="CR26" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS26" s="29" t="str">
+        <f>HLOOKUP(CR26,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="27" spans="1:127" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D27" s="27" t="str">
@@ -3878,7 +3838,7 @@
         <v>F</v>
       </c>
       <c r="E27" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F27" s="28" t="str">
@@ -3890,7 +3850,7 @@
         <v>D</v>
       </c>
       <c r="H27" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I27" s="28" t="str">
@@ -3925,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="AH27" s="29" t="str">
-        <f>HLOOKUP(AG27,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI27" s="30"/>
@@ -3952,29 +3912,29 @@
       <c r="BD27" s="30"/>
       <c r="BE27" s="30"/>
       <c r="BF27" s="29">
-        <f>SUM(AI27:BE27)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG27" s="29" t="str">
-        <f>HLOOKUP(BF27,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH27" s="29">
         <v>0</v>
       </c>
       <c r="BI27" s="29" t="str">
-        <f>HLOOKUP(BH27,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ27" s="30"/>
       <c r="BK27" s="30"/>
       <c r="BL27" s="30"/>
       <c r="BM27" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN27" s="29" t="str">
-        <f>HLOOKUP(BM27,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO27" s="30"/>
@@ -3993,15 +3953,15 @@
       <c r="CB27" s="30"/>
       <c r="CC27" s="30"/>
       <c r="CD27" s="30"/>
-      <c r="CE27" s="30"/>
-      <c r="CF27" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG27" s="29" t="str">
-        <f>HLOOKUP(CF27,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE27" s="29">
+        <f>SUM(BO27:CD27)</f>
+        <v>0</v>
+      </c>
+      <c r="CF27" s="29" t="str">
+        <f>HLOOKUP(CE27,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG27" s="30"/>
       <c r="CH27" s="30"/>
       <c r="CI27" s="30"/>
       <c r="CJ27" s="30"/>
@@ -4012,21 +3972,20 @@
       <c r="CO27" s="30"/>
       <c r="CP27" s="30"/>
       <c r="CQ27" s="30"/>
-      <c r="CR27" s="30"/>
-      <c r="CS27" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT27" s="29" t="str">
-        <f>HLOOKUP(CS27,A$13:F$15,2,TRUE)</f>
+      <c r="CR27" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS27" s="29" t="str">
+        <f>HLOOKUP(CR27,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="28" spans="1:127" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D28" s="27" t="str">
@@ -4034,7 +3993,7 @@
         <v>F</v>
       </c>
       <c r="E28" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F28" s="28" t="str">
@@ -4046,7 +4005,7 @@
         <v>D</v>
       </c>
       <c r="H28" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I28" s="28" t="str">
@@ -4081,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="AH28" s="29" t="str">
-        <f>HLOOKUP(AG28,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI28" s="30"/>
@@ -4108,29 +4067,29 @@
       <c r="BD28" s="30"/>
       <c r="BE28" s="30"/>
       <c r="BF28" s="29">
-        <f>SUM(AI28:BE28)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG28" s="29" t="str">
-        <f>HLOOKUP(BF28,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH28" s="29">
         <v>0</v>
       </c>
       <c r="BI28" s="29" t="str">
-        <f>HLOOKUP(BH28,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ28" s="30"/>
       <c r="BK28" s="30"/>
       <c r="BL28" s="30"/>
       <c r="BM28" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN28" s="29" t="str">
-        <f>HLOOKUP(BM28,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO28" s="30"/>
@@ -4149,15 +4108,15 @@
       <c r="CB28" s="30"/>
       <c r="CC28" s="30"/>
       <c r="CD28" s="30"/>
-      <c r="CE28" s="30"/>
-      <c r="CF28" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG28" s="29" t="str">
-        <f>HLOOKUP(CF28,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE28" s="29">
+        <f>SUM(BO28:CD28)</f>
+        <v>0</v>
+      </c>
+      <c r="CF28" s="29" t="str">
+        <f>HLOOKUP(CE28,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG28" s="30"/>
       <c r="CH28" s="30"/>
       <c r="CI28" s="30"/>
       <c r="CJ28" s="30"/>
@@ -4168,21 +4127,20 @@
       <c r="CO28" s="30"/>
       <c r="CP28" s="30"/>
       <c r="CQ28" s="30"/>
-      <c r="CR28" s="30"/>
-      <c r="CS28" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT28" s="29" t="str">
-        <f>HLOOKUP(CS28,A$13:F$15,2,TRUE)</f>
+      <c r="CR28" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS28" s="29" t="str">
+        <f>HLOOKUP(CR28,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="29" spans="1:127" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D29" s="27" t="str">
@@ -4190,7 +4148,7 @@
         <v>F</v>
       </c>
       <c r="E29" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F29" s="28" t="str">
@@ -4202,7 +4160,7 @@
         <v>D</v>
       </c>
       <c r="H29" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I29" s="28" t="str">
@@ -4237,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="AH29" s="29" t="str">
-        <f>HLOOKUP(AG29,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI29" s="30"/>
@@ -4264,29 +4222,29 @@
       <c r="BD29" s="30"/>
       <c r="BE29" s="30"/>
       <c r="BF29" s="29">
-        <f>SUM(AI29:BE29)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG29" s="29" t="str">
-        <f>HLOOKUP(BF29,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH29" s="29">
         <v>0</v>
       </c>
       <c r="BI29" s="29" t="str">
-        <f>HLOOKUP(BH29,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ29" s="30"/>
       <c r="BK29" s="30"/>
       <c r="BL29" s="30"/>
       <c r="BM29" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN29" s="29" t="str">
-        <f>HLOOKUP(BM29,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO29" s="30"/>
@@ -4305,15 +4263,15 @@
       <c r="CB29" s="30"/>
       <c r="CC29" s="30"/>
       <c r="CD29" s="30"/>
-      <c r="CE29" s="30"/>
-      <c r="CF29" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG29" s="29" t="str">
-        <f>HLOOKUP(CF29,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE29" s="29">
+        <f>SUM(BO29:CD29)</f>
+        <v>0</v>
+      </c>
+      <c r="CF29" s="29" t="str">
+        <f>HLOOKUP(CE29,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG29" s="30"/>
       <c r="CH29" s="30"/>
       <c r="CI29" s="30"/>
       <c r="CJ29" s="30"/>
@@ -4324,21 +4282,20 @@
       <c r="CO29" s="30"/>
       <c r="CP29" s="30"/>
       <c r="CQ29" s="30"/>
-      <c r="CR29" s="30"/>
-      <c r="CS29" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT29" s="29" t="str">
-        <f>HLOOKUP(CS29,A$13:F$15,2,TRUE)</f>
+      <c r="CR29" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS29" s="29" t="str">
+        <f>HLOOKUP(CR29,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="30" spans="1:127" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D30" s="27" t="str">
@@ -4346,7 +4303,7 @@
         <v>F</v>
       </c>
       <c r="E30" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F30" s="28" t="str">
@@ -4358,7 +4315,7 @@
         <v>D</v>
       </c>
       <c r="H30" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I30" s="28" t="str">
@@ -4393,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="29" t="str">
-        <f>HLOOKUP(AG30,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI30" s="30"/>
@@ -4420,29 +4377,29 @@
       <c r="BD30" s="30"/>
       <c r="BE30" s="30"/>
       <c r="BF30" s="29">
-        <f>SUM(AI30:BE30)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG30" s="29" t="str">
-        <f>HLOOKUP(BF30,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH30" s="29">
         <v>0</v>
       </c>
       <c r="BI30" s="29" t="str">
-        <f>HLOOKUP(BH30,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ30" s="30"/>
       <c r="BK30" s="30"/>
       <c r="BL30" s="30"/>
       <c r="BM30" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN30" s="29" t="str">
-        <f>HLOOKUP(BM30,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO30" s="30"/>
@@ -4461,15 +4418,15 @@
       <c r="CB30" s="30"/>
       <c r="CC30" s="30"/>
       <c r="CD30" s="30"/>
-      <c r="CE30" s="30"/>
-      <c r="CF30" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG30" s="29" t="str">
-        <f>HLOOKUP(CF30,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE30" s="29">
+        <f>SUM(BO30:CD30)</f>
+        <v>0</v>
+      </c>
+      <c r="CF30" s="29" t="str">
+        <f>HLOOKUP(CE30,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG30" s="30"/>
       <c r="CH30" s="30"/>
       <c r="CI30" s="30"/>
       <c r="CJ30" s="30"/>
@@ -4480,21 +4437,20 @@
       <c r="CO30" s="30"/>
       <c r="CP30" s="30"/>
       <c r="CQ30" s="30"/>
-      <c r="CR30" s="30"/>
-      <c r="CS30" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT30" s="29" t="str">
-        <f>HLOOKUP(CS30,A$13:F$15,2,TRUE)</f>
+      <c r="CR30" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS30" s="29" t="str">
+        <f>HLOOKUP(CR30,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="31" spans="1:127" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D31" s="27" t="str">
@@ -4502,7 +4458,7 @@
         <v>F</v>
       </c>
       <c r="E31" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F31" s="28" t="str">
@@ -4514,7 +4470,7 @@
         <v>D</v>
       </c>
       <c r="H31" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I31" s="28" t="str">
@@ -4549,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="AH31" s="29" t="str">
-        <f>HLOOKUP(AG31,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI31" s="30"/>
@@ -4576,29 +4532,29 @@
       <c r="BD31" s="30"/>
       <c r="BE31" s="30"/>
       <c r="BF31" s="29">
-        <f>SUM(AI31:BE31)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG31" s="29" t="str">
-        <f>HLOOKUP(BF31,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH31" s="29">
         <v>0</v>
       </c>
       <c r="BI31" s="29" t="str">
-        <f>HLOOKUP(BH31,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ31" s="30"/>
       <c r="BK31" s="30"/>
       <c r="BL31" s="30"/>
       <c r="BM31" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN31" s="29" t="str">
-        <f>HLOOKUP(BM31,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO31" s="30"/>
@@ -4617,15 +4573,15 @@
       <c r="CB31" s="30"/>
       <c r="CC31" s="30"/>
       <c r="CD31" s="30"/>
-      <c r="CE31" s="30"/>
-      <c r="CF31" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG31" s="29" t="str">
-        <f>HLOOKUP(CF31,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE31" s="29">
+        <f>SUM(BO31:CD31)</f>
+        <v>0</v>
+      </c>
+      <c r="CF31" s="29" t="str">
+        <f>HLOOKUP(CE31,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG31" s="30"/>
       <c r="CH31" s="30"/>
       <c r="CI31" s="30"/>
       <c r="CJ31" s="30"/>
@@ -4636,21 +4592,20 @@
       <c r="CO31" s="30"/>
       <c r="CP31" s="30"/>
       <c r="CQ31" s="30"/>
-      <c r="CR31" s="30"/>
-      <c r="CS31" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT31" s="29" t="str">
-        <f>HLOOKUP(CS31,A$13:F$15,2,TRUE)</f>
+      <c r="CR31" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS31" s="29" t="str">
+        <f>HLOOKUP(CR31,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="32" spans="1:127" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D32" s="27" t="str">
@@ -4658,7 +4613,7 @@
         <v>F</v>
       </c>
       <c r="E32" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F32" s="28" t="str">
@@ -4670,7 +4625,7 @@
         <v>D</v>
       </c>
       <c r="H32" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I32" s="28" t="str">
@@ -4705,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="29" t="str">
-        <f>HLOOKUP(AG32,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI32" s="30"/>
@@ -4732,29 +4687,29 @@
       <c r="BD32" s="30"/>
       <c r="BE32" s="30"/>
       <c r="BF32" s="29">
-        <f>SUM(AI32:BE32)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG32" s="29" t="str">
-        <f>HLOOKUP(BF32,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH32" s="29">
         <v>0</v>
       </c>
       <c r="BI32" s="29" t="str">
-        <f>HLOOKUP(BH32,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ32" s="30"/>
       <c r="BK32" s="30"/>
       <c r="BL32" s="30"/>
       <c r="BM32" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN32" s="29" t="str">
-        <f>HLOOKUP(BM32,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO32" s="30"/>
@@ -4773,15 +4728,15 @@
       <c r="CB32" s="30"/>
       <c r="CC32" s="30"/>
       <c r="CD32" s="30"/>
-      <c r="CE32" s="30"/>
-      <c r="CF32" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG32" s="29" t="str">
-        <f>HLOOKUP(CF32,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE32" s="29">
+        <f>SUM(BO32:CD32)</f>
+        <v>0</v>
+      </c>
+      <c r="CF32" s="29" t="str">
+        <f>HLOOKUP(CE32,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG32" s="30"/>
       <c r="CH32" s="30"/>
       <c r="CI32" s="30"/>
       <c r="CJ32" s="30"/>
@@ -4792,21 +4747,20 @@
       <c r="CO32" s="30"/>
       <c r="CP32" s="30"/>
       <c r="CQ32" s="30"/>
-      <c r="CR32" s="30"/>
-      <c r="CS32" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT32" s="29" t="str">
-        <f>HLOOKUP(CS32,A$13:F$15,2,TRUE)</f>
+      <c r="CR32" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS32" s="29" t="str">
+        <f>HLOOKUP(CR32,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="33" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D33" s="27" t="str">
@@ -4814,7 +4768,7 @@
         <v>F</v>
       </c>
       <c r="E33" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F33" s="28" t="str">
@@ -4826,7 +4780,7 @@
         <v>D</v>
       </c>
       <c r="H33" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I33" s="28" t="str">
@@ -4861,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="29" t="str">
-        <f>HLOOKUP(AG33,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI33" s="30"/>
@@ -4888,29 +4842,29 @@
       <c r="BD33" s="30"/>
       <c r="BE33" s="30"/>
       <c r="BF33" s="29">
-        <f>SUM(AI33:BE33)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG33" s="29" t="str">
-        <f>HLOOKUP(BF33,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH33" s="29">
         <v>0</v>
       </c>
       <c r="BI33" s="29" t="str">
-        <f>HLOOKUP(BH33,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ33" s="30"/>
       <c r="BK33" s="30"/>
       <c r="BL33" s="30"/>
       <c r="BM33" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN33" s="29" t="str">
-        <f>HLOOKUP(BM33,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO33" s="30"/>
@@ -4929,15 +4883,15 @@
       <c r="CB33" s="30"/>
       <c r="CC33" s="30"/>
       <c r="CD33" s="30"/>
-      <c r="CE33" s="30"/>
-      <c r="CF33" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG33" s="29" t="str">
-        <f>HLOOKUP(CF33,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE33" s="29">
+        <f>SUM(BO33:CD33)</f>
+        <v>0</v>
+      </c>
+      <c r="CF33" s="29" t="str">
+        <f>HLOOKUP(CE33,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG33" s="30"/>
       <c r="CH33" s="30"/>
       <c r="CI33" s="30"/>
       <c r="CJ33" s="30"/>
@@ -4948,21 +4902,20 @@
       <c r="CO33" s="30"/>
       <c r="CP33" s="30"/>
       <c r="CQ33" s="30"/>
-      <c r="CR33" s="30"/>
-      <c r="CS33" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT33" s="29" t="str">
-        <f>HLOOKUP(CS33,A$13:F$15,2,TRUE)</f>
+      <c r="CR33" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS33" s="29" t="str">
+        <f>HLOOKUP(CR33,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="34" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D34" s="27" t="str">
@@ -4970,7 +4923,7 @@
         <v>F</v>
       </c>
       <c r="E34" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F34" s="28" t="str">
@@ -4982,7 +4935,7 @@
         <v>D</v>
       </c>
       <c r="H34" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I34" s="28" t="str">
@@ -5017,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="AH34" s="29" t="str">
-        <f>HLOOKUP(AG34,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI34" s="30"/>
@@ -5044,29 +4997,29 @@
       <c r="BD34" s="30"/>
       <c r="BE34" s="30"/>
       <c r="BF34" s="29">
-        <f>SUM(AI34:BE34)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG34" s="29" t="str">
-        <f>HLOOKUP(BF34,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH34" s="29">
         <v>0</v>
       </c>
       <c r="BI34" s="29" t="str">
-        <f>HLOOKUP(BH34,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ34" s="30"/>
       <c r="BK34" s="30"/>
       <c r="BL34" s="30"/>
       <c r="BM34" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN34" s="29" t="str">
-        <f>HLOOKUP(BM34,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO34" s="30"/>
@@ -5085,15 +5038,15 @@
       <c r="CB34" s="30"/>
       <c r="CC34" s="30"/>
       <c r="CD34" s="30"/>
-      <c r="CE34" s="30"/>
-      <c r="CF34" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG34" s="29" t="str">
-        <f>HLOOKUP(CF34,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE34" s="29">
+        <f>SUM(BO34:CD34)</f>
+        <v>0</v>
+      </c>
+      <c r="CF34" s="29" t="str">
+        <f>HLOOKUP(CE34,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG34" s="30"/>
       <c r="CH34" s="30"/>
       <c r="CI34" s="30"/>
       <c r="CJ34" s="30"/>
@@ -5104,21 +5057,20 @@
       <c r="CO34" s="30"/>
       <c r="CP34" s="30"/>
       <c r="CQ34" s="30"/>
-      <c r="CR34" s="30"/>
-      <c r="CS34" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT34" s="29" t="str">
-        <f>HLOOKUP(CS34,A$13:F$15,2,TRUE)</f>
+      <c r="CR34" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS34" s="29" t="str">
+        <f>HLOOKUP(CR34,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="35" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D35" s="27" t="str">
@@ -5126,7 +5078,7 @@
         <v>F</v>
       </c>
       <c r="E35" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F35" s="28" t="str">
@@ -5138,7 +5090,7 @@
         <v>D</v>
       </c>
       <c r="H35" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I35" s="28" t="str">
@@ -5173,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="29" t="str">
-        <f>HLOOKUP(AG35,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI35" s="30"/>
@@ -5200,29 +5152,29 @@
       <c r="BD35" s="30"/>
       <c r="BE35" s="30"/>
       <c r="BF35" s="29">
-        <f>SUM(AI35:BE35)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG35" s="29" t="str">
-        <f>HLOOKUP(BF35,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH35" s="29">
         <v>0</v>
       </c>
       <c r="BI35" s="29" t="str">
-        <f>HLOOKUP(BH35,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ35" s="30"/>
       <c r="BK35" s="30"/>
       <c r="BL35" s="30"/>
       <c r="BM35" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN35" s="29" t="str">
-        <f>HLOOKUP(BM35,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO35" s="30"/>
@@ -5241,15 +5193,15 @@
       <c r="CB35" s="30"/>
       <c r="CC35" s="30"/>
       <c r="CD35" s="30"/>
-      <c r="CE35" s="30"/>
-      <c r="CF35" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG35" s="29" t="str">
-        <f>HLOOKUP(CF35,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE35" s="29">
+        <f>SUM(BO35:CD35)</f>
+        <v>0</v>
+      </c>
+      <c r="CF35" s="29" t="str">
+        <f>HLOOKUP(CE35,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG35" s="30"/>
       <c r="CH35" s="30"/>
       <c r="CI35" s="30"/>
       <c r="CJ35" s="30"/>
@@ -5260,21 +5212,20 @@
       <c r="CO35" s="30"/>
       <c r="CP35" s="30"/>
       <c r="CQ35" s="30"/>
-      <c r="CR35" s="30"/>
-      <c r="CS35" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT35" s="29" t="str">
-        <f>HLOOKUP(CS35,A$13:F$15,2,TRUE)</f>
+      <c r="CR35" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS35" s="29" t="str">
+        <f>HLOOKUP(CR35,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="36" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D36" s="27" t="str">
@@ -5282,7 +5233,7 @@
         <v>F</v>
       </c>
       <c r="E36" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F36" s="28" t="str">
@@ -5294,7 +5245,7 @@
         <v>D</v>
       </c>
       <c r="H36" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I36" s="28" t="str">
@@ -5329,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="AH36" s="29" t="str">
-        <f>HLOOKUP(AG36,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI36" s="30"/>
@@ -5356,29 +5307,29 @@
       <c r="BD36" s="30"/>
       <c r="BE36" s="30"/>
       <c r="BF36" s="29">
-        <f>SUM(AI36:BE36)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG36" s="29" t="str">
-        <f>HLOOKUP(BF36,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH36" s="29">
         <v>0</v>
       </c>
       <c r="BI36" s="29" t="str">
-        <f>HLOOKUP(BH36,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ36" s="30"/>
       <c r="BK36" s="30"/>
       <c r="BL36" s="30"/>
       <c r="BM36" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN36" s="29" t="str">
-        <f>HLOOKUP(BM36,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO36" s="30"/>
@@ -5397,15 +5348,15 @@
       <c r="CB36" s="30"/>
       <c r="CC36" s="30"/>
       <c r="CD36" s="30"/>
-      <c r="CE36" s="30"/>
-      <c r="CF36" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG36" s="29" t="str">
-        <f>HLOOKUP(CF36,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE36" s="29">
+        <f>SUM(BO36:CD36)</f>
+        <v>0</v>
+      </c>
+      <c r="CF36" s="29" t="str">
+        <f>HLOOKUP(CE36,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG36" s="30"/>
       <c r="CH36" s="30"/>
       <c r="CI36" s="30"/>
       <c r="CJ36" s="30"/>
@@ -5416,21 +5367,20 @@
       <c r="CO36" s="30"/>
       <c r="CP36" s="30"/>
       <c r="CQ36" s="30"/>
-      <c r="CR36" s="30"/>
-      <c r="CS36" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT36" s="29" t="str">
-        <f>HLOOKUP(CS36,A$13:F$15,2,TRUE)</f>
+      <c r="CR36" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS36" s="29" t="str">
+        <f>HLOOKUP(CR36,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="37" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D37" s="27" t="str">
@@ -5438,7 +5388,7 @@
         <v>F</v>
       </c>
       <c r="E37" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F37" s="28" t="str">
@@ -5450,7 +5400,7 @@
         <v>D</v>
       </c>
       <c r="H37" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I37" s="28" t="str">
@@ -5485,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="AH37" s="29" t="str">
-        <f>HLOOKUP(AG37,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI37" s="30"/>
@@ -5512,29 +5462,29 @@
       <c r="BD37" s="30"/>
       <c r="BE37" s="30"/>
       <c r="BF37" s="29">
-        <f>SUM(AI37:BE37)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG37" s="29" t="str">
-        <f>HLOOKUP(BF37,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH37" s="29">
         <v>0</v>
       </c>
       <c r="BI37" s="29" t="str">
-        <f>HLOOKUP(BH37,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ37" s="30"/>
       <c r="BK37" s="30"/>
       <c r="BL37" s="30"/>
       <c r="BM37" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN37" s="29" t="str">
-        <f>HLOOKUP(BM37,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO37" s="30"/>
@@ -5553,15 +5503,15 @@
       <c r="CB37" s="30"/>
       <c r="CC37" s="30"/>
       <c r="CD37" s="30"/>
-      <c r="CE37" s="30"/>
-      <c r="CF37" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG37" s="29" t="str">
-        <f>HLOOKUP(CF37,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE37" s="29">
+        <f>SUM(BO37:CD37)</f>
+        <v>0</v>
+      </c>
+      <c r="CF37" s="29" t="str">
+        <f>HLOOKUP(CE37,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG37" s="30"/>
       <c r="CH37" s="30"/>
       <c r="CI37" s="30"/>
       <c r="CJ37" s="30"/>
@@ -5572,21 +5522,20 @@
       <c r="CO37" s="30"/>
       <c r="CP37" s="30"/>
       <c r="CQ37" s="30"/>
-      <c r="CR37" s="30"/>
-      <c r="CS37" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT37" s="29" t="str">
-        <f>HLOOKUP(CS37,A$13:F$15,2,TRUE)</f>
+      <c r="CR37" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS37" s="29" t="str">
+        <f>HLOOKUP(CR37,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="38" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D38" s="27" t="str">
@@ -5594,7 +5543,7 @@
         <v>F</v>
       </c>
       <c r="E38" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F38" s="28" t="str">
@@ -5606,7 +5555,7 @@
         <v>D</v>
       </c>
       <c r="H38" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I38" s="28" t="str">
@@ -5641,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="AH38" s="29" t="str">
-        <f>HLOOKUP(AG38,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI38" s="30"/>
@@ -5668,29 +5617,29 @@
       <c r="BD38" s="30"/>
       <c r="BE38" s="30"/>
       <c r="BF38" s="29">
-        <f>SUM(AI38:BE38)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG38" s="29" t="str">
-        <f>HLOOKUP(BF38,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH38" s="29">
         <v>0</v>
       </c>
       <c r="BI38" s="29" t="str">
-        <f>HLOOKUP(BH38,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ38" s="30"/>
       <c r="BK38" s="30"/>
       <c r="BL38" s="30"/>
       <c r="BM38" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN38" s="29" t="str">
-        <f>HLOOKUP(BM38,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO38" s="30"/>
@@ -5709,15 +5658,15 @@
       <c r="CB38" s="30"/>
       <c r="CC38" s="30"/>
       <c r="CD38" s="30"/>
-      <c r="CE38" s="30"/>
-      <c r="CF38" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG38" s="29" t="str">
-        <f>HLOOKUP(CF38,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE38" s="29">
+        <f>SUM(BO38:CD38)</f>
+        <v>0</v>
+      </c>
+      <c r="CF38" s="29" t="str">
+        <f>HLOOKUP(CE38,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG38" s="30"/>
       <c r="CH38" s="30"/>
       <c r="CI38" s="30"/>
       <c r="CJ38" s="30"/>
@@ -5728,21 +5677,20 @@
       <c r="CO38" s="30"/>
       <c r="CP38" s="30"/>
       <c r="CQ38" s="30"/>
-      <c r="CR38" s="30"/>
-      <c r="CS38" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT38" s="29" t="str">
-        <f>HLOOKUP(CS38,A$13:F$15,2,TRUE)</f>
+      <c r="CR38" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS38" s="29" t="str">
+        <f>HLOOKUP(CR38,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="39" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="26"/>
       <c r="C39" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D39" s="27" t="str">
@@ -5750,7 +5698,7 @@
         <v>F</v>
       </c>
       <c r="E39" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F39" s="28" t="str">
@@ -5762,7 +5710,7 @@
         <v>D</v>
       </c>
       <c r="H39" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I39" s="28" t="str">
@@ -5797,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="29" t="str">
-        <f>HLOOKUP(AG39,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI39" s="30"/>
@@ -5824,29 +5772,29 @@
       <c r="BD39" s="30"/>
       <c r="BE39" s="30"/>
       <c r="BF39" s="29">
-        <f>SUM(AI39:BE39)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG39" s="29" t="str">
-        <f>HLOOKUP(BF39,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH39" s="29">
         <v>0</v>
       </c>
       <c r="BI39" s="29" t="str">
-        <f>HLOOKUP(BH39,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ39" s="30"/>
       <c r="BK39" s="30"/>
       <c r="BL39" s="30"/>
       <c r="BM39" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN39" s="29" t="str">
-        <f>HLOOKUP(BM39,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO39" s="30"/>
@@ -5865,15 +5813,15 @@
       <c r="CB39" s="30"/>
       <c r="CC39" s="30"/>
       <c r="CD39" s="30"/>
-      <c r="CE39" s="30"/>
-      <c r="CF39" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG39" s="29" t="str">
-        <f>HLOOKUP(CF39,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE39" s="29">
+        <f>SUM(BO39:CD39)</f>
+        <v>0</v>
+      </c>
+      <c r="CF39" s="29" t="str">
+        <f>HLOOKUP(CE39,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG39" s="30"/>
       <c r="CH39" s="30"/>
       <c r="CI39" s="30"/>
       <c r="CJ39" s="30"/>
@@ -5884,21 +5832,20 @@
       <c r="CO39" s="30"/>
       <c r="CP39" s="30"/>
       <c r="CQ39" s="30"/>
-      <c r="CR39" s="30"/>
-      <c r="CS39" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT39" s="29" t="str">
-        <f>HLOOKUP(CS39,A$13:F$15,2,TRUE)</f>
+      <c r="CR39" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS39" s="29" t="str">
+        <f>HLOOKUP(CR39,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="40" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
       <c r="C40" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D40" s="27" t="str">
@@ -5906,7 +5853,7 @@
         <v>F</v>
       </c>
       <c r="E40" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F40" s="28" t="str">
@@ -5918,7 +5865,7 @@
         <v>D</v>
       </c>
       <c r="H40" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I40" s="28" t="str">
@@ -5953,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="AH40" s="29" t="str">
-        <f>HLOOKUP(AG40,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI40" s="30"/>
@@ -5980,29 +5927,29 @@
       <c r="BD40" s="30"/>
       <c r="BE40" s="30"/>
       <c r="BF40" s="29">
-        <f>SUM(AI40:BE40)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG40" s="29" t="str">
-        <f>HLOOKUP(BF40,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH40" s="29">
         <v>0</v>
       </c>
       <c r="BI40" s="29" t="str">
-        <f>HLOOKUP(BH40,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ40" s="30"/>
       <c r="BK40" s="30"/>
       <c r="BL40" s="30"/>
       <c r="BM40" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN40" s="29" t="str">
-        <f>HLOOKUP(BM40,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO40" s="30"/>
@@ -6021,15 +5968,15 @@
       <c r="CB40" s="30"/>
       <c r="CC40" s="30"/>
       <c r="CD40" s="30"/>
-      <c r="CE40" s="30"/>
-      <c r="CF40" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG40" s="29" t="str">
-        <f>HLOOKUP(CF40,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE40" s="29">
+        <f>SUM(BO40:CD40)</f>
+        <v>0</v>
+      </c>
+      <c r="CF40" s="29" t="str">
+        <f>HLOOKUP(CE40,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG40" s="30"/>
       <c r="CH40" s="30"/>
       <c r="CI40" s="30"/>
       <c r="CJ40" s="30"/>
@@ -6040,21 +5987,20 @@
       <c r="CO40" s="30"/>
       <c r="CP40" s="30"/>
       <c r="CQ40" s="30"/>
-      <c r="CR40" s="30"/>
-      <c r="CS40" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT40" s="29" t="str">
-        <f>HLOOKUP(CS40,A$13:F$15,2,TRUE)</f>
+      <c r="CR40" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS40" s="29" t="str">
+        <f>HLOOKUP(CR40,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="41" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D41" s="27" t="str">
@@ -6062,7 +6008,7 @@
         <v>F</v>
       </c>
       <c r="E41" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F41" s="28" t="str">
@@ -6074,7 +6020,7 @@
         <v>D</v>
       </c>
       <c r="H41" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I41" s="28" t="str">
@@ -6109,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="AH41" s="29" t="str">
-        <f>HLOOKUP(AG41,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI41" s="30"/>
@@ -6136,29 +6082,29 @@
       <c r="BD41" s="30"/>
       <c r="BE41" s="30"/>
       <c r="BF41" s="29">
-        <f>SUM(AI41:BE41)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG41" s="29" t="str">
-        <f>HLOOKUP(BF41,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH41" s="29">
         <v>0</v>
       </c>
       <c r="BI41" s="29" t="str">
-        <f>HLOOKUP(BH41,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ41" s="30"/>
       <c r="BK41" s="30"/>
       <c r="BL41" s="30"/>
       <c r="BM41" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN41" s="29" t="str">
-        <f>HLOOKUP(BM41,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO41" s="30"/>
@@ -6177,15 +6123,15 @@
       <c r="CB41" s="30"/>
       <c r="CC41" s="30"/>
       <c r="CD41" s="30"/>
-      <c r="CE41" s="30"/>
-      <c r="CF41" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG41" s="29" t="str">
-        <f>HLOOKUP(CF41,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE41" s="29">
+        <f>SUM(BO41:CD41)</f>
+        <v>0</v>
+      </c>
+      <c r="CF41" s="29" t="str">
+        <f>HLOOKUP(CE41,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG41" s="30"/>
       <c r="CH41" s="30"/>
       <c r="CI41" s="30"/>
       <c r="CJ41" s="30"/>
@@ -6196,21 +6142,20 @@
       <c r="CO41" s="30"/>
       <c r="CP41" s="30"/>
       <c r="CQ41" s="30"/>
-      <c r="CR41" s="30"/>
-      <c r="CS41" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT41" s="29" t="str">
-        <f>HLOOKUP(CS41,A$13:F$15,2,TRUE)</f>
+      <c r="CR41" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS41" s="29" t="str">
+        <f>HLOOKUP(CR41,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="42" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D42" s="27" t="str">
@@ -6218,7 +6163,7 @@
         <v>F</v>
       </c>
       <c r="E42" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F42" s="28" t="str">
@@ -6230,7 +6175,7 @@
         <v>D</v>
       </c>
       <c r="H42" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I42" s="28" t="str">
@@ -6265,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="AH42" s="29" t="str">
-        <f>HLOOKUP(AG42,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI42" s="30"/>
@@ -6292,29 +6237,29 @@
       <c r="BD42" s="30"/>
       <c r="BE42" s="30"/>
       <c r="BF42" s="29">
-        <f>SUM(AI42:BE42)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG42" s="29" t="str">
-        <f>HLOOKUP(BF42,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH42" s="29">
         <v>0</v>
       </c>
       <c r="BI42" s="29" t="str">
-        <f>HLOOKUP(BH42,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ42" s="30"/>
       <c r="BK42" s="30"/>
       <c r="BL42" s="30"/>
       <c r="BM42" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN42" s="29" t="str">
-        <f>HLOOKUP(BM42,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO42" s="30"/>
@@ -6333,15 +6278,15 @@
       <c r="CB42" s="30"/>
       <c r="CC42" s="30"/>
       <c r="CD42" s="30"/>
-      <c r="CE42" s="30"/>
-      <c r="CF42" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG42" s="29" t="str">
-        <f>HLOOKUP(CF42,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE42" s="29">
+        <f>SUM(BO42:CD42)</f>
+        <v>0</v>
+      </c>
+      <c r="CF42" s="29" t="str">
+        <f>HLOOKUP(CE42,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG42" s="30"/>
       <c r="CH42" s="30"/>
       <c r="CI42" s="30"/>
       <c r="CJ42" s="30"/>
@@ -6352,21 +6297,20 @@
       <c r="CO42" s="30"/>
       <c r="CP42" s="30"/>
       <c r="CQ42" s="30"/>
-      <c r="CR42" s="30"/>
-      <c r="CS42" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT42" s="29" t="str">
-        <f>HLOOKUP(CS42,A$13:F$15,2,TRUE)</f>
+      <c r="CR42" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS42" s="29" t="str">
+        <f>HLOOKUP(CR42,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="43" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D43" s="27" t="str">
@@ -6374,7 +6318,7 @@
         <v>F</v>
       </c>
       <c r="E43" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F43" s="28" t="str">
@@ -6386,7 +6330,7 @@
         <v>D</v>
       </c>
       <c r="H43" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I43" s="28" t="str">
@@ -6421,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="AH43" s="29" t="str">
-        <f>HLOOKUP(AG43,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI43" s="30"/>
@@ -6448,29 +6392,29 @@
       <c r="BD43" s="30"/>
       <c r="BE43" s="30"/>
       <c r="BF43" s="29">
-        <f>SUM(AI43:BE43)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG43" s="29" t="str">
-        <f>HLOOKUP(BF43,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH43" s="29">
         <v>0</v>
       </c>
       <c r="BI43" s="29" t="str">
-        <f>HLOOKUP(BH43,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ43" s="30"/>
       <c r="BK43" s="30"/>
       <c r="BL43" s="30"/>
       <c r="BM43" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN43" s="29" t="str">
-        <f>HLOOKUP(BM43,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO43" s="30"/>
@@ -6489,15 +6433,15 @@
       <c r="CB43" s="30"/>
       <c r="CC43" s="30"/>
       <c r="CD43" s="30"/>
-      <c r="CE43" s="30"/>
-      <c r="CF43" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG43" s="29" t="str">
-        <f>HLOOKUP(CF43,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE43" s="29">
+        <f>SUM(BO43:CD43)</f>
+        <v>0</v>
+      </c>
+      <c r="CF43" s="29" t="str">
+        <f>HLOOKUP(CE43,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG43" s="30"/>
       <c r="CH43" s="30"/>
       <c r="CI43" s="30"/>
       <c r="CJ43" s="30"/>
@@ -6508,21 +6452,20 @@
       <c r="CO43" s="30"/>
       <c r="CP43" s="30"/>
       <c r="CQ43" s="30"/>
-      <c r="CR43" s="30"/>
-      <c r="CS43" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT43" s="29" t="str">
-        <f>HLOOKUP(CS43,A$13:F$15,2,TRUE)</f>
+      <c r="CR43" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS43" s="29" t="str">
+        <f>HLOOKUP(CR43,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="44" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
       <c r="C44" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D44" s="27" t="str">
@@ -6530,7 +6473,7 @@
         <v>F</v>
       </c>
       <c r="E44" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F44" s="28" t="str">
@@ -6542,7 +6485,7 @@
         <v>D</v>
       </c>
       <c r="H44" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I44" s="28" t="str">
@@ -6577,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="AH44" s="29" t="str">
-        <f>HLOOKUP(AG44,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI44" s="30"/>
@@ -6604,29 +6547,29 @@
       <c r="BD44" s="30"/>
       <c r="BE44" s="30"/>
       <c r="BF44" s="29">
-        <f>SUM(AI44:BE44)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG44" s="29" t="str">
-        <f>HLOOKUP(BF44,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH44" s="29">
         <v>0</v>
       </c>
       <c r="BI44" s="29" t="str">
-        <f>HLOOKUP(BH44,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ44" s="30"/>
       <c r="BK44" s="30"/>
       <c r="BL44" s="30"/>
       <c r="BM44" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN44" s="29" t="str">
-        <f>HLOOKUP(BM44,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO44" s="30"/>
@@ -6645,15 +6588,15 @@
       <c r="CB44" s="30"/>
       <c r="CC44" s="30"/>
       <c r="CD44" s="30"/>
-      <c r="CE44" s="30"/>
-      <c r="CF44" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG44" s="29" t="str">
-        <f>HLOOKUP(CF44,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE44" s="29">
+        <f>SUM(BO44:CD44)</f>
+        <v>0</v>
+      </c>
+      <c r="CF44" s="29" t="str">
+        <f>HLOOKUP(CE44,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG44" s="30"/>
       <c r="CH44" s="30"/>
       <c r="CI44" s="30"/>
       <c r="CJ44" s="30"/>
@@ -6664,21 +6607,20 @@
       <c r="CO44" s="30"/>
       <c r="CP44" s="30"/>
       <c r="CQ44" s="30"/>
-      <c r="CR44" s="30"/>
-      <c r="CS44" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT44" s="29" t="str">
-        <f>HLOOKUP(CS44,A$13:F$15,2,TRUE)</f>
+      <c r="CR44" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS44" s="29" t="str">
+        <f>HLOOKUP(CR44,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="45" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D45" s="27" t="str">
@@ -6686,7 +6628,7 @@
         <v>F</v>
       </c>
       <c r="E45" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F45" s="28" t="str">
@@ -6698,7 +6640,7 @@
         <v>D</v>
       </c>
       <c r="H45" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I45" s="28" t="str">
@@ -6733,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="AH45" s="29" t="str">
-        <f>HLOOKUP(AG45,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI45" s="30"/>
@@ -6760,29 +6702,29 @@
       <c r="BD45" s="30"/>
       <c r="BE45" s="30"/>
       <c r="BF45" s="29">
-        <f>SUM(AI45:BE45)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG45" s="29" t="str">
-        <f>HLOOKUP(BF45,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH45" s="29">
         <v>0</v>
       </c>
       <c r="BI45" s="29" t="str">
-        <f>HLOOKUP(BH45,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ45" s="30"/>
       <c r="BK45" s="30"/>
       <c r="BL45" s="30"/>
       <c r="BM45" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN45" s="29" t="str">
-        <f>HLOOKUP(BM45,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO45" s="30"/>
@@ -6801,15 +6743,15 @@
       <c r="CB45" s="30"/>
       <c r="CC45" s="30"/>
       <c r="CD45" s="30"/>
-      <c r="CE45" s="30"/>
-      <c r="CF45" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG45" s="29" t="str">
-        <f>HLOOKUP(CF45,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE45" s="29">
+        <f>SUM(BO45:CD45)</f>
+        <v>0</v>
+      </c>
+      <c r="CF45" s="29" t="str">
+        <f>HLOOKUP(CE45,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG45" s="30"/>
       <c r="CH45" s="30"/>
       <c r="CI45" s="30"/>
       <c r="CJ45" s="30"/>
@@ -6820,21 +6762,20 @@
       <c r="CO45" s="30"/>
       <c r="CP45" s="30"/>
       <c r="CQ45" s="30"/>
-      <c r="CR45" s="30"/>
-      <c r="CS45" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT45" s="29" t="str">
-        <f>HLOOKUP(CS45,A$13:F$15,2,TRUE)</f>
+      <c r="CR45" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS45" s="29" t="str">
+        <f>HLOOKUP(CR45,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="46" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D46" s="27" t="str">
@@ -6842,7 +6783,7 @@
         <v>F</v>
       </c>
       <c r="E46" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F46" s="28" t="str">
@@ -6854,7 +6795,7 @@
         <v>D</v>
       </c>
       <c r="H46" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I46" s="28" t="str">
@@ -6889,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="AH46" s="29" t="str">
-        <f>HLOOKUP(AG46,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI46" s="30"/>
@@ -6916,29 +6857,29 @@
       <c r="BD46" s="30"/>
       <c r="BE46" s="30"/>
       <c r="BF46" s="29">
-        <f>SUM(AI46:BE46)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG46" s="29" t="str">
-        <f>HLOOKUP(BF46,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH46" s="29">
         <v>0</v>
       </c>
       <c r="BI46" s="29" t="str">
-        <f>HLOOKUP(BH46,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ46" s="30"/>
       <c r="BK46" s="30"/>
       <c r="BL46" s="30"/>
       <c r="BM46" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN46" s="29" t="str">
-        <f>HLOOKUP(BM46,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO46" s="30"/>
@@ -6957,15 +6898,15 @@
       <c r="CB46" s="30"/>
       <c r="CC46" s="30"/>
       <c r="CD46" s="30"/>
-      <c r="CE46" s="30"/>
-      <c r="CF46" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG46" s="29" t="str">
-        <f>HLOOKUP(CF46,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE46" s="29">
+        <f>SUM(BO46:CD46)</f>
+        <v>0</v>
+      </c>
+      <c r="CF46" s="29" t="str">
+        <f>HLOOKUP(CE46,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG46" s="30"/>
       <c r="CH46" s="30"/>
       <c r="CI46" s="30"/>
       <c r="CJ46" s="30"/>
@@ -6976,21 +6917,20 @@
       <c r="CO46" s="30"/>
       <c r="CP46" s="30"/>
       <c r="CQ46" s="30"/>
-      <c r="CR46" s="30"/>
-      <c r="CS46" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT46" s="29" t="str">
-        <f>HLOOKUP(CS46,A$13:F$15,2,TRUE)</f>
+      <c r="CR46" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS46" s="29" t="str">
+        <f>HLOOKUP(CR46,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="47" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D47" s="27" t="str">
@@ -6998,7 +6938,7 @@
         <v>F</v>
       </c>
       <c r="E47" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F47" s="28" t="str">
@@ -7010,7 +6950,7 @@
         <v>D</v>
       </c>
       <c r="H47" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I47" s="28" t="str">
@@ -7045,7 +6985,7 @@
         <v>0</v>
       </c>
       <c r="AH47" s="29" t="str">
-        <f>HLOOKUP(AG47,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI47" s="30"/>
@@ -7072,29 +7012,29 @@
       <c r="BD47" s="30"/>
       <c r="BE47" s="30"/>
       <c r="BF47" s="29">
-        <f>SUM(AI47:BE47)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG47" s="29" t="str">
-        <f>HLOOKUP(BF47,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH47" s="29">
         <v>0</v>
       </c>
       <c r="BI47" s="29" t="str">
-        <f>HLOOKUP(BH47,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ47" s="30"/>
       <c r="BK47" s="30"/>
       <c r="BL47" s="30"/>
       <c r="BM47" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN47" s="29" t="str">
-        <f>HLOOKUP(BM47,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO47" s="30"/>
@@ -7113,15 +7053,15 @@
       <c r="CB47" s="30"/>
       <c r="CC47" s="30"/>
       <c r="CD47" s="30"/>
-      <c r="CE47" s="30"/>
-      <c r="CF47" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG47" s="29" t="str">
-        <f>HLOOKUP(CF47,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE47" s="29">
+        <f>SUM(BO47:CD47)</f>
+        <v>0</v>
+      </c>
+      <c r="CF47" s="29" t="str">
+        <f>HLOOKUP(CE47,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG47" s="30"/>
       <c r="CH47" s="30"/>
       <c r="CI47" s="30"/>
       <c r="CJ47" s="30"/>
@@ -7132,21 +7072,20 @@
       <c r="CO47" s="30"/>
       <c r="CP47" s="30"/>
       <c r="CQ47" s="30"/>
-      <c r="CR47" s="30"/>
-      <c r="CS47" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT47" s="29" t="str">
-        <f>HLOOKUP(CS47,A$13:F$15,2,TRUE)</f>
+      <c r="CR47" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS47" s="29" t="str">
+        <f>HLOOKUP(CR47,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="48" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D48" s="27" t="str">
@@ -7154,7 +7093,7 @@
         <v>F</v>
       </c>
       <c r="E48" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F48" s="28" t="str">
@@ -7166,7 +7105,7 @@
         <v>D</v>
       </c>
       <c r="H48" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I48" s="28" t="str">
@@ -7201,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="AH48" s="29" t="str">
-        <f>HLOOKUP(AG48,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI48" s="30"/>
@@ -7228,29 +7167,29 @@
       <c r="BD48" s="30"/>
       <c r="BE48" s="30"/>
       <c r="BF48" s="29">
-        <f>SUM(AI48:BE48)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG48" s="29" t="str">
-        <f>HLOOKUP(BF48,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH48" s="29">
         <v>0</v>
       </c>
       <c r="BI48" s="29" t="str">
-        <f>HLOOKUP(BH48,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ48" s="30"/>
       <c r="BK48" s="30"/>
       <c r="BL48" s="30"/>
       <c r="BM48" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN48" s="29" t="str">
-        <f>HLOOKUP(BM48,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO48" s="30"/>
@@ -7269,15 +7208,15 @@
       <c r="CB48" s="30"/>
       <c r="CC48" s="30"/>
       <c r="CD48" s="30"/>
-      <c r="CE48" s="30"/>
-      <c r="CF48" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG48" s="29" t="str">
-        <f>HLOOKUP(CF48,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE48" s="29">
+        <f>SUM(BO48:CD48)</f>
+        <v>0</v>
+      </c>
+      <c r="CF48" s="29" t="str">
+        <f>HLOOKUP(CE48,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG48" s="30"/>
       <c r="CH48" s="30"/>
       <c r="CI48" s="30"/>
       <c r="CJ48" s="30"/>
@@ -7288,21 +7227,20 @@
       <c r="CO48" s="30"/>
       <c r="CP48" s="30"/>
       <c r="CQ48" s="30"/>
-      <c r="CR48" s="30"/>
-      <c r="CS48" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT48" s="29" t="str">
-        <f>HLOOKUP(CS48,A$13:F$15,2,TRUE)</f>
+      <c r="CR48" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS48" s="29" t="str">
+        <f>HLOOKUP(CR48,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="49" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D49" s="27" t="str">
@@ -7310,7 +7248,7 @@
         <v>F</v>
       </c>
       <c r="E49" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F49" s="28" t="str">
@@ -7322,7 +7260,7 @@
         <v>D</v>
       </c>
       <c r="H49" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I49" s="28" t="str">
@@ -7357,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="AH49" s="29" t="str">
-        <f>HLOOKUP(AG49,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI49" s="30"/>
@@ -7384,29 +7322,29 @@
       <c r="BD49" s="30"/>
       <c r="BE49" s="30"/>
       <c r="BF49" s="29">
-        <f>SUM(AI49:BE49)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG49" s="29" t="str">
-        <f>HLOOKUP(BF49,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH49" s="29">
         <v>0</v>
       </c>
       <c r="BI49" s="29" t="str">
-        <f>HLOOKUP(BH49,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ49" s="30"/>
       <c r="BK49" s="30"/>
       <c r="BL49" s="30"/>
       <c r="BM49" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN49" s="29" t="str">
-        <f>HLOOKUP(BM49,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO49" s="30"/>
@@ -7425,15 +7363,15 @@
       <c r="CB49" s="30"/>
       <c r="CC49" s="30"/>
       <c r="CD49" s="30"/>
-      <c r="CE49" s="30"/>
-      <c r="CF49" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG49" s="29" t="str">
-        <f>HLOOKUP(CF49,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE49" s="29">
+        <f>SUM(BO49:CD49)</f>
+        <v>0</v>
+      </c>
+      <c r="CF49" s="29" t="str">
+        <f>HLOOKUP(CE49,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG49" s="30"/>
       <c r="CH49" s="30"/>
       <c r="CI49" s="30"/>
       <c r="CJ49" s="30"/>
@@ -7444,21 +7382,20 @@
       <c r="CO49" s="30"/>
       <c r="CP49" s="30"/>
       <c r="CQ49" s="30"/>
-      <c r="CR49" s="30"/>
-      <c r="CS49" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT49" s="29" t="str">
-        <f>HLOOKUP(CS49,A$13:F$15,2,TRUE)</f>
+      <c r="CR49" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS49" s="29" t="str">
+        <f>HLOOKUP(CR49,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="50" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
       <c r="C50" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D50" s="27" t="str">
@@ -7466,7 +7403,7 @@
         <v>F</v>
       </c>
       <c r="E50" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F50" s="28" t="str">
@@ -7478,7 +7415,7 @@
         <v>D</v>
       </c>
       <c r="H50" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I50" s="28" t="str">
@@ -7513,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="AH50" s="29" t="str">
-        <f>HLOOKUP(AG50,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI50" s="30"/>
@@ -7540,29 +7477,29 @@
       <c r="BD50" s="30"/>
       <c r="BE50" s="30"/>
       <c r="BF50" s="29">
-        <f>SUM(AI50:BE50)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG50" s="29" t="str">
-        <f>HLOOKUP(BF50,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH50" s="29">
         <v>0</v>
       </c>
       <c r="BI50" s="29" t="str">
-        <f>HLOOKUP(BH50,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ50" s="30"/>
       <c r="BK50" s="30"/>
       <c r="BL50" s="30"/>
       <c r="BM50" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN50" s="29" t="str">
-        <f>HLOOKUP(BM50,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO50" s="30"/>
@@ -7581,15 +7518,15 @@
       <c r="CB50" s="30"/>
       <c r="CC50" s="30"/>
       <c r="CD50" s="30"/>
-      <c r="CE50" s="30"/>
-      <c r="CF50" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG50" s="29" t="str">
-        <f>HLOOKUP(CF50,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE50" s="29">
+        <f>SUM(BO50:CD50)</f>
+        <v>0</v>
+      </c>
+      <c r="CF50" s="29" t="str">
+        <f>HLOOKUP(CE50,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG50" s="30"/>
       <c r="CH50" s="30"/>
       <c r="CI50" s="30"/>
       <c r="CJ50" s="30"/>
@@ -7600,21 +7537,20 @@
       <c r="CO50" s="30"/>
       <c r="CP50" s="30"/>
       <c r="CQ50" s="30"/>
-      <c r="CR50" s="30"/>
-      <c r="CS50" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT50" s="29" t="str">
-        <f>HLOOKUP(CS50,A$13:F$15,2,TRUE)</f>
+      <c r="CR50" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS50" s="29" t="str">
+        <f>HLOOKUP(CR50,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="51" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D51" s="27" t="str">
@@ -7622,7 +7558,7 @@
         <v>F</v>
       </c>
       <c r="E51" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F51" s="28" t="str">
@@ -7634,7 +7570,7 @@
         <v>D</v>
       </c>
       <c r="H51" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I51" s="28" t="str">
@@ -7669,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="AH51" s="29" t="str">
-        <f>HLOOKUP(AG51,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI51" s="30"/>
@@ -7696,29 +7632,29 @@
       <c r="BD51" s="30"/>
       <c r="BE51" s="30"/>
       <c r="BF51" s="29">
-        <f>SUM(AI51:BE51)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG51" s="29" t="str">
-        <f>HLOOKUP(BF51,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH51" s="29">
         <v>0</v>
       </c>
       <c r="BI51" s="29" t="str">
-        <f>HLOOKUP(BH51,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ51" s="30"/>
       <c r="BK51" s="30"/>
       <c r="BL51" s="30"/>
       <c r="BM51" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN51" s="29" t="str">
-        <f>HLOOKUP(BM51,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO51" s="30"/>
@@ -7737,15 +7673,15 @@
       <c r="CB51" s="30"/>
       <c r="CC51" s="30"/>
       <c r="CD51" s="30"/>
-      <c r="CE51" s="30"/>
-      <c r="CF51" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG51" s="29" t="str">
-        <f>HLOOKUP(CF51,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE51" s="29">
+        <f>SUM(BO51:CD51)</f>
+        <v>0</v>
+      </c>
+      <c r="CF51" s="29" t="str">
+        <f>HLOOKUP(CE51,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG51" s="30"/>
       <c r="CH51" s="30"/>
       <c r="CI51" s="30"/>
       <c r="CJ51" s="30"/>
@@ -7756,21 +7692,20 @@
       <c r="CO51" s="30"/>
       <c r="CP51" s="30"/>
       <c r="CQ51" s="30"/>
-      <c r="CR51" s="30"/>
-      <c r="CS51" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT51" s="29" t="str">
-        <f>HLOOKUP(CS51,A$13:F$15,2,TRUE)</f>
+      <c r="CR51" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS51" s="29" t="str">
+        <f>HLOOKUP(CR51,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="52" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D52" s="27" t="str">
@@ -7778,7 +7713,7 @@
         <v>F</v>
       </c>
       <c r="E52" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F52" s="28" t="str">
@@ -7790,7 +7725,7 @@
         <v>D</v>
       </c>
       <c r="H52" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I52" s="28" t="str">
@@ -7825,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="AH52" s="29" t="str">
-        <f>HLOOKUP(AG52,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI52" s="30"/>
@@ -7852,29 +7787,29 @@
       <c r="BD52" s="30"/>
       <c r="BE52" s="30"/>
       <c r="BF52" s="29">
-        <f>SUM(AI52:BE52)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG52" s="29" t="str">
-        <f>HLOOKUP(BF52,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH52" s="29">
         <v>0</v>
       </c>
       <c r="BI52" s="29" t="str">
-        <f>HLOOKUP(BH52,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ52" s="30"/>
       <c r="BK52" s="30"/>
       <c r="BL52" s="30"/>
       <c r="BM52" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN52" s="29" t="str">
-        <f>HLOOKUP(BM52,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO52" s="30"/>
@@ -7893,15 +7828,15 @@
       <c r="CB52" s="30"/>
       <c r="CC52" s="30"/>
       <c r="CD52" s="30"/>
-      <c r="CE52" s="30"/>
-      <c r="CF52" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG52" s="29" t="str">
-        <f>HLOOKUP(CF52,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE52" s="29">
+        <f>SUM(BO52:CD52)</f>
+        <v>0</v>
+      </c>
+      <c r="CF52" s="29" t="str">
+        <f>HLOOKUP(CE52,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG52" s="30"/>
       <c r="CH52" s="30"/>
       <c r="CI52" s="30"/>
       <c r="CJ52" s="30"/>
@@ -7912,21 +7847,20 @@
       <c r="CO52" s="30"/>
       <c r="CP52" s="30"/>
       <c r="CQ52" s="30"/>
-      <c r="CR52" s="30"/>
-      <c r="CS52" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT52" s="29" t="str">
-        <f>HLOOKUP(CS52,A$13:F$15,2,TRUE)</f>
+      <c r="CR52" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS52" s="29" t="str">
+        <f>HLOOKUP(CR52,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="53" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
       <c r="C53" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D53" s="27" t="str">
@@ -7934,7 +7868,7 @@
         <v>F</v>
       </c>
       <c r="E53" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F53" s="28" t="str">
@@ -7946,7 +7880,7 @@
         <v>D</v>
       </c>
       <c r="H53" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I53" s="28" t="str">
@@ -7981,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="AH53" s="29" t="str">
-        <f>HLOOKUP(AG53,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI53" s="30"/>
@@ -8008,29 +7942,29 @@
       <c r="BD53" s="30"/>
       <c r="BE53" s="30"/>
       <c r="BF53" s="29">
-        <f>SUM(AI53:BE53)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG53" s="29" t="str">
-        <f>HLOOKUP(BF53,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH53" s="29">
         <v>0</v>
       </c>
       <c r="BI53" s="29" t="str">
-        <f>HLOOKUP(BH53,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ53" s="30"/>
       <c r="BK53" s="30"/>
       <c r="BL53" s="30"/>
       <c r="BM53" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN53" s="29" t="str">
-        <f>HLOOKUP(BM53,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO53" s="30"/>
@@ -8049,15 +7983,15 @@
       <c r="CB53" s="30"/>
       <c r="CC53" s="30"/>
       <c r="CD53" s="30"/>
-      <c r="CE53" s="30"/>
-      <c r="CF53" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG53" s="29" t="str">
-        <f>HLOOKUP(CF53,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE53" s="29">
+        <f>SUM(BO53:CD53)</f>
+        <v>0</v>
+      </c>
+      <c r="CF53" s="29" t="str">
+        <f>HLOOKUP(CE53,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG53" s="30"/>
       <c r="CH53" s="30"/>
       <c r="CI53" s="30"/>
       <c r="CJ53" s="30"/>
@@ -8068,21 +8002,20 @@
       <c r="CO53" s="30"/>
       <c r="CP53" s="30"/>
       <c r="CQ53" s="30"/>
-      <c r="CR53" s="30"/>
-      <c r="CS53" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT53" s="29" t="str">
-        <f>HLOOKUP(CS53,A$13:F$15,2,TRUE)</f>
+      <c r="CR53" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS53" s="29" t="str">
+        <f>HLOOKUP(CR53,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="54" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
       <c r="C54" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D54" s="27" t="str">
@@ -8090,7 +8023,7 @@
         <v>F</v>
       </c>
       <c r="E54" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F54" s="28" t="str">
@@ -8102,7 +8035,7 @@
         <v>D</v>
       </c>
       <c r="H54" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I54" s="28" t="str">
@@ -8137,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="AH54" s="29" t="str">
-        <f>HLOOKUP(AG54,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI54" s="30"/>
@@ -8164,29 +8097,29 @@
       <c r="BD54" s="30"/>
       <c r="BE54" s="30"/>
       <c r="BF54" s="29">
-        <f>SUM(AI54:BE54)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG54" s="29" t="str">
-        <f>HLOOKUP(BF54,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH54" s="29">
         <v>0</v>
       </c>
       <c r="BI54" s="29" t="str">
-        <f>HLOOKUP(BH54,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ54" s="30"/>
       <c r="BK54" s="30"/>
       <c r="BL54" s="30"/>
       <c r="BM54" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN54" s="29" t="str">
-        <f>HLOOKUP(BM54,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO54" s="30"/>
@@ -8205,15 +8138,15 @@
       <c r="CB54" s="30"/>
       <c r="CC54" s="30"/>
       <c r="CD54" s="30"/>
-      <c r="CE54" s="30"/>
-      <c r="CF54" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG54" s="29" t="str">
-        <f>HLOOKUP(CF54,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE54" s="29">
+        <f>SUM(BO54:CD54)</f>
+        <v>0</v>
+      </c>
+      <c r="CF54" s="29" t="str">
+        <f>HLOOKUP(CE54,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG54" s="30"/>
       <c r="CH54" s="30"/>
       <c r="CI54" s="30"/>
       <c r="CJ54" s="30"/>
@@ -8224,21 +8157,20 @@
       <c r="CO54" s="30"/>
       <c r="CP54" s="30"/>
       <c r="CQ54" s="30"/>
-      <c r="CR54" s="30"/>
-      <c r="CS54" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT54" s="29" t="str">
-        <f>HLOOKUP(CS54,A$13:F$15,2,TRUE)</f>
+      <c r="CR54" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS54" s="29" t="str">
+        <f>HLOOKUP(CR54,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="55" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
       <c r="C55" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D55" s="27" t="str">
@@ -8246,7 +8178,7 @@
         <v>F</v>
       </c>
       <c r="E55" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F55" s="28" t="str">
@@ -8258,7 +8190,7 @@
         <v>D</v>
       </c>
       <c r="H55" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I55" s="28" t="str">
@@ -8293,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="AH55" s="29" t="str">
-        <f>HLOOKUP(AG55,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI55" s="30"/>
@@ -8320,29 +8252,29 @@
       <c r="BD55" s="30"/>
       <c r="BE55" s="30"/>
       <c r="BF55" s="29">
-        <f>SUM(AI55:BE55)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG55" s="29" t="str">
-        <f>HLOOKUP(BF55,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH55" s="29">
         <v>0</v>
       </c>
       <c r="BI55" s="29" t="str">
-        <f>HLOOKUP(BH55,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ55" s="30"/>
       <c r="BK55" s="30"/>
       <c r="BL55" s="30"/>
       <c r="BM55" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN55" s="29" t="str">
-        <f>HLOOKUP(BM55,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO55" s="30"/>
@@ -8361,15 +8293,15 @@
       <c r="CB55" s="30"/>
       <c r="CC55" s="30"/>
       <c r="CD55" s="30"/>
-      <c r="CE55" s="30"/>
-      <c r="CF55" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG55" s="29" t="str">
-        <f>HLOOKUP(CF55,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE55" s="29">
+        <f>SUM(BO55:CD55)</f>
+        <v>0</v>
+      </c>
+      <c r="CF55" s="29" t="str">
+        <f>HLOOKUP(CE55,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG55" s="30"/>
       <c r="CH55" s="30"/>
       <c r="CI55" s="30"/>
       <c r="CJ55" s="30"/>
@@ -8380,21 +8312,20 @@
       <c r="CO55" s="30"/>
       <c r="CP55" s="30"/>
       <c r="CQ55" s="30"/>
-      <c r="CR55" s="30"/>
-      <c r="CS55" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT55" s="29" t="str">
-        <f>HLOOKUP(CS55,A$13:F$15,2,TRUE)</f>
+      <c r="CR55" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS55" s="29" t="str">
+        <f>HLOOKUP(CR55,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="56" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
       <c r="C56" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D56" s="27" t="str">
@@ -8402,7 +8333,7 @@
         <v>F</v>
       </c>
       <c r="E56" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F56" s="28" t="str">
@@ -8414,7 +8345,7 @@
         <v>D</v>
       </c>
       <c r="H56" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I56" s="28" t="str">
@@ -8449,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="AH56" s="29" t="str">
-        <f>HLOOKUP(AG56,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI56" s="30"/>
@@ -8476,29 +8407,29 @@
       <c r="BD56" s="30"/>
       <c r="BE56" s="30"/>
       <c r="BF56" s="29">
-        <f>SUM(AI56:BE56)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG56" s="29" t="str">
-        <f>HLOOKUP(BF56,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH56" s="29">
         <v>0</v>
       </c>
       <c r="BI56" s="29" t="str">
-        <f>HLOOKUP(BH56,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ56" s="30"/>
       <c r="BK56" s="30"/>
       <c r="BL56" s="30"/>
       <c r="BM56" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN56" s="29" t="str">
-        <f>HLOOKUP(BM56,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO56" s="30"/>
@@ -8517,15 +8448,15 @@
       <c r="CB56" s="30"/>
       <c r="CC56" s="30"/>
       <c r="CD56" s="30"/>
-      <c r="CE56" s="30"/>
-      <c r="CF56" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG56" s="29" t="str">
-        <f>HLOOKUP(CF56,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE56" s="29">
+        <f>SUM(BO56:CD56)</f>
+        <v>0</v>
+      </c>
+      <c r="CF56" s="29" t="str">
+        <f>HLOOKUP(CE56,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG56" s="30"/>
       <c r="CH56" s="30"/>
       <c r="CI56" s="30"/>
       <c r="CJ56" s="30"/>
@@ -8536,21 +8467,20 @@
       <c r="CO56" s="30"/>
       <c r="CP56" s="30"/>
       <c r="CQ56" s="30"/>
-      <c r="CR56" s="30"/>
-      <c r="CS56" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT56" s="29" t="str">
-        <f>HLOOKUP(CS56,A$13:F$15,2,TRUE)</f>
+      <c r="CR56" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS56" s="29" t="str">
+        <f>HLOOKUP(CR56,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="57" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A57" s="26"/>
       <c r="B57" s="26"/>
       <c r="C57" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>F</v>
       </c>
       <c r="D57" s="27" t="str">
@@ -8558,7 +8488,7 @@
         <v>F</v>
       </c>
       <c r="E57" s="28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>F</v>
       </c>
       <c r="F57" s="28" t="str">
@@ -8570,7 +8500,7 @@
         <v>D</v>
       </c>
       <c r="H57" s="28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>F</v>
       </c>
       <c r="I57" s="28" t="str">
@@ -8605,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="AH57" s="29" t="str">
-        <f>HLOOKUP(AG57,A$8:F$15,7,TRUE)</f>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="AI57" s="30"/>
@@ -8632,29 +8562,29 @@
       <c r="BD57" s="30"/>
       <c r="BE57" s="30"/>
       <c r="BF57" s="29">
-        <f>SUM(AI57:BE57)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG57" s="29" t="str">
-        <f>HLOOKUP(BF57,A$9:F$15,6,TRUE)</f>
+        <f t="shared" si="6"/>
         <v>F</v>
       </c>
       <c r="BH57" s="29">
         <v>0</v>
       </c>
       <c r="BI57" s="29" t="str">
-        <f>HLOOKUP(BH57,B$10:F$15,5,TRUE)</f>
+        <f t="shared" si="7"/>
         <v>F</v>
       </c>
       <c r="BJ57" s="30"/>
       <c r="BK57" s="30"/>
       <c r="BL57" s="30"/>
       <c r="BM57" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BN57" s="29" t="str">
-        <f>HLOOKUP(BM57,A$11:F$15,4,TRUE)</f>
+        <f t="shared" si="8"/>
         <v>D</v>
       </c>
       <c r="BO57" s="30"/>
@@ -8673,15 +8603,15 @@
       <c r="CB57" s="30"/>
       <c r="CC57" s="30"/>
       <c r="CD57" s="30"/>
-      <c r="CE57" s="30"/>
-      <c r="CF57" s="29">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CG57" s="29" t="str">
-        <f>HLOOKUP(CF57,A$12:F$15,3,TRUE)</f>
-        <v>F</v>
-      </c>
+      <c r="CE57" s="29">
+        <f>SUM(BO57:CD57)</f>
+        <v>0</v>
+      </c>
+      <c r="CF57" s="29" t="str">
+        <f>HLOOKUP(CE57,A$12:F$15,3,TRUE)</f>
+        <v>F</v>
+      </c>
+      <c r="CG57" s="30"/>
       <c r="CH57" s="30"/>
       <c r="CI57" s="30"/>
       <c r="CJ57" s="30"/>
@@ -8692,17 +8622,16 @@
       <c r="CO57" s="30"/>
       <c r="CP57" s="30"/>
       <c r="CQ57" s="30"/>
-      <c r="CR57" s="30"/>
-      <c r="CS57" s="29">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CT57" s="29" t="str">
-        <f>HLOOKUP(CS57,A$13:F$15,2,TRUE)</f>
+      <c r="CR57" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="CS57" s="29" t="str">
+        <f>HLOOKUP(CR57,A$13:F$15,2,TRUE)</f>
         <v>C</v>
       </c>
     </row>
-    <row r="58" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A58" s="79"/>
       <c r="B58" s="79"/>
       <c r="C58" s="79"/>
@@ -8726,10 +8655,10 @@
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
     </row>
-    <row r="59" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
     </row>
-    <row r="60" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
     </row>
   </sheetData>
@@ -8737,7 +8666,7 @@
     <mergeCell ref="A58:E58"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="A18:CT57">
+  <conditionalFormatting sqref="A18:CS57">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -8789,7 +8718,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>37</v>
@@ -8809,10 +8738,10 @@
         <v>40</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -8866,19 +8795,19 @@
         <v>11</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6">
         <v>220</v>
@@ -8907,7 +8836,7 @@
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="74"/>
       <c r="C8" s="74"/>
@@ -8918,7 +8847,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -8932,16 +8861,16 @@
         <v>40</v>
       </c>
       <c r="C9" s="71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -8974,16 +8903,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -8991,10 +8920,10 @@
         <v>64</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="50" t="s">
         <v>63</v>
@@ -9002,21 +8931,21 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="48" t="s">
         <v>65</v>
@@ -9030,26 +8959,26 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="48" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>75</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="50"/>
     </row>
     <row r="20" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="D20" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="E20" s="54" t="s">
         <v>78</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
